--- a/assets/Database.xlsx
+++ b/assets/Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renee\StudioProjects\MyApplication\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65906\AndroidStudioProjects\calory_app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6188D766-5F8B-4901-A491-6D476B46183C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B91D77-AD7D-4A46-81BE-72B4236EC487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="12852" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="upperBodyData" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>exerciseId</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>Start off standing straight, do a squat and place ur palms on the floor. Proceed to kick out both your legs to transition into a pushup position, before jumping back into a squat before standing back up.</t>
-  </si>
-  <si>
-    <t>exerciseTime (secs)</t>
   </si>
   <si>
     <t>C1</t>
@@ -543,17 +540,17 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="129.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="129.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -587,7 +584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -604,7 +601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -621,7 +618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -638,7 +635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -652,10 +649,10 @@
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -672,7 +669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -689,2980 +686,2980 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E112" s="4"/>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E113" s="4"/>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E114" s="4"/>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E115" s="4"/>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E118" s="4"/>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E119" s="4"/>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E120" s="4"/>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E125" s="4"/>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E127" s="4"/>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E128" s="4"/>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E129" s="4"/>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E130" s="4"/>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E131" s="4"/>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E132" s="4"/>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E133" s="4"/>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E134" s="4"/>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E135" s="4"/>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E136" s="4"/>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E137" s="4"/>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E139" s="4"/>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E140" s="4"/>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E148" s="4"/>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E149" s="4"/>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E151" s="4"/>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E154" s="4"/>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E157" s="4"/>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E160" s="4"/>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E163" s="4"/>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E164" s="4"/>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E168" s="4"/>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E169" s="4"/>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E171" s="4"/>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E172" s="4"/>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E177" s="4"/>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E178" s="4"/>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E179" s="4"/>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E180" s="4"/>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E181" s="4"/>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E182" s="4"/>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E183" s="4"/>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E185" s="4"/>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E186" s="4"/>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E188" s="4"/>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E189" s="4"/>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E192" s="4"/>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E193" s="4"/>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E194" s="4"/>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E195" s="4"/>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E198" s="4"/>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E199" s="4"/>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E200" s="4"/>
     </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E201" s="4"/>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E202" s="4"/>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E203" s="4"/>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E204" s="4"/>
     </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E205" s="4"/>
     </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E206" s="4"/>
     </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E207" s="4"/>
     </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E208" s="4"/>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E209" s="4"/>
     </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E210" s="4"/>
     </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E211" s="4"/>
     </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E212" s="4"/>
     </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E213" s="4"/>
     </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E214" s="4"/>
     </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E215" s="4"/>
     </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E216" s="4"/>
     </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E217" s="4"/>
     </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E218" s="4"/>
     </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E219" s="4"/>
     </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E220" s="4"/>
     </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E221" s="4"/>
     </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E222" s="4"/>
     </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E223" s="4"/>
     </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E224" s="4"/>
     </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E225" s="4"/>
     </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E226" s="4"/>
     </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E227" s="4"/>
     </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E228" s="4"/>
     </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E229" s="4"/>
     </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E230" s="4"/>
     </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E231" s="4"/>
     </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E232" s="4"/>
     </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E233" s="4"/>
     </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E234" s="4"/>
     </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E235" s="4"/>
     </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E236" s="4"/>
     </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E237" s="4"/>
     </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E238" s="4"/>
     </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E239" s="4"/>
     </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E240" s="4"/>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E241" s="4"/>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E242" s="4"/>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E243" s="4"/>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E244" s="4"/>
     </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E245" s="4"/>
     </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E246" s="4"/>
     </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E247" s="4"/>
     </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E248" s="4"/>
     </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E249" s="4"/>
     </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E250" s="4"/>
     </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E251" s="4"/>
     </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E252" s="4"/>
     </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E253" s="4"/>
     </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E254" s="4"/>
     </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E255" s="4"/>
     </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E256" s="4"/>
     </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E257" s="4"/>
     </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E258" s="4"/>
     </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E259" s="4"/>
     </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E260" s="4"/>
     </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E261" s="4"/>
     </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E262" s="4"/>
     </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E263" s="4"/>
     </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E264" s="4"/>
     </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E265" s="4"/>
     </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E266" s="4"/>
     </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E267" s="4"/>
     </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E268" s="4"/>
     </row>
-    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E269" s="4"/>
     </row>
-    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E270" s="4"/>
     </row>
-    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E271" s="4"/>
     </row>
-    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E272" s="4"/>
     </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E273" s="4"/>
     </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E274" s="4"/>
     </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E275" s="4"/>
     </row>
-    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E276" s="4"/>
     </row>
-    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E277" s="4"/>
     </row>
-    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E278" s="4"/>
     </row>
-    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E279" s="4"/>
     </row>
-    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E280" s="4"/>
     </row>
-    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E281" s="4"/>
     </row>
-    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E282" s="4"/>
     </row>
-    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E283" s="4"/>
     </row>
-    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E284" s="4"/>
     </row>
-    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E285" s="4"/>
     </row>
-    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E286" s="4"/>
     </row>
-    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E287" s="4"/>
     </row>
-    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E288" s="4"/>
     </row>
-    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E289" s="4"/>
     </row>
-    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E290" s="4"/>
     </row>
-    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E291" s="4"/>
     </row>
-    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E292" s="4"/>
     </row>
-    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E293" s="4"/>
     </row>
-    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E294" s="4"/>
     </row>
-    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E295" s="4"/>
     </row>
-    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E296" s="4"/>
     </row>
-    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E297" s="4"/>
     </row>
-    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E298" s="4"/>
     </row>
-    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E299" s="4"/>
     </row>
-    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E300" s="4"/>
     </row>
-    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E301" s="4"/>
     </row>
-    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E302" s="4"/>
     </row>
-    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E303" s="4"/>
     </row>
-    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E304" s="4"/>
     </row>
-    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E305" s="4"/>
     </row>
-    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E306" s="4"/>
     </row>
-    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E307" s="4"/>
     </row>
-    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E308" s="4"/>
     </row>
-    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E309" s="4"/>
     </row>
-    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E310" s="4"/>
     </row>
-    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E311" s="4"/>
     </row>
-    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E312" s="4"/>
     </row>
-    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E313" s="4"/>
     </row>
-    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E314" s="4"/>
     </row>
-    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E315" s="4"/>
     </row>
-    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E316" s="4"/>
     </row>
-    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E317" s="4"/>
     </row>
-    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E318" s="4"/>
     </row>
-    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E319" s="4"/>
     </row>
-    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E320" s="4"/>
     </row>
-    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E321" s="4"/>
     </row>
-    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E322" s="4"/>
     </row>
-    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E323" s="4"/>
     </row>
-    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E324" s="4"/>
     </row>
-    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E325" s="4"/>
     </row>
-    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E326" s="4"/>
     </row>
-    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E327" s="4"/>
     </row>
-    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E328" s="4"/>
     </row>
-    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E329" s="4"/>
     </row>
-    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E330" s="4"/>
     </row>
-    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E331" s="4"/>
     </row>
-    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E332" s="4"/>
     </row>
-    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E333" s="4"/>
     </row>
-    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E334" s="4"/>
     </row>
-    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E335" s="4"/>
     </row>
-    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E336" s="4"/>
     </row>
-    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E337" s="4"/>
     </row>
-    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E338" s="4"/>
     </row>
-    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E339" s="4"/>
     </row>
-    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E340" s="4"/>
     </row>
-    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E341" s="4"/>
     </row>
-    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E342" s="4"/>
     </row>
-    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E343" s="4"/>
     </row>
-    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E344" s="4"/>
     </row>
-    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E345" s="4"/>
     </row>
-    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E346" s="4"/>
     </row>
-    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E347" s="4"/>
     </row>
-    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E348" s="4"/>
     </row>
-    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E349" s="4"/>
     </row>
-    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E350" s="4"/>
     </row>
-    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E351" s="4"/>
     </row>
-    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E352" s="4"/>
     </row>
-    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E353" s="4"/>
     </row>
-    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E354" s="4"/>
     </row>
-    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E355" s="4"/>
     </row>
-    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E356" s="4"/>
     </row>
-    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E357" s="4"/>
     </row>
-    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E358" s="4"/>
     </row>
-    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E359" s="4"/>
     </row>
-    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E360" s="4"/>
     </row>
-    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E361" s="4"/>
     </row>
-    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E362" s="4"/>
     </row>
-    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E363" s="4"/>
     </row>
-    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E364" s="4"/>
     </row>
-    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E365" s="4"/>
     </row>
-    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E366" s="4"/>
     </row>
-    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E367" s="4"/>
     </row>
-    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E368" s="4"/>
     </row>
-    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E369" s="4"/>
     </row>
-    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E370" s="4"/>
     </row>
-    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E371" s="4"/>
     </row>
-    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E372" s="4"/>
     </row>
-    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E373" s="4"/>
     </row>
-    <row r="374" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E374" s="4"/>
     </row>
-    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E375" s="4"/>
     </row>
-    <row r="376" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E376" s="4"/>
     </row>
-    <row r="377" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E377" s="4"/>
     </row>
-    <row r="378" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E378" s="4"/>
     </row>
-    <row r="379" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E379" s="4"/>
     </row>
-    <row r="380" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E380" s="4"/>
     </row>
-    <row r="381" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E381" s="4"/>
     </row>
-    <row r="382" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E382" s="4"/>
     </row>
-    <row r="383" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E383" s="4"/>
     </row>
-    <row r="384" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E384" s="4"/>
     </row>
-    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E385" s="4"/>
     </row>
-    <row r="386" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E386" s="4"/>
     </row>
-    <row r="387" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E387" s="4"/>
     </row>
-    <row r="388" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E388" s="4"/>
     </row>
-    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E389" s="4"/>
     </row>
-    <row r="390" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E390" s="4"/>
     </row>
-    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E391" s="4"/>
     </row>
-    <row r="392" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E392" s="4"/>
     </row>
-    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E393" s="4"/>
     </row>
-    <row r="394" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E394" s="4"/>
     </row>
-    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E395" s="4"/>
     </row>
-    <row r="396" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E396" s="4"/>
     </row>
-    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E397" s="4"/>
     </row>
-    <row r="398" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E398" s="4"/>
     </row>
-    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E399" s="4"/>
     </row>
-    <row r="400" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E400" s="4"/>
     </row>
-    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E401" s="4"/>
     </row>
-    <row r="402" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E402" s="4"/>
     </row>
-    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E403" s="4"/>
     </row>
-    <row r="404" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E404" s="4"/>
     </row>
-    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E405" s="4"/>
     </row>
-    <row r="406" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E406" s="4"/>
     </row>
-    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E407" s="4"/>
     </row>
-    <row r="408" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E408" s="4"/>
     </row>
-    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E409" s="4"/>
     </row>
-    <row r="410" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E410" s="4"/>
     </row>
-    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E411" s="4"/>
     </row>
-    <row r="412" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E412" s="4"/>
     </row>
-    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E413" s="4"/>
     </row>
-    <row r="414" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E414" s="4"/>
     </row>
-    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E415" s="4"/>
     </row>
-    <row r="416" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E416" s="4"/>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E417" s="4"/>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E418" s="4"/>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E419" s="4"/>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E420" s="4"/>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E421" s="4"/>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E422" s="4"/>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E423" s="4"/>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E424" s="4"/>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E425" s="4"/>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E426" s="4"/>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E427" s="4"/>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E428" s="4"/>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E429" s="4"/>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E430" s="4"/>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E431" s="4"/>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E432" s="4"/>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E433" s="4"/>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E434" s="4"/>
     </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E435" s="4"/>
     </row>
-    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E436" s="4"/>
     </row>
-    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E437" s="4"/>
     </row>
-    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E438" s="4"/>
     </row>
-    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E439" s="4"/>
     </row>
-    <row r="440" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E440" s="4"/>
     </row>
-    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E441" s="4"/>
     </row>
-    <row r="442" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E442" s="4"/>
     </row>
-    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E443" s="4"/>
     </row>
-    <row r="444" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E444" s="4"/>
     </row>
-    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E445" s="4"/>
     </row>
-    <row r="446" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E446" s="4"/>
     </row>
-    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E447" s="4"/>
     </row>
-    <row r="448" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E448" s="4"/>
     </row>
-    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E449" s="4"/>
     </row>
-    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E450" s="4"/>
     </row>
-    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E451" s="4"/>
     </row>
-    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E452" s="4"/>
     </row>
-    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E453" s="4"/>
     </row>
-    <row r="454" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E454" s="4"/>
     </row>
-    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E455" s="4"/>
     </row>
-    <row r="456" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E456" s="4"/>
     </row>
-    <row r="457" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E457" s="4"/>
     </row>
-    <row r="458" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E458" s="4"/>
     </row>
-    <row r="459" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E459" s="4"/>
     </row>
-    <row r="460" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E460" s="4"/>
     </row>
-    <row r="461" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E461" s="4"/>
     </row>
-    <row r="462" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E462" s="4"/>
     </row>
-    <row r="463" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E463" s="4"/>
     </row>
-    <row r="464" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E464" s="4"/>
     </row>
-    <row r="465" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E465" s="4"/>
     </row>
-    <row r="466" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E466" s="4"/>
     </row>
-    <row r="467" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E467" s="4"/>
     </row>
-    <row r="468" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E468" s="4"/>
     </row>
-    <row r="469" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E469" s="4"/>
     </row>
-    <row r="470" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E470" s="4"/>
     </row>
-    <row r="471" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E471" s="4"/>
     </row>
-    <row r="472" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E472" s="4"/>
     </row>
-    <row r="473" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E473" s="4"/>
     </row>
-    <row r="474" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E474" s="4"/>
     </row>
-    <row r="475" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E475" s="4"/>
     </row>
-    <row r="476" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E476" s="4"/>
     </row>
-    <row r="477" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E477" s="4"/>
     </row>
-    <row r="478" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E478" s="4"/>
     </row>
-    <row r="479" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E479" s="4"/>
     </row>
-    <row r="480" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E480" s="4"/>
     </row>
-    <row r="481" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E481" s="4"/>
     </row>
-    <row r="482" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E482" s="4"/>
     </row>
-    <row r="483" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E483" s="4"/>
     </row>
-    <row r="484" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E484" s="4"/>
     </row>
-    <row r="485" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E485" s="4"/>
     </row>
-    <row r="486" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E486" s="4"/>
     </row>
-    <row r="487" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E487" s="4"/>
     </row>
-    <row r="488" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E488" s="4"/>
     </row>
-    <row r="489" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E489" s="4"/>
     </row>
-    <row r="490" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E490" s="4"/>
     </row>
-    <row r="491" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E491" s="4"/>
     </row>
-    <row r="492" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E492" s="4"/>
     </row>
-    <row r="493" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E493" s="4"/>
     </row>
-    <row r="494" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E494" s="4"/>
     </row>
-    <row r="495" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E495" s="4"/>
     </row>
-    <row r="496" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E496" s="4"/>
     </row>
-    <row r="497" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E497" s="4"/>
     </row>
-    <row r="498" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E498" s="4"/>
     </row>
-    <row r="499" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E499" s="4"/>
     </row>
-    <row r="500" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E500" s="4"/>
     </row>
-    <row r="501" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E501" s="4"/>
     </row>
-    <row r="502" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E502" s="4"/>
     </row>
-    <row r="503" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E503" s="4"/>
     </row>
-    <row r="504" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E504" s="4"/>
     </row>
-    <row r="505" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E505" s="4"/>
     </row>
-    <row r="506" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E506" s="4"/>
     </row>
-    <row r="507" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E507" s="4"/>
     </row>
-    <row r="508" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E508" s="4"/>
     </row>
-    <row r="509" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E509" s="4"/>
     </row>
-    <row r="510" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E510" s="4"/>
     </row>
-    <row r="511" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E511" s="4"/>
     </row>
-    <row r="512" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E512" s="4"/>
     </row>
-    <row r="513" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E513" s="4"/>
     </row>
-    <row r="514" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E514" s="4"/>
     </row>
-    <row r="515" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E515" s="4"/>
     </row>
-    <row r="516" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E516" s="4"/>
     </row>
-    <row r="517" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E517" s="4"/>
     </row>
-    <row r="518" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E518" s="4"/>
     </row>
-    <row r="519" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E519" s="4"/>
     </row>
-    <row r="520" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E520" s="4"/>
     </row>
-    <row r="521" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E521" s="4"/>
     </row>
-    <row r="522" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E522" s="4"/>
     </row>
-    <row r="523" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E523" s="4"/>
     </row>
-    <row r="524" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E524" s="4"/>
     </row>
-    <row r="525" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E525" s="4"/>
     </row>
-    <row r="526" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E526" s="4"/>
     </row>
-    <row r="527" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E527" s="4"/>
     </row>
-    <row r="528" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E528" s="4"/>
     </row>
-    <row r="529" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E529" s="4"/>
     </row>
-    <row r="530" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E530" s="4"/>
     </row>
-    <row r="531" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E531" s="4"/>
     </row>
-    <row r="532" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E532" s="4"/>
     </row>
-    <row r="533" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E533" s="4"/>
     </row>
-    <row r="534" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E534" s="4"/>
     </row>
-    <row r="535" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E535" s="4"/>
     </row>
-    <row r="536" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E536" s="4"/>
     </row>
-    <row r="537" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E537" s="4"/>
     </row>
-    <row r="538" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E538" s="4"/>
     </row>
-    <row r="539" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E539" s="4"/>
     </row>
-    <row r="540" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E540" s="4"/>
     </row>
-    <row r="541" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E541" s="4"/>
     </row>
-    <row r="542" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E542" s="4"/>
     </row>
-    <row r="543" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E543" s="4"/>
     </row>
-    <row r="544" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E544" s="4"/>
     </row>
-    <row r="545" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E545" s="4"/>
     </row>
-    <row r="546" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E546" s="4"/>
     </row>
-    <row r="547" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E547" s="4"/>
     </row>
-    <row r="548" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E548" s="4"/>
     </row>
-    <row r="549" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E549" s="4"/>
     </row>
-    <row r="550" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E550" s="4"/>
     </row>
-    <row r="551" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E551" s="4"/>
     </row>
-    <row r="552" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E552" s="4"/>
     </row>
-    <row r="553" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E553" s="4"/>
     </row>
-    <row r="554" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E554" s="4"/>
     </row>
-    <row r="555" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E555" s="4"/>
     </row>
-    <row r="556" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E556" s="4"/>
     </row>
-    <row r="557" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E557" s="4"/>
     </row>
-    <row r="558" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E558" s="4"/>
     </row>
-    <row r="559" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E559" s="4"/>
     </row>
-    <row r="560" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E560" s="4"/>
     </row>
-    <row r="561" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E561" s="4"/>
     </row>
-    <row r="562" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E562" s="4"/>
     </row>
-    <row r="563" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E563" s="4"/>
     </row>
-    <row r="564" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E564" s="4"/>
     </row>
-    <row r="565" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E565" s="4"/>
     </row>
-    <row r="566" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E566" s="4"/>
     </row>
-    <row r="567" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E567" s="4"/>
     </row>
-    <row r="568" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E568" s="4"/>
     </row>
-    <row r="569" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E569" s="4"/>
     </row>
-    <row r="570" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E570" s="4"/>
     </row>
-    <row r="571" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E571" s="4"/>
     </row>
-    <row r="572" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E572" s="4"/>
     </row>
-    <row r="573" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E573" s="4"/>
     </row>
-    <row r="574" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E574" s="4"/>
     </row>
-    <row r="575" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E575" s="4"/>
     </row>
-    <row r="576" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E576" s="4"/>
     </row>
-    <row r="577" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E577" s="4"/>
     </row>
-    <row r="578" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E578" s="4"/>
     </row>
-    <row r="579" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E579" s="4"/>
     </row>
-    <row r="580" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E580" s="4"/>
     </row>
-    <row r="581" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E581" s="4"/>
     </row>
-    <row r="582" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E582" s="4"/>
     </row>
-    <row r="583" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E583" s="4"/>
     </row>
-    <row r="584" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E584" s="4"/>
     </row>
-    <row r="585" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E585" s="4"/>
     </row>
-    <row r="586" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E586" s="4"/>
     </row>
-    <row r="587" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E587" s="4"/>
     </row>
-    <row r="588" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E588" s="4"/>
     </row>
-    <row r="589" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E589" s="4"/>
     </row>
-    <row r="590" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E590" s="4"/>
     </row>
-    <row r="591" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E591" s="4"/>
     </row>
-    <row r="592" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E592" s="4"/>
     </row>
-    <row r="593" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E593" s="4"/>
     </row>
-    <row r="594" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E594" s="4"/>
     </row>
-    <row r="595" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E595" s="4"/>
     </row>
-    <row r="596" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E596" s="4"/>
     </row>
-    <row r="597" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E597" s="4"/>
     </row>
-    <row r="598" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E598" s="4"/>
     </row>
-    <row r="599" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E599" s="4"/>
     </row>
-    <row r="600" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E600" s="4"/>
     </row>
-    <row r="601" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E601" s="4"/>
     </row>
-    <row r="602" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E602" s="4"/>
     </row>
-    <row r="603" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E603" s="4"/>
     </row>
-    <row r="604" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E604" s="4"/>
     </row>
-    <row r="605" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E605" s="4"/>
     </row>
-    <row r="606" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E606" s="4"/>
     </row>
-    <row r="607" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E607" s="4"/>
     </row>
-    <row r="608" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E608" s="4"/>
     </row>
-    <row r="609" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E609" s="4"/>
     </row>
-    <row r="610" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E610" s="4"/>
     </row>
-    <row r="611" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E611" s="4"/>
     </row>
-    <row r="612" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E612" s="4"/>
     </row>
-    <row r="613" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E613" s="4"/>
     </row>
-    <row r="614" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E614" s="4"/>
     </row>
-    <row r="615" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E615" s="4"/>
     </row>
-    <row r="616" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E616" s="4"/>
     </row>
-    <row r="617" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E617" s="4"/>
     </row>
-    <row r="618" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E618" s="4"/>
     </row>
-    <row r="619" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E619" s="4"/>
     </row>
-    <row r="620" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E620" s="4"/>
     </row>
-    <row r="621" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E621" s="4"/>
     </row>
-    <row r="622" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E622" s="4"/>
     </row>
-    <row r="623" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E623" s="4"/>
     </row>
-    <row r="624" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E624" s="4"/>
     </row>
-    <row r="625" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E625" s="4"/>
     </row>
-    <row r="626" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E626" s="4"/>
     </row>
-    <row r="627" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E627" s="4"/>
     </row>
-    <row r="628" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E628" s="4"/>
     </row>
-    <row r="629" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E629" s="4"/>
     </row>
-    <row r="630" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E630" s="4"/>
     </row>
-    <row r="631" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E631" s="4"/>
     </row>
-    <row r="632" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E632" s="4"/>
     </row>
-    <row r="633" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E633" s="4"/>
     </row>
-    <row r="634" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E634" s="4"/>
     </row>
-    <row r="635" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E635" s="4"/>
     </row>
-    <row r="636" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E636" s="4"/>
     </row>
-    <row r="637" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E637" s="4"/>
     </row>
-    <row r="638" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E638" s="4"/>
     </row>
-    <row r="639" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E639" s="4"/>
     </row>
-    <row r="640" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E640" s="4"/>
     </row>
-    <row r="641" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E641" s="4"/>
     </row>
-    <row r="642" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E642" s="4"/>
     </row>
-    <row r="643" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E643" s="4"/>
     </row>
-    <row r="644" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E644" s="4"/>
     </row>
-    <row r="645" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E645" s="4"/>
     </row>
-    <row r="646" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E646" s="4"/>
     </row>
-    <row r="647" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E647" s="4"/>
     </row>
-    <row r="648" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E648" s="4"/>
     </row>
-    <row r="649" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E649" s="4"/>
     </row>
-    <row r="650" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E650" s="4"/>
     </row>
-    <row r="651" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E651" s="4"/>
     </row>
-    <row r="652" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E652" s="4"/>
     </row>
-    <row r="653" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E653" s="4"/>
     </row>
-    <row r="654" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E654" s="4"/>
     </row>
-    <row r="655" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E655" s="4"/>
     </row>
-    <row r="656" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E656" s="4"/>
     </row>
-    <row r="657" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E657" s="4"/>
     </row>
-    <row r="658" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E658" s="4"/>
     </row>
-    <row r="659" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E659" s="4"/>
     </row>
-    <row r="660" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E660" s="4"/>
     </row>
-    <row r="661" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E661" s="4"/>
     </row>
-    <row r="662" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E662" s="4"/>
     </row>
-    <row r="663" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E663" s="4"/>
     </row>
-    <row r="664" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E664" s="4"/>
     </row>
-    <row r="665" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E665" s="4"/>
     </row>
-    <row r="666" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E666" s="4"/>
     </row>
-    <row r="667" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E667" s="4"/>
     </row>
-    <row r="668" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E668" s="4"/>
     </row>
-    <row r="669" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E669" s="4"/>
     </row>
-    <row r="670" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E670" s="4"/>
     </row>
-    <row r="671" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E671" s="4"/>
     </row>
-    <row r="672" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E672" s="4"/>
     </row>
-    <row r="673" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E673" s="4"/>
     </row>
-    <row r="674" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E674" s="4"/>
     </row>
-    <row r="675" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E675" s="4"/>
     </row>
-    <row r="676" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E676" s="4"/>
     </row>
-    <row r="677" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E677" s="4"/>
     </row>
-    <row r="678" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E678" s="4"/>
     </row>
-    <row r="679" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E679" s="4"/>
     </row>
-    <row r="680" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E680" s="4"/>
     </row>
-    <row r="681" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E681" s="4"/>
     </row>
-    <row r="682" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E682" s="4"/>
     </row>
-    <row r="683" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E683" s="4"/>
     </row>
-    <row r="684" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E684" s="4"/>
     </row>
-    <row r="685" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E685" s="4"/>
     </row>
-    <row r="686" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E686" s="4"/>
     </row>
-    <row r="687" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E687" s="4"/>
     </row>
-    <row r="688" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E688" s="4"/>
     </row>
-    <row r="689" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E689" s="4"/>
     </row>
-    <row r="690" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E690" s="4"/>
     </row>
-    <row r="691" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E691" s="4"/>
     </row>
-    <row r="692" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E692" s="4"/>
     </row>
-    <row r="693" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E693" s="4"/>
     </row>
-    <row r="694" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E694" s="4"/>
     </row>
-    <row r="695" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E695" s="4"/>
     </row>
-    <row r="696" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E696" s="4"/>
     </row>
-    <row r="697" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E697" s="4"/>
     </row>
-    <row r="698" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E698" s="4"/>
     </row>
-    <row r="699" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E699" s="4"/>
     </row>
-    <row r="700" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E700" s="4"/>
     </row>
-    <row r="701" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E701" s="4"/>
     </row>
-    <row r="702" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E702" s="4"/>
     </row>
-    <row r="703" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E703" s="4"/>
     </row>
-    <row r="704" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E704" s="4"/>
     </row>
-    <row r="705" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E705" s="4"/>
     </row>
-    <row r="706" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E706" s="4"/>
     </row>
-    <row r="707" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E707" s="4"/>
     </row>
-    <row r="708" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E708" s="4"/>
     </row>
-    <row r="709" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E709" s="4"/>
     </row>
-    <row r="710" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E710" s="4"/>
     </row>
-    <row r="711" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E711" s="4"/>
     </row>
-    <row r="712" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E712" s="4"/>
     </row>
-    <row r="713" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E713" s="4"/>
     </row>
-    <row r="714" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E714" s="4"/>
     </row>
-    <row r="715" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E715" s="4"/>
     </row>
-    <row r="716" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E716" s="4"/>
     </row>
-    <row r="717" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E717" s="4"/>
     </row>
-    <row r="718" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E718" s="4"/>
     </row>
-    <row r="719" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E719" s="4"/>
     </row>
-    <row r="720" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E720" s="4"/>
     </row>
-    <row r="721" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E721" s="4"/>
     </row>
-    <row r="722" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E722" s="4"/>
     </row>
-    <row r="723" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E723" s="4"/>
     </row>
-    <row r="724" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E724" s="4"/>
     </row>
-    <row r="725" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E725" s="4"/>
     </row>
-    <row r="726" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E726" s="4"/>
     </row>
-    <row r="727" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E727" s="4"/>
     </row>
-    <row r="728" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E728" s="4"/>
     </row>
-    <row r="729" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E729" s="4"/>
     </row>
-    <row r="730" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E730" s="4"/>
     </row>
-    <row r="731" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E731" s="4"/>
     </row>
-    <row r="732" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E732" s="4"/>
     </row>
-    <row r="733" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E733" s="4"/>
     </row>
-    <row r="734" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E734" s="4"/>
     </row>
-    <row r="735" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E735" s="4"/>
     </row>
-    <row r="736" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E736" s="4"/>
     </row>
-    <row r="737" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E737" s="4"/>
     </row>
-    <row r="738" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E738" s="4"/>
     </row>
-    <row r="739" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E739" s="4"/>
     </row>
-    <row r="740" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E740" s="4"/>
     </row>
-    <row r="741" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E741" s="4"/>
     </row>
-    <row r="742" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E742" s="4"/>
     </row>
-    <row r="743" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E743" s="4"/>
     </row>
-    <row r="744" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E744" s="4"/>
     </row>
-    <row r="745" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E745" s="4"/>
     </row>
-    <row r="746" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E746" s="4"/>
     </row>
-    <row r="747" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E747" s="4"/>
     </row>
-    <row r="748" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E748" s="4"/>
     </row>
-    <row r="749" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E749" s="4"/>
     </row>
-    <row r="750" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E750" s="4"/>
     </row>
-    <row r="751" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E751" s="4"/>
     </row>
-    <row r="752" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E752" s="4"/>
     </row>
-    <row r="753" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E753" s="4"/>
     </row>
-    <row r="754" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E754" s="4"/>
     </row>
-    <row r="755" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E755" s="4"/>
     </row>
-    <row r="756" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E756" s="4"/>
     </row>
-    <row r="757" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E757" s="4"/>
     </row>
-    <row r="758" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E758" s="4"/>
     </row>
-    <row r="759" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E759" s="4"/>
     </row>
-    <row r="760" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E760" s="4"/>
     </row>
-    <row r="761" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E761" s="4"/>
     </row>
-    <row r="762" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E762" s="4"/>
     </row>
-    <row r="763" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E763" s="4"/>
     </row>
-    <row r="764" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E764" s="4"/>
     </row>
-    <row r="765" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E765" s="4"/>
     </row>
-    <row r="766" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E766" s="4"/>
     </row>
-    <row r="767" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E767" s="4"/>
     </row>
-    <row r="768" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E768" s="4"/>
     </row>
-    <row r="769" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E769" s="4"/>
     </row>
-    <row r="770" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E770" s="4"/>
     </row>
-    <row r="771" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E771" s="4"/>
     </row>
-    <row r="772" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E772" s="4"/>
     </row>
-    <row r="773" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E773" s="4"/>
     </row>
-    <row r="774" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E774" s="4"/>
     </row>
-    <row r="775" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E775" s="4"/>
     </row>
-    <row r="776" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E776" s="4"/>
     </row>
-    <row r="777" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E777" s="4"/>
     </row>
-    <row r="778" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E778" s="4"/>
     </row>
-    <row r="779" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E779" s="4"/>
     </row>
-    <row r="780" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E780" s="4"/>
     </row>
-    <row r="781" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E781" s="4"/>
     </row>
-    <row r="782" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E782" s="4"/>
     </row>
-    <row r="783" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E783" s="4"/>
     </row>
-    <row r="784" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="784" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E784" s="4"/>
     </row>
-    <row r="785" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E785" s="4"/>
     </row>
-    <row r="786" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E786" s="4"/>
     </row>
-    <row r="787" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E787" s="4"/>
     </row>
-    <row r="788" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E788" s="4"/>
     </row>
-    <row r="789" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E789" s="4"/>
     </row>
-    <row r="790" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E790" s="4"/>
     </row>
-    <row r="791" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E791" s="4"/>
     </row>
-    <row r="792" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E792" s="4"/>
     </row>
-    <row r="793" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E793" s="4"/>
     </row>
-    <row r="794" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E794" s="4"/>
     </row>
-    <row r="795" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E795" s="4"/>
     </row>
-    <row r="796" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E796" s="4"/>
     </row>
-    <row r="797" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E797" s="4"/>
     </row>
-    <row r="798" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E798" s="4"/>
     </row>
-    <row r="799" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E799" s="4"/>
     </row>
-    <row r="800" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E800" s="4"/>
     </row>
-    <row r="801" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E801" s="4"/>
     </row>
-    <row r="802" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E802" s="4"/>
     </row>
-    <row r="803" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E803" s="4"/>
     </row>
-    <row r="804" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E804" s="4"/>
     </row>
-    <row r="805" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E805" s="4"/>
     </row>
-    <row r="806" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E806" s="4"/>
     </row>
-    <row r="807" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E807" s="4"/>
     </row>
-    <row r="808" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E808" s="4"/>
     </row>
-    <row r="809" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E809" s="4"/>
     </row>
-    <row r="810" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E810" s="4"/>
     </row>
-    <row r="811" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E811" s="4"/>
     </row>
-    <row r="812" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E812" s="4"/>
     </row>
-    <row r="813" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E813" s="4"/>
     </row>
-    <row r="814" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E814" s="4"/>
     </row>
-    <row r="815" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E815" s="4"/>
     </row>
-    <row r="816" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E816" s="4"/>
     </row>
-    <row r="817" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E817" s="4"/>
     </row>
-    <row r="818" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E818" s="4"/>
     </row>
-    <row r="819" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E819" s="4"/>
     </row>
-    <row r="820" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E820" s="4"/>
     </row>
-    <row r="821" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E821" s="4"/>
     </row>
-    <row r="822" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E822" s="4"/>
     </row>
-    <row r="823" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E823" s="4"/>
     </row>
-    <row r="824" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E824" s="4"/>
     </row>
-    <row r="825" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E825" s="4"/>
     </row>
-    <row r="826" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E826" s="4"/>
     </row>
-    <row r="827" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E827" s="4"/>
     </row>
-    <row r="828" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E828" s="4"/>
     </row>
-    <row r="829" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E829" s="4"/>
     </row>
-    <row r="830" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E830" s="4"/>
     </row>
-    <row r="831" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E831" s="4"/>
     </row>
-    <row r="832" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E832" s="4"/>
     </row>
-    <row r="833" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E833" s="4"/>
     </row>
-    <row r="834" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E834" s="4"/>
     </row>
-    <row r="835" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E835" s="4"/>
     </row>
-    <row r="836" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E836" s="4"/>
     </row>
-    <row r="837" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E837" s="4"/>
     </row>
-    <row r="838" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E838" s="4"/>
     </row>
-    <row r="839" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E839" s="4"/>
     </row>
-    <row r="840" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E840" s="4"/>
     </row>
-    <row r="841" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E841" s="4"/>
     </row>
-    <row r="842" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E842" s="4"/>
     </row>
-    <row r="843" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E843" s="4"/>
     </row>
-    <row r="844" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E844" s="4"/>
     </row>
-    <row r="845" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E845" s="4"/>
     </row>
-    <row r="846" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E846" s="4"/>
     </row>
-    <row r="847" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E847" s="4"/>
     </row>
-    <row r="848" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E848" s="4"/>
     </row>
-    <row r="849" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E849" s="4"/>
     </row>
-    <row r="850" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E850" s="4"/>
     </row>
-    <row r="851" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E851" s="4"/>
     </row>
-    <row r="852" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E852" s="4"/>
     </row>
-    <row r="853" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E853" s="4"/>
     </row>
-    <row r="854" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="854" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E854" s="4"/>
     </row>
-    <row r="855" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="855" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E855" s="4"/>
     </row>
-    <row r="856" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E856" s="4"/>
     </row>
-    <row r="857" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E857" s="4"/>
     </row>
-    <row r="858" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E858" s="4"/>
     </row>
-    <row r="859" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E859" s="4"/>
     </row>
-    <row r="860" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="860" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E860" s="4"/>
     </row>
-    <row r="861" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="861" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E861" s="4"/>
     </row>
-    <row r="862" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="862" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E862" s="4"/>
     </row>
-    <row r="863" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="863" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E863" s="4"/>
     </row>
-    <row r="864" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="864" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E864" s="4"/>
     </row>
-    <row r="865" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E865" s="4"/>
     </row>
-    <row r="866" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E866" s="4"/>
     </row>
-    <row r="867" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E867" s="4"/>
     </row>
-    <row r="868" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="868" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E868" s="4"/>
     </row>
-    <row r="869" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="869" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E869" s="4"/>
     </row>
-    <row r="870" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="870" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E870" s="4"/>
     </row>
-    <row r="871" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="871" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E871" s="4"/>
     </row>
-    <row r="872" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="872" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E872" s="4"/>
     </row>
-    <row r="873" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="873" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E873" s="4"/>
     </row>
-    <row r="874" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="874" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E874" s="4"/>
     </row>
-    <row r="875" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="875" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E875" s="4"/>
     </row>
-    <row r="876" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E876" s="4"/>
     </row>
-    <row r="877" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E877" s="4"/>
     </row>
-    <row r="878" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E878" s="4"/>
     </row>
-    <row r="879" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="879" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E879" s="4"/>
     </row>
-    <row r="880" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="880" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E880" s="4"/>
     </row>
-    <row r="881" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="881" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E881" s="4"/>
     </row>
-    <row r="882" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="882" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E882" s="4"/>
     </row>
-    <row r="883" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="883" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E883" s="4"/>
     </row>
-    <row r="884" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="884" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E884" s="4"/>
     </row>
-    <row r="885" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="885" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E885" s="4"/>
     </row>
-    <row r="886" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="886" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E886" s="4"/>
     </row>
-    <row r="887" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="887" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E887" s="4"/>
     </row>
-    <row r="888" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="888" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E888" s="4"/>
     </row>
-    <row r="889" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="889" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E889" s="4"/>
     </row>
-    <row r="890" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="890" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E890" s="4"/>
     </row>
-    <row r="891" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="891" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E891" s="4"/>
     </row>
-    <row r="892" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="892" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E892" s="4"/>
     </row>
-    <row r="893" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="893" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E893" s="4"/>
     </row>
-    <row r="894" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="894" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E894" s="4"/>
     </row>
-    <row r="895" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="895" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E895" s="4"/>
     </row>
-    <row r="896" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="896" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E896" s="4"/>
     </row>
-    <row r="897" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="897" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E897" s="4"/>
     </row>
-    <row r="898" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="898" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E898" s="4"/>
     </row>
-    <row r="899" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="899" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E899" s="4"/>
     </row>
-    <row r="900" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="900" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E900" s="4"/>
     </row>
-    <row r="901" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="901" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E901" s="4"/>
     </row>
-    <row r="902" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="902" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E902" s="4"/>
     </row>
-    <row r="903" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="903" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E903" s="4"/>
     </row>
-    <row r="904" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="904" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E904" s="4"/>
     </row>
-    <row r="905" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="905" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E905" s="4"/>
     </row>
-    <row r="906" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="906" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E906" s="4"/>
     </row>
-    <row r="907" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="907" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E907" s="4"/>
     </row>
-    <row r="908" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="908" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E908" s="4"/>
     </row>
-    <row r="909" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="909" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E909" s="4"/>
     </row>
-    <row r="910" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="910" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E910" s="4"/>
     </row>
-    <row r="911" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="911" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E911" s="4"/>
     </row>
-    <row r="912" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="912" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E912" s="4"/>
     </row>
-    <row r="913" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="913" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E913" s="4"/>
     </row>
-    <row r="914" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="914" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E914" s="4"/>
     </row>
-    <row r="915" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="915" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E915" s="4"/>
     </row>
-    <row r="916" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="916" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E916" s="4"/>
     </row>
-    <row r="917" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="917" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E917" s="4"/>
     </row>
-    <row r="918" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="918" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E918" s="4"/>
     </row>
-    <row r="919" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="919" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E919" s="4"/>
     </row>
-    <row r="920" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="920" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E920" s="4"/>
     </row>
-    <row r="921" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="921" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E921" s="4"/>
     </row>
-    <row r="922" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="922" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E922" s="4"/>
     </row>
-    <row r="923" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="923" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E923" s="4"/>
     </row>
-    <row r="924" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="924" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E924" s="4"/>
     </row>
-    <row r="925" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="925" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E925" s="4"/>
     </row>
-    <row r="926" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="926" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E926" s="4"/>
     </row>
-    <row r="927" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="927" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E927" s="4"/>
     </row>
-    <row r="928" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="928" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E928" s="4"/>
     </row>
-    <row r="929" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="929" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E929" s="4"/>
     </row>
-    <row r="930" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="930" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E930" s="4"/>
     </row>
-    <row r="931" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="931" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E931" s="4"/>
     </row>
-    <row r="932" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="932" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E932" s="4"/>
     </row>
-    <row r="933" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="933" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E933" s="4"/>
     </row>
-    <row r="934" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="934" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E934" s="4"/>
     </row>
-    <row r="935" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="935" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E935" s="4"/>
     </row>
-    <row r="936" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="936" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E936" s="4"/>
     </row>
-    <row r="937" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="937" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E937" s="4"/>
     </row>
-    <row r="938" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="938" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E938" s="4"/>
     </row>
-    <row r="939" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="939" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E939" s="4"/>
     </row>
-    <row r="940" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="940" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E940" s="4"/>
     </row>
-    <row r="941" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="941" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E941" s="4"/>
     </row>
-    <row r="942" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="942" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E942" s="4"/>
     </row>
-    <row r="943" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="943" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E943" s="4"/>
     </row>
-    <row r="944" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="944" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E944" s="4"/>
     </row>
-    <row r="945" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="945" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E945" s="4"/>
     </row>
-    <row r="946" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="946" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E946" s="4"/>
     </row>
-    <row r="947" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="947" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E947" s="4"/>
     </row>
-    <row r="948" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="948" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E948" s="4"/>
     </row>
-    <row r="949" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="949" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E949" s="4"/>
     </row>
-    <row r="950" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="950" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E950" s="4"/>
     </row>
-    <row r="951" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="951" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E951" s="4"/>
     </row>
-    <row r="952" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="952" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E952" s="4"/>
     </row>
-    <row r="953" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="953" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E953" s="4"/>
     </row>
-    <row r="954" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="954" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E954" s="4"/>
     </row>
-    <row r="955" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="955" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E955" s="4"/>
     </row>
-    <row r="956" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="956" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E956" s="4"/>
     </row>
-    <row r="957" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="957" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E957" s="4"/>
     </row>
-    <row r="958" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="958" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E958" s="4"/>
     </row>
-    <row r="959" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="959" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E959" s="4"/>
     </row>
-    <row r="960" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="960" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E960" s="4"/>
     </row>
-    <row r="961" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="961" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E961" s="4"/>
     </row>
-    <row r="962" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="962" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E962" s="4"/>
     </row>
-    <row r="963" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="963" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E963" s="4"/>
     </row>
-    <row r="964" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="964" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E964" s="4"/>
     </row>
-    <row r="965" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="965" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E965" s="4"/>
     </row>
-    <row r="966" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="966" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E966" s="4"/>
     </row>
-    <row r="967" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="967" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E967" s="4"/>
     </row>
-    <row r="968" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="968" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E968" s="4"/>
     </row>
-    <row r="969" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="969" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E969" s="4"/>
     </row>
-    <row r="970" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="970" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E970" s="4"/>
     </row>
-    <row r="971" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="971" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E971" s="4"/>
     </row>
-    <row r="972" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="972" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E972" s="4"/>
     </row>
-    <row r="973" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="973" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E973" s="4"/>
     </row>
-    <row r="974" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="974" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E974" s="4"/>
     </row>
-    <row r="975" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="975" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E975" s="4"/>
     </row>
-    <row r="976" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="976" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E976" s="4"/>
     </row>
-    <row r="977" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="977" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E977" s="4"/>
     </row>
-    <row r="978" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="978" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E978" s="4"/>
     </row>
-    <row r="979" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="979" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E979" s="4"/>
     </row>
-    <row r="980" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="980" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E980" s="4"/>
     </row>
-    <row r="981" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="981" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E981" s="4"/>
     </row>
-    <row r="982" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="982" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E982" s="4"/>
     </row>
-    <row r="983" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="983" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E983" s="4"/>
     </row>
-    <row r="984" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="984" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E984" s="4"/>
     </row>
-    <row r="985" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="985" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E985" s="4"/>
     </row>
-    <row r="986" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="986" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E986" s="4"/>
     </row>
-    <row r="987" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="987" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E987" s="4"/>
     </row>
-    <row r="988" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="988" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E988" s="4"/>
     </row>
-    <row r="989" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="989" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E989" s="4"/>
     </row>
-    <row r="990" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="990" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E990" s="4"/>
     </row>
-    <row r="991" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="991" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E991" s="4"/>
     </row>
-    <row r="992" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="992" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E992" s="4"/>
     </row>
-    <row r="993" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="993" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E993" s="4"/>
     </row>
-    <row r="994" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="994" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E994" s="4"/>
     </row>
-    <row r="995" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="995" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E995" s="4"/>
     </row>
-    <row r="996" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="996" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E996" s="4"/>
     </row>
-    <row r="997" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="997" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E997" s="4"/>
     </row>
-    <row r="998" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="998" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E998" s="4"/>
     </row>
-    <row r="999" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="999" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E999" s="4"/>
     </row>
-    <row r="1000" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1000" s="4"/>
     </row>
   </sheetData>
@@ -3677,17 +3674,17 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C2:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="131.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="131.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3704,7 +3701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -3721,7 +3718,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -3738,7 +3735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -3753,7 +3750,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -3770,7 +3767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -3787,7 +3784,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -3804,7 +3801,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -3818,10 +3815,10 @@
         <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -3835,10 +3832,10 @@
         <v>46</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
@@ -3867,18 +3864,18 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="155.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="155.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3886,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3895,9 +3892,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1">
         <v>60</v>
@@ -3906,29 +3903,29 @@
         <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
@@ -3937,15 +3934,15 @@
         <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="B5" s="1">
         <v>40</v>
@@ -3954,15 +3951,15 @@
         <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="B6" s="1">
         <v>40</v>
@@ -3971,15 +3968,15 @@
         <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="B7" s="1">
         <v>60</v>
@@ -3988,15 +3985,15 @@
         <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="B8" s="1">
         <v>40</v>
@@ -4005,2986 +4002,2986 @@
         <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E112" s="4"/>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E113" s="4"/>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E114" s="4"/>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E115" s="4"/>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E118" s="4"/>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E119" s="4"/>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E120" s="4"/>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E125" s="4"/>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E127" s="4"/>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E128" s="4"/>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E129" s="4"/>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E130" s="4"/>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E131" s="4"/>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E132" s="4"/>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E133" s="4"/>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E134" s="4"/>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E135" s="4"/>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E136" s="4"/>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E137" s="4"/>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E139" s="4"/>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E140" s="4"/>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E148" s="4"/>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E149" s="4"/>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E151" s="4"/>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E154" s="4"/>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E157" s="4"/>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E160" s="4"/>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E163" s="4"/>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E164" s="4"/>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E168" s="4"/>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E169" s="4"/>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E171" s="4"/>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E172" s="4"/>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E177" s="4"/>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E178" s="4"/>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E179" s="4"/>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E180" s="4"/>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E181" s="4"/>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E182" s="4"/>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E183" s="4"/>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E185" s="4"/>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E186" s="4"/>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E188" s="4"/>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E189" s="4"/>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E192" s="4"/>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E193" s="4"/>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E194" s="4"/>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E195" s="4"/>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E198" s="4"/>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E199" s="4"/>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E200" s="4"/>
     </row>
-    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E201" s="4"/>
     </row>
-    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E202" s="4"/>
     </row>
-    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E203" s="4"/>
     </row>
-    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E204" s="4"/>
     </row>
-    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E205" s="4"/>
     </row>
-    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E206" s="4"/>
     </row>
-    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E207" s="4"/>
     </row>
-    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E208" s="4"/>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E209" s="4"/>
     </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E210" s="4"/>
     </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E211" s="4"/>
     </row>
-    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E212" s="4"/>
     </row>
-    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E213" s="4"/>
     </row>
-    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E214" s="4"/>
     </row>
-    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E215" s="4"/>
     </row>
-    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E216" s="4"/>
     </row>
-    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E217" s="4"/>
     </row>
-    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E218" s="4"/>
     </row>
-    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E219" s="4"/>
     </row>
-    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E220" s="4"/>
     </row>
-    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E221" s="4"/>
     </row>
-    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E222" s="4"/>
     </row>
-    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E223" s="4"/>
     </row>
-    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E224" s="4"/>
     </row>
-    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E225" s="4"/>
     </row>
-    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E226" s="4"/>
     </row>
-    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E227" s="4"/>
     </row>
-    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E228" s="4"/>
     </row>
-    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E229" s="4"/>
     </row>
-    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E230" s="4"/>
     </row>
-    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E231" s="4"/>
     </row>
-    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E232" s="4"/>
     </row>
-    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E233" s="4"/>
     </row>
-    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E234" s="4"/>
     </row>
-    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E235" s="4"/>
     </row>
-    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E236" s="4"/>
     </row>
-    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E237" s="4"/>
     </row>
-    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E238" s="4"/>
     </row>
-    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E239" s="4"/>
     </row>
-    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E240" s="4"/>
     </row>
-    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E241" s="4"/>
     </row>
-    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E242" s="4"/>
     </row>
-    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E243" s="4"/>
     </row>
-    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E244" s="4"/>
     </row>
-    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E245" s="4"/>
     </row>
-    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E246" s="4"/>
     </row>
-    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E247" s="4"/>
     </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E248" s="4"/>
     </row>
-    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E249" s="4"/>
     </row>
-    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E250" s="4"/>
     </row>
-    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E251" s="4"/>
     </row>
-    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E252" s="4"/>
     </row>
-    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E253" s="4"/>
     </row>
-    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E254" s="4"/>
     </row>
-    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E255" s="4"/>
     </row>
-    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E256" s="4"/>
     </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E257" s="4"/>
     </row>
-    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E258" s="4"/>
     </row>
-    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E259" s="4"/>
     </row>
-    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E260" s="4"/>
     </row>
-    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E261" s="4"/>
     </row>
-    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E262" s="4"/>
     </row>
-    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E263" s="4"/>
     </row>
-    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E264" s="4"/>
     </row>
-    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E265" s="4"/>
     </row>
-    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E266" s="4"/>
     </row>
-    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E267" s="4"/>
     </row>
-    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E268" s="4"/>
     </row>
-    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E269" s="4"/>
     </row>
-    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E270" s="4"/>
     </row>
-    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E271" s="4"/>
     </row>
-    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E272" s="4"/>
     </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E273" s="4"/>
     </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E274" s="4"/>
     </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E275" s="4"/>
     </row>
-    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E276" s="4"/>
     </row>
-    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E277" s="4"/>
     </row>
-    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E278" s="4"/>
     </row>
-    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E279" s="4"/>
     </row>
-    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E280" s="4"/>
     </row>
-    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E281" s="4"/>
     </row>
-    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E282" s="4"/>
     </row>
-    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E283" s="4"/>
     </row>
-    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E284" s="4"/>
     </row>
-    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E285" s="4"/>
     </row>
-    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E286" s="4"/>
     </row>
-    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E287" s="4"/>
     </row>
-    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E288" s="4"/>
     </row>
-    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E289" s="4"/>
     </row>
-    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E290" s="4"/>
     </row>
-    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E291" s="4"/>
     </row>
-    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E292" s="4"/>
     </row>
-    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E293" s="4"/>
     </row>
-    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E294" s="4"/>
     </row>
-    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E295" s="4"/>
     </row>
-    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E296" s="4"/>
     </row>
-    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E297" s="4"/>
     </row>
-    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E298" s="4"/>
     </row>
-    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E299" s="4"/>
     </row>
-    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E300" s="4"/>
     </row>
-    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E301" s="4"/>
     </row>
-    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E302" s="4"/>
     </row>
-    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E303" s="4"/>
     </row>
-    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E304" s="4"/>
     </row>
-    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E305" s="4"/>
     </row>
-    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E306" s="4"/>
     </row>
-    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E307" s="4"/>
     </row>
-    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E308" s="4"/>
     </row>
-    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E309" s="4"/>
     </row>
-    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E310" s="4"/>
     </row>
-    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E311" s="4"/>
     </row>
-    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E312" s="4"/>
     </row>
-    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E313" s="4"/>
     </row>
-    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E314" s="4"/>
     </row>
-    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E315" s="4"/>
     </row>
-    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E316" s="4"/>
     </row>
-    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E317" s="4"/>
     </row>
-    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E318" s="4"/>
     </row>
-    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E319" s="4"/>
     </row>
-    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E320" s="4"/>
     </row>
-    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E321" s="4"/>
     </row>
-    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E322" s="4"/>
     </row>
-    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E323" s="4"/>
     </row>
-    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E324" s="4"/>
     </row>
-    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E325" s="4"/>
     </row>
-    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E326" s="4"/>
     </row>
-    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E327" s="4"/>
     </row>
-    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E328" s="4"/>
     </row>
-    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E329" s="4"/>
     </row>
-    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E330" s="4"/>
     </row>
-    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E331" s="4"/>
     </row>
-    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E332" s="4"/>
     </row>
-    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E333" s="4"/>
     </row>
-    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E334" s="4"/>
     </row>
-    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E335" s="4"/>
     </row>
-    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E336" s="4"/>
     </row>
-    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E337" s="4"/>
     </row>
-    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E338" s="4"/>
     </row>
-    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E339" s="4"/>
     </row>
-    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E340" s="4"/>
     </row>
-    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E341" s="4"/>
     </row>
-    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E342" s="4"/>
     </row>
-    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E343" s="4"/>
     </row>
-    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E344" s="4"/>
     </row>
-    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E345" s="4"/>
     </row>
-    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E346" s="4"/>
     </row>
-    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E347" s="4"/>
     </row>
-    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E348" s="4"/>
     </row>
-    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E349" s="4"/>
     </row>
-    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E350" s="4"/>
     </row>
-    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E351" s="4"/>
     </row>
-    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E352" s="4"/>
     </row>
-    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E353" s="4"/>
     </row>
-    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E354" s="4"/>
     </row>
-    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E355" s="4"/>
     </row>
-    <row r="356" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E356" s="4"/>
     </row>
-    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E357" s="4"/>
     </row>
-    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E358" s="4"/>
     </row>
-    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E359" s="4"/>
     </row>
-    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E360" s="4"/>
     </row>
-    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E361" s="4"/>
     </row>
-    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E362" s="4"/>
     </row>
-    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E363" s="4"/>
     </row>
-    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E364" s="4"/>
     </row>
-    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E365" s="4"/>
     </row>
-    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E366" s="4"/>
     </row>
-    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E367" s="4"/>
     </row>
-    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E368" s="4"/>
     </row>
-    <row r="369" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E369" s="4"/>
     </row>
-    <row r="370" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E370" s="4"/>
     </row>
-    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E371" s="4"/>
     </row>
-    <row r="372" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E372" s="4"/>
     </row>
-    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E373" s="4"/>
     </row>
-    <row r="374" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E374" s="4"/>
     </row>
-    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E375" s="4"/>
     </row>
-    <row r="376" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E376" s="4"/>
     </row>
-    <row r="377" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E377" s="4"/>
     </row>
-    <row r="378" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E378" s="4"/>
     </row>
-    <row r="379" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E379" s="4"/>
     </row>
-    <row r="380" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E380" s="4"/>
     </row>
-    <row r="381" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E381" s="4"/>
     </row>
-    <row r="382" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E382" s="4"/>
     </row>
-    <row r="383" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E383" s="4"/>
     </row>
-    <row r="384" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E384" s="4"/>
     </row>
-    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E385" s="4"/>
     </row>
-    <row r="386" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E386" s="4"/>
     </row>
-    <row r="387" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E387" s="4"/>
     </row>
-    <row r="388" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E388" s="4"/>
     </row>
-    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E389" s="4"/>
     </row>
-    <row r="390" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E390" s="4"/>
     </row>
-    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E391" s="4"/>
     </row>
-    <row r="392" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E392" s="4"/>
     </row>
-    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E393" s="4"/>
     </row>
-    <row r="394" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E394" s="4"/>
     </row>
-    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E395" s="4"/>
     </row>
-    <row r="396" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E396" s="4"/>
     </row>
-    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E397" s="4"/>
     </row>
-    <row r="398" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E398" s="4"/>
     </row>
-    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E399" s="4"/>
     </row>
-    <row r="400" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E400" s="4"/>
     </row>
-    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E401" s="4"/>
     </row>
-    <row r="402" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E402" s="4"/>
     </row>
-    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E403" s="4"/>
     </row>
-    <row r="404" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E404" s="4"/>
     </row>
-    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E405" s="4"/>
     </row>
-    <row r="406" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E406" s="4"/>
     </row>
-    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E407" s="4"/>
     </row>
-    <row r="408" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E408" s="4"/>
     </row>
-    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E409" s="4"/>
     </row>
-    <row r="410" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E410" s="4"/>
     </row>
-    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E411" s="4"/>
     </row>
-    <row r="412" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E412" s="4"/>
     </row>
-    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E413" s="4"/>
     </row>
-    <row r="414" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E414" s="4"/>
     </row>
-    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E415" s="4"/>
     </row>
-    <row r="416" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E416" s="4"/>
     </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E417" s="4"/>
     </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E418" s="4"/>
     </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E419" s="4"/>
     </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E420" s="4"/>
     </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E421" s="4"/>
     </row>
-    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E422" s="4"/>
     </row>
-    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E423" s="4"/>
     </row>
-    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E424" s="4"/>
     </row>
-    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E425" s="4"/>
     </row>
-    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E426" s="4"/>
     </row>
-    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E427" s="4"/>
     </row>
-    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E428" s="4"/>
     </row>
-    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E429" s="4"/>
     </row>
-    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E430" s="4"/>
     </row>
-    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E431" s="4"/>
     </row>
-    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E432" s="4"/>
     </row>
-    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E433" s="4"/>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E434" s="4"/>
     </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E435" s="4"/>
     </row>
-    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E436" s="4"/>
     </row>
-    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E437" s="4"/>
     </row>
-    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E438" s="4"/>
     </row>
-    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E439" s="4"/>
     </row>
-    <row r="440" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E440" s="4"/>
     </row>
-    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E441" s="4"/>
     </row>
-    <row r="442" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E442" s="4"/>
     </row>
-    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E443" s="4"/>
     </row>
-    <row r="444" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E444" s="4"/>
     </row>
-    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E445" s="4"/>
     </row>
-    <row r="446" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E446" s="4"/>
     </row>
-    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E447" s="4"/>
     </row>
-    <row r="448" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E448" s="4"/>
     </row>
-    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E449" s="4"/>
     </row>
-    <row r="450" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E450" s="4"/>
     </row>
-    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E451" s="4"/>
     </row>
-    <row r="452" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E452" s="4"/>
     </row>
-    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E453" s="4"/>
     </row>
-    <row r="454" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E454" s="4"/>
     </row>
-    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E455" s="4"/>
     </row>
-    <row r="456" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E456" s="4"/>
     </row>
-    <row r="457" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E457" s="4"/>
     </row>
-    <row r="458" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E458" s="4"/>
     </row>
-    <row r="459" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E459" s="4"/>
     </row>
-    <row r="460" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E460" s="4"/>
     </row>
-    <row r="461" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E461" s="4"/>
     </row>
-    <row r="462" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E462" s="4"/>
     </row>
-    <row r="463" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E463" s="4"/>
     </row>
-    <row r="464" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E464" s="4"/>
     </row>
-    <row r="465" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E465" s="4"/>
     </row>
-    <row r="466" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E466" s="4"/>
     </row>
-    <row r="467" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E467" s="4"/>
     </row>
-    <row r="468" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E468" s="4"/>
     </row>
-    <row r="469" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E469" s="4"/>
     </row>
-    <row r="470" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E470" s="4"/>
     </row>
-    <row r="471" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E471" s="4"/>
     </row>
-    <row r="472" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E472" s="4"/>
     </row>
-    <row r="473" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E473" s="4"/>
     </row>
-    <row r="474" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E474" s="4"/>
     </row>
-    <row r="475" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E475" s="4"/>
     </row>
-    <row r="476" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E476" s="4"/>
     </row>
-    <row r="477" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E477" s="4"/>
     </row>
-    <row r="478" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E478" s="4"/>
     </row>
-    <row r="479" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E479" s="4"/>
     </row>
-    <row r="480" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E480" s="4"/>
     </row>
-    <row r="481" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E481" s="4"/>
     </row>
-    <row r="482" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E482" s="4"/>
     </row>
-    <row r="483" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E483" s="4"/>
     </row>
-    <row r="484" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E484" s="4"/>
     </row>
-    <row r="485" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E485" s="4"/>
     </row>
-    <row r="486" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E486" s="4"/>
     </row>
-    <row r="487" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E487" s="4"/>
     </row>
-    <row r="488" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E488" s="4"/>
     </row>
-    <row r="489" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E489" s="4"/>
     </row>
-    <row r="490" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E490" s="4"/>
     </row>
-    <row r="491" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E491" s="4"/>
     </row>
-    <row r="492" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E492" s="4"/>
     </row>
-    <row r="493" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E493" s="4"/>
     </row>
-    <row r="494" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E494" s="4"/>
     </row>
-    <row r="495" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E495" s="4"/>
     </row>
-    <row r="496" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E496" s="4"/>
     </row>
-    <row r="497" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E497" s="4"/>
     </row>
-    <row r="498" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E498" s="4"/>
     </row>
-    <row r="499" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E499" s="4"/>
     </row>
-    <row r="500" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E500" s="4"/>
     </row>
-    <row r="501" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E501" s="4"/>
     </row>
-    <row r="502" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E502" s="4"/>
     </row>
-    <row r="503" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E503" s="4"/>
     </row>
-    <row r="504" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E504" s="4"/>
     </row>
-    <row r="505" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E505" s="4"/>
     </row>
-    <row r="506" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E506" s="4"/>
     </row>
-    <row r="507" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E507" s="4"/>
     </row>
-    <row r="508" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E508" s="4"/>
     </row>
-    <row r="509" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E509" s="4"/>
     </row>
-    <row r="510" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E510" s="4"/>
     </row>
-    <row r="511" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E511" s="4"/>
     </row>
-    <row r="512" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E512" s="4"/>
     </row>
-    <row r="513" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E513" s="4"/>
     </row>
-    <row r="514" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E514" s="4"/>
     </row>
-    <row r="515" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E515" s="4"/>
     </row>
-    <row r="516" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E516" s="4"/>
     </row>
-    <row r="517" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E517" s="4"/>
     </row>
-    <row r="518" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E518" s="4"/>
     </row>
-    <row r="519" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E519" s="4"/>
     </row>
-    <row r="520" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E520" s="4"/>
     </row>
-    <row r="521" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E521" s="4"/>
     </row>
-    <row r="522" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E522" s="4"/>
     </row>
-    <row r="523" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E523" s="4"/>
     </row>
-    <row r="524" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E524" s="4"/>
     </row>
-    <row r="525" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E525" s="4"/>
     </row>
-    <row r="526" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E526" s="4"/>
     </row>
-    <row r="527" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E527" s="4"/>
     </row>
-    <row r="528" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E528" s="4"/>
     </row>
-    <row r="529" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E529" s="4"/>
     </row>
-    <row r="530" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E530" s="4"/>
     </row>
-    <row r="531" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E531" s="4"/>
     </row>
-    <row r="532" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E532" s="4"/>
     </row>
-    <row r="533" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E533" s="4"/>
     </row>
-    <row r="534" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E534" s="4"/>
     </row>
-    <row r="535" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E535" s="4"/>
     </row>
-    <row r="536" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E536" s="4"/>
     </row>
-    <row r="537" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E537" s="4"/>
     </row>
-    <row r="538" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E538" s="4"/>
     </row>
-    <row r="539" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E539" s="4"/>
     </row>
-    <row r="540" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E540" s="4"/>
     </row>
-    <row r="541" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E541" s="4"/>
     </row>
-    <row r="542" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E542" s="4"/>
     </row>
-    <row r="543" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E543" s="4"/>
     </row>
-    <row r="544" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E544" s="4"/>
     </row>
-    <row r="545" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E545" s="4"/>
     </row>
-    <row r="546" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E546" s="4"/>
     </row>
-    <row r="547" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E547" s="4"/>
     </row>
-    <row r="548" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E548" s="4"/>
     </row>
-    <row r="549" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E549" s="4"/>
     </row>
-    <row r="550" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E550" s="4"/>
     </row>
-    <row r="551" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E551" s="4"/>
     </row>
-    <row r="552" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E552" s="4"/>
     </row>
-    <row r="553" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E553" s="4"/>
     </row>
-    <row r="554" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E554" s="4"/>
     </row>
-    <row r="555" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E555" s="4"/>
     </row>
-    <row r="556" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E556" s="4"/>
     </row>
-    <row r="557" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E557" s="4"/>
     </row>
-    <row r="558" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E558" s="4"/>
     </row>
-    <row r="559" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E559" s="4"/>
     </row>
-    <row r="560" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E560" s="4"/>
     </row>
-    <row r="561" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E561" s="4"/>
     </row>
-    <row r="562" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E562" s="4"/>
     </row>
-    <row r="563" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E563" s="4"/>
     </row>
-    <row r="564" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E564" s="4"/>
     </row>
-    <row r="565" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E565" s="4"/>
     </row>
-    <row r="566" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E566" s="4"/>
     </row>
-    <row r="567" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E567" s="4"/>
     </row>
-    <row r="568" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E568" s="4"/>
     </row>
-    <row r="569" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E569" s="4"/>
     </row>
-    <row r="570" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E570" s="4"/>
     </row>
-    <row r="571" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E571" s="4"/>
     </row>
-    <row r="572" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E572" s="4"/>
     </row>
-    <row r="573" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E573" s="4"/>
     </row>
-    <row r="574" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E574" s="4"/>
     </row>
-    <row r="575" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E575" s="4"/>
     </row>
-    <row r="576" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E576" s="4"/>
     </row>
-    <row r="577" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E577" s="4"/>
     </row>
-    <row r="578" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E578" s="4"/>
     </row>
-    <row r="579" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E579" s="4"/>
     </row>
-    <row r="580" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E580" s="4"/>
     </row>
-    <row r="581" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E581" s="4"/>
     </row>
-    <row r="582" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E582" s="4"/>
     </row>
-    <row r="583" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E583" s="4"/>
     </row>
-    <row r="584" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E584" s="4"/>
     </row>
-    <row r="585" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E585" s="4"/>
     </row>
-    <row r="586" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E586" s="4"/>
     </row>
-    <row r="587" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E587" s="4"/>
     </row>
-    <row r="588" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E588" s="4"/>
     </row>
-    <row r="589" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E589" s="4"/>
     </row>
-    <row r="590" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E590" s="4"/>
     </row>
-    <row r="591" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E591" s="4"/>
     </row>
-    <row r="592" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E592" s="4"/>
     </row>
-    <row r="593" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E593" s="4"/>
     </row>
-    <row r="594" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E594" s="4"/>
     </row>
-    <row r="595" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E595" s="4"/>
     </row>
-    <row r="596" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E596" s="4"/>
     </row>
-    <row r="597" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E597" s="4"/>
     </row>
-    <row r="598" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E598" s="4"/>
     </row>
-    <row r="599" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E599" s="4"/>
     </row>
-    <row r="600" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E600" s="4"/>
     </row>
-    <row r="601" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E601" s="4"/>
     </row>
-    <row r="602" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E602" s="4"/>
     </row>
-    <row r="603" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E603" s="4"/>
     </row>
-    <row r="604" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E604" s="4"/>
     </row>
-    <row r="605" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E605" s="4"/>
     </row>
-    <row r="606" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E606" s="4"/>
     </row>
-    <row r="607" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E607" s="4"/>
     </row>
-    <row r="608" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E608" s="4"/>
     </row>
-    <row r="609" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E609" s="4"/>
     </row>
-    <row r="610" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E610" s="4"/>
     </row>
-    <row r="611" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E611" s="4"/>
     </row>
-    <row r="612" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E612" s="4"/>
     </row>
-    <row r="613" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E613" s="4"/>
     </row>
-    <row r="614" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E614" s="4"/>
     </row>
-    <row r="615" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E615" s="4"/>
     </row>
-    <row r="616" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E616" s="4"/>
     </row>
-    <row r="617" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E617" s="4"/>
     </row>
-    <row r="618" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E618" s="4"/>
     </row>
-    <row r="619" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E619" s="4"/>
     </row>
-    <row r="620" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E620" s="4"/>
     </row>
-    <row r="621" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E621" s="4"/>
     </row>
-    <row r="622" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E622" s="4"/>
     </row>
-    <row r="623" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E623" s="4"/>
     </row>
-    <row r="624" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E624" s="4"/>
     </row>
-    <row r="625" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E625" s="4"/>
     </row>
-    <row r="626" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E626" s="4"/>
     </row>
-    <row r="627" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E627" s="4"/>
     </row>
-    <row r="628" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E628" s="4"/>
     </row>
-    <row r="629" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E629" s="4"/>
     </row>
-    <row r="630" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E630" s="4"/>
     </row>
-    <row r="631" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E631" s="4"/>
     </row>
-    <row r="632" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E632" s="4"/>
     </row>
-    <row r="633" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E633" s="4"/>
     </row>
-    <row r="634" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E634" s="4"/>
     </row>
-    <row r="635" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E635" s="4"/>
     </row>
-    <row r="636" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E636" s="4"/>
     </row>
-    <row r="637" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E637" s="4"/>
     </row>
-    <row r="638" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E638" s="4"/>
     </row>
-    <row r="639" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E639" s="4"/>
     </row>
-    <row r="640" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E640" s="4"/>
     </row>
-    <row r="641" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E641" s="4"/>
     </row>
-    <row r="642" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E642" s="4"/>
     </row>
-    <row r="643" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E643" s="4"/>
     </row>
-    <row r="644" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E644" s="4"/>
     </row>
-    <row r="645" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E645" s="4"/>
     </row>
-    <row r="646" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E646" s="4"/>
     </row>
-    <row r="647" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E647" s="4"/>
     </row>
-    <row r="648" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E648" s="4"/>
     </row>
-    <row r="649" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E649" s="4"/>
     </row>
-    <row r="650" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E650" s="4"/>
     </row>
-    <row r="651" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E651" s="4"/>
     </row>
-    <row r="652" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E652" s="4"/>
     </row>
-    <row r="653" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E653" s="4"/>
     </row>
-    <row r="654" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E654" s="4"/>
     </row>
-    <row r="655" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E655" s="4"/>
     </row>
-    <row r="656" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E656" s="4"/>
     </row>
-    <row r="657" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E657" s="4"/>
     </row>
-    <row r="658" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E658" s="4"/>
     </row>
-    <row r="659" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E659" s="4"/>
     </row>
-    <row r="660" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E660" s="4"/>
     </row>
-    <row r="661" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E661" s="4"/>
     </row>
-    <row r="662" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E662" s="4"/>
     </row>
-    <row r="663" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E663" s="4"/>
     </row>
-    <row r="664" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E664" s="4"/>
     </row>
-    <row r="665" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E665" s="4"/>
     </row>
-    <row r="666" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E666" s="4"/>
     </row>
-    <row r="667" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E667" s="4"/>
     </row>
-    <row r="668" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E668" s="4"/>
     </row>
-    <row r="669" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E669" s="4"/>
     </row>
-    <row r="670" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E670" s="4"/>
     </row>
-    <row r="671" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E671" s="4"/>
     </row>
-    <row r="672" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E672" s="4"/>
     </row>
-    <row r="673" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E673" s="4"/>
     </row>
-    <row r="674" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E674" s="4"/>
     </row>
-    <row r="675" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E675" s="4"/>
     </row>
-    <row r="676" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E676" s="4"/>
     </row>
-    <row r="677" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E677" s="4"/>
     </row>
-    <row r="678" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E678" s="4"/>
     </row>
-    <row r="679" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E679" s="4"/>
     </row>
-    <row r="680" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E680" s="4"/>
     </row>
-    <row r="681" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E681" s="4"/>
     </row>
-    <row r="682" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E682" s="4"/>
     </row>
-    <row r="683" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E683" s="4"/>
     </row>
-    <row r="684" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E684" s="4"/>
     </row>
-    <row r="685" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E685" s="4"/>
     </row>
-    <row r="686" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E686" s="4"/>
     </row>
-    <row r="687" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E687" s="4"/>
     </row>
-    <row r="688" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E688" s="4"/>
     </row>
-    <row r="689" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E689" s="4"/>
     </row>
-    <row r="690" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E690" s="4"/>
     </row>
-    <row r="691" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E691" s="4"/>
     </row>
-    <row r="692" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E692" s="4"/>
     </row>
-    <row r="693" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E693" s="4"/>
     </row>
-    <row r="694" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E694" s="4"/>
     </row>
-    <row r="695" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E695" s="4"/>
     </row>
-    <row r="696" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E696" s="4"/>
     </row>
-    <row r="697" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E697" s="4"/>
     </row>
-    <row r="698" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E698" s="4"/>
     </row>
-    <row r="699" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E699" s="4"/>
     </row>
-    <row r="700" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E700" s="4"/>
     </row>
-    <row r="701" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E701" s="4"/>
     </row>
-    <row r="702" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E702" s="4"/>
     </row>
-    <row r="703" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E703" s="4"/>
     </row>
-    <row r="704" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E704" s="4"/>
     </row>
-    <row r="705" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E705" s="4"/>
     </row>
-    <row r="706" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E706" s="4"/>
     </row>
-    <row r="707" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E707" s="4"/>
     </row>
-    <row r="708" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E708" s="4"/>
     </row>
-    <row r="709" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E709" s="4"/>
     </row>
-    <row r="710" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E710" s="4"/>
     </row>
-    <row r="711" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E711" s="4"/>
     </row>
-    <row r="712" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E712" s="4"/>
     </row>
-    <row r="713" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E713" s="4"/>
     </row>
-    <row r="714" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E714" s="4"/>
     </row>
-    <row r="715" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E715" s="4"/>
     </row>
-    <row r="716" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E716" s="4"/>
     </row>
-    <row r="717" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E717" s="4"/>
     </row>
-    <row r="718" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E718" s="4"/>
     </row>
-    <row r="719" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E719" s="4"/>
     </row>
-    <row r="720" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E720" s="4"/>
     </row>
-    <row r="721" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E721" s="4"/>
     </row>
-    <row r="722" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E722" s="4"/>
     </row>
-    <row r="723" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E723" s="4"/>
     </row>
-    <row r="724" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E724" s="4"/>
     </row>
-    <row r="725" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E725" s="4"/>
     </row>
-    <row r="726" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E726" s="4"/>
     </row>
-    <row r="727" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E727" s="4"/>
     </row>
-    <row r="728" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E728" s="4"/>
     </row>
-    <row r="729" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E729" s="4"/>
     </row>
-    <row r="730" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E730" s="4"/>
     </row>
-    <row r="731" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E731" s="4"/>
     </row>
-    <row r="732" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E732" s="4"/>
     </row>
-    <row r="733" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E733" s="4"/>
     </row>
-    <row r="734" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E734" s="4"/>
     </row>
-    <row r="735" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E735" s="4"/>
     </row>
-    <row r="736" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E736" s="4"/>
     </row>
-    <row r="737" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E737" s="4"/>
     </row>
-    <row r="738" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E738" s="4"/>
     </row>
-    <row r="739" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E739" s="4"/>
     </row>
-    <row r="740" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E740" s="4"/>
     </row>
-    <row r="741" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E741" s="4"/>
     </row>
-    <row r="742" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E742" s="4"/>
     </row>
-    <row r="743" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E743" s="4"/>
     </row>
-    <row r="744" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E744" s="4"/>
     </row>
-    <row r="745" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E745" s="4"/>
     </row>
-    <row r="746" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E746" s="4"/>
     </row>
-    <row r="747" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E747" s="4"/>
     </row>
-    <row r="748" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E748" s="4"/>
     </row>
-    <row r="749" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E749" s="4"/>
     </row>
-    <row r="750" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E750" s="4"/>
     </row>
-    <row r="751" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E751" s="4"/>
     </row>
-    <row r="752" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E752" s="4"/>
     </row>
-    <row r="753" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E753" s="4"/>
     </row>
-    <row r="754" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E754" s="4"/>
     </row>
-    <row r="755" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E755" s="4"/>
     </row>
-    <row r="756" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E756" s="4"/>
     </row>
-    <row r="757" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E757" s="4"/>
     </row>
-    <row r="758" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E758" s="4"/>
     </row>
-    <row r="759" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E759" s="4"/>
     </row>
-    <row r="760" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E760" s="4"/>
     </row>
-    <row r="761" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E761" s="4"/>
     </row>
-    <row r="762" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="762" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E762" s="4"/>
     </row>
-    <row r="763" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E763" s="4"/>
     </row>
-    <row r="764" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E764" s="4"/>
     </row>
-    <row r="765" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E765" s="4"/>
     </row>
-    <row r="766" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E766" s="4"/>
     </row>
-    <row r="767" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E767" s="4"/>
     </row>
-    <row r="768" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E768" s="4"/>
     </row>
-    <row r="769" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E769" s="4"/>
     </row>
-    <row r="770" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E770" s="4"/>
     </row>
-    <row r="771" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E771" s="4"/>
     </row>
-    <row r="772" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E772" s="4"/>
     </row>
-    <row r="773" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E773" s="4"/>
     </row>
-    <row r="774" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E774" s="4"/>
     </row>
-    <row r="775" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="775" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E775" s="4"/>
     </row>
-    <row r="776" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="776" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E776" s="4"/>
     </row>
-    <row r="777" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E777" s="4"/>
     </row>
-    <row r="778" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E778" s="4"/>
     </row>
-    <row r="779" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E779" s="4"/>
     </row>
-    <row r="780" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="780" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E780" s="4"/>
     </row>
-    <row r="781" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="781" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E781" s="4"/>
     </row>
-    <row r="782" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E782" s="4"/>
     </row>
-    <row r="783" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E783" s="4"/>
     </row>
-    <row r="784" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="784" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E784" s="4"/>
     </row>
-    <row r="785" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E785" s="4"/>
     </row>
-    <row r="786" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E786" s="4"/>
     </row>
-    <row r="787" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E787" s="4"/>
     </row>
-    <row r="788" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E788" s="4"/>
     </row>
-    <row r="789" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E789" s="4"/>
     </row>
-    <row r="790" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="790" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E790" s="4"/>
     </row>
-    <row r="791" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E791" s="4"/>
     </row>
-    <row r="792" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E792" s="4"/>
     </row>
-    <row r="793" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E793" s="4"/>
     </row>
-    <row r="794" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E794" s="4"/>
     </row>
-    <row r="795" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E795" s="4"/>
     </row>
-    <row r="796" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E796" s="4"/>
     </row>
-    <row r="797" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E797" s="4"/>
     </row>
-    <row r="798" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E798" s="4"/>
     </row>
-    <row r="799" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E799" s="4"/>
     </row>
-    <row r="800" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E800" s="4"/>
     </row>
-    <row r="801" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E801" s="4"/>
     </row>
-    <row r="802" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E802" s="4"/>
     </row>
-    <row r="803" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E803" s="4"/>
     </row>
-    <row r="804" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E804" s="4"/>
     </row>
-    <row r="805" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="805" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E805" s="4"/>
     </row>
-    <row r="806" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="806" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E806" s="4"/>
     </row>
-    <row r="807" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="807" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E807" s="4"/>
     </row>
-    <row r="808" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E808" s="4"/>
     </row>
-    <row r="809" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="809" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E809" s="4"/>
     </row>
-    <row r="810" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="810" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E810" s="4"/>
     </row>
-    <row r="811" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="811" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E811" s="4"/>
     </row>
-    <row r="812" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="812" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E812" s="4"/>
     </row>
-    <row r="813" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="813" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E813" s="4"/>
     </row>
-    <row r="814" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="814" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E814" s="4"/>
     </row>
-    <row r="815" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="815" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E815" s="4"/>
     </row>
-    <row r="816" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="816" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E816" s="4"/>
     </row>
-    <row r="817" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E817" s="4"/>
     </row>
-    <row r="818" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="818" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E818" s="4"/>
     </row>
-    <row r="819" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="819" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E819" s="4"/>
     </row>
-    <row r="820" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="820" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E820" s="4"/>
     </row>
-    <row r="821" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="821" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E821" s="4"/>
     </row>
-    <row r="822" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="822" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E822" s="4"/>
     </row>
-    <row r="823" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E823" s="4"/>
     </row>
-    <row r="824" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="824" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E824" s="4"/>
     </row>
-    <row r="825" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="825" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E825" s="4"/>
     </row>
-    <row r="826" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E826" s="4"/>
     </row>
-    <row r="827" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="827" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E827" s="4"/>
     </row>
-    <row r="828" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E828" s="4"/>
     </row>
-    <row r="829" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E829" s="4"/>
     </row>
-    <row r="830" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E830" s="4"/>
     </row>
-    <row r="831" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E831" s="4"/>
     </row>
-    <row r="832" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="832" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E832" s="4"/>
     </row>
-    <row r="833" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E833" s="4"/>
     </row>
-    <row r="834" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="834" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E834" s="4"/>
     </row>
-    <row r="835" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E835" s="4"/>
     </row>
-    <row r="836" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="836" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E836" s="4"/>
     </row>
-    <row r="837" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="837" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E837" s="4"/>
     </row>
-    <row r="838" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="838" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E838" s="4"/>
     </row>
-    <row r="839" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="839" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E839" s="4"/>
     </row>
-    <row r="840" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E840" s="4"/>
     </row>
-    <row r="841" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="841" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E841" s="4"/>
     </row>
-    <row r="842" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E842" s="4"/>
     </row>
-    <row r="843" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="843" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E843" s="4"/>
     </row>
-    <row r="844" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E844" s="4"/>
     </row>
-    <row r="845" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="845" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E845" s="4"/>
     </row>
-    <row r="846" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E846" s="4"/>
     </row>
-    <row r="847" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E847" s="4"/>
     </row>
-    <row r="848" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E848" s="4"/>
     </row>
-    <row r="849" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E849" s="4"/>
     </row>
-    <row r="850" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E850" s="4"/>
     </row>
-    <row r="851" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E851" s="4"/>
     </row>
-    <row r="852" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="852" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E852" s="4"/>
     </row>
-    <row r="853" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E853" s="4"/>
     </row>
-    <row r="854" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="854" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E854" s="4"/>
     </row>
-    <row r="855" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="855" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E855" s="4"/>
     </row>
-    <row r="856" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E856" s="4"/>
     </row>
-    <row r="857" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E857" s="4"/>
     </row>
-    <row r="858" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="858" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E858" s="4"/>
     </row>
-    <row r="859" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E859" s="4"/>
     </row>
-    <row r="860" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="860" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E860" s="4"/>
     </row>
-    <row r="861" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="861" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E861" s="4"/>
     </row>
-    <row r="862" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="862" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E862" s="4"/>
     </row>
-    <row r="863" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="863" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E863" s="4"/>
     </row>
-    <row r="864" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="864" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E864" s="4"/>
     </row>
-    <row r="865" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E865" s="4"/>
     </row>
-    <row r="866" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E866" s="4"/>
     </row>
-    <row r="867" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="867" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E867" s="4"/>
     </row>
-    <row r="868" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="868" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E868" s="4"/>
     </row>
-    <row r="869" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="869" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E869" s="4"/>
     </row>
-    <row r="870" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="870" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E870" s="4"/>
     </row>
-    <row r="871" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="871" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E871" s="4"/>
     </row>
-    <row r="872" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="872" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E872" s="4"/>
     </row>
-    <row r="873" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="873" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E873" s="4"/>
     </row>
-    <row r="874" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="874" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E874" s="4"/>
     </row>
-    <row r="875" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="875" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E875" s="4"/>
     </row>
-    <row r="876" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E876" s="4"/>
     </row>
-    <row r="877" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="877" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E877" s="4"/>
     </row>
-    <row r="878" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="878" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E878" s="4"/>
     </row>
-    <row r="879" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="879" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E879" s="4"/>
     </row>
-    <row r="880" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="880" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E880" s="4"/>
     </row>
-    <row r="881" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="881" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E881" s="4"/>
     </row>
-    <row r="882" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="882" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E882" s="4"/>
     </row>
-    <row r="883" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="883" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E883" s="4"/>
     </row>
-    <row r="884" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="884" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E884" s="4"/>
     </row>
-    <row r="885" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="885" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E885" s="4"/>
     </row>
-    <row r="886" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="886" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E886" s="4"/>
     </row>
-    <row r="887" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="887" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E887" s="4"/>
     </row>
-    <row r="888" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="888" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E888" s="4"/>
     </row>
-    <row r="889" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="889" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E889" s="4"/>
     </row>
-    <row r="890" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="890" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E890" s="4"/>
     </row>
-    <row r="891" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="891" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E891" s="4"/>
     </row>
-    <row r="892" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="892" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E892" s="4"/>
     </row>
-    <row r="893" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="893" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E893" s="4"/>
     </row>
-    <row r="894" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="894" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E894" s="4"/>
     </row>
-    <row r="895" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="895" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E895" s="4"/>
     </row>
-    <row r="896" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="896" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E896" s="4"/>
     </row>
-    <row r="897" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="897" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E897" s="4"/>
     </row>
-    <row r="898" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="898" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E898" s="4"/>
     </row>
-    <row r="899" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="899" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E899" s="4"/>
     </row>
-    <row r="900" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="900" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E900" s="4"/>
     </row>
-    <row r="901" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="901" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E901" s="4"/>
     </row>
-    <row r="902" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="902" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E902" s="4"/>
     </row>
-    <row r="903" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="903" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E903" s="4"/>
     </row>
-    <row r="904" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="904" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E904" s="4"/>
     </row>
-    <row r="905" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="905" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E905" s="4"/>
     </row>
-    <row r="906" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="906" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E906" s="4"/>
     </row>
-    <row r="907" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="907" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E907" s="4"/>
     </row>
-    <row r="908" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="908" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E908" s="4"/>
     </row>
-    <row r="909" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="909" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E909" s="4"/>
     </row>
-    <row r="910" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="910" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E910" s="4"/>
     </row>
-    <row r="911" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="911" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E911" s="4"/>
     </row>
-    <row r="912" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="912" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E912" s="4"/>
     </row>
-    <row r="913" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="913" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E913" s="4"/>
     </row>
-    <row r="914" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="914" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E914" s="4"/>
     </row>
-    <row r="915" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="915" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E915" s="4"/>
     </row>
-    <row r="916" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="916" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E916" s="4"/>
     </row>
-    <row r="917" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="917" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E917" s="4"/>
     </row>
-    <row r="918" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="918" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E918" s="4"/>
     </row>
-    <row r="919" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="919" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E919" s="4"/>
     </row>
-    <row r="920" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="920" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E920" s="4"/>
     </row>
-    <row r="921" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="921" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E921" s="4"/>
     </row>
-    <row r="922" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="922" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E922" s="4"/>
     </row>
-    <row r="923" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="923" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E923" s="4"/>
     </row>
-    <row r="924" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="924" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E924" s="4"/>
     </row>
-    <row r="925" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="925" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E925" s="4"/>
     </row>
-    <row r="926" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="926" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E926" s="4"/>
     </row>
-    <row r="927" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="927" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E927" s="4"/>
     </row>
-    <row r="928" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="928" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E928" s="4"/>
     </row>
-    <row r="929" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="929" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E929" s="4"/>
     </row>
-    <row r="930" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="930" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E930" s="4"/>
     </row>
-    <row r="931" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="931" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E931" s="4"/>
     </row>
-    <row r="932" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="932" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E932" s="4"/>
     </row>
-    <row r="933" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="933" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E933" s="4"/>
     </row>
-    <row r="934" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="934" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E934" s="4"/>
     </row>
-    <row r="935" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="935" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E935" s="4"/>
     </row>
-    <row r="936" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="936" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E936" s="4"/>
     </row>
-    <row r="937" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="937" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E937" s="4"/>
     </row>
-    <row r="938" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="938" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E938" s="4"/>
     </row>
-    <row r="939" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="939" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E939" s="4"/>
     </row>
-    <row r="940" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="940" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E940" s="4"/>
     </row>
-    <row r="941" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="941" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E941" s="4"/>
     </row>
-    <row r="942" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="942" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E942" s="4"/>
     </row>
-    <row r="943" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="943" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E943" s="4"/>
     </row>
-    <row r="944" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="944" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E944" s="4"/>
     </row>
-    <row r="945" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="945" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E945" s="4"/>
     </row>
-    <row r="946" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="946" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E946" s="4"/>
     </row>
-    <row r="947" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="947" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E947" s="4"/>
     </row>
-    <row r="948" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="948" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E948" s="4"/>
     </row>
-    <row r="949" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="949" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E949" s="4"/>
     </row>
-    <row r="950" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="950" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E950" s="4"/>
     </row>
-    <row r="951" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="951" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E951" s="4"/>
     </row>
-    <row r="952" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="952" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E952" s="4"/>
     </row>
-    <row r="953" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="953" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E953" s="4"/>
     </row>
-    <row r="954" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="954" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E954" s="4"/>
     </row>
-    <row r="955" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="955" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E955" s="4"/>
     </row>
-    <row r="956" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="956" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E956" s="4"/>
     </row>
-    <row r="957" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="957" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E957" s="4"/>
     </row>
-    <row r="958" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="958" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E958" s="4"/>
     </row>
-    <row r="959" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="959" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E959" s="4"/>
     </row>
-    <row r="960" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="960" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E960" s="4"/>
     </row>
-    <row r="961" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="961" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E961" s="4"/>
     </row>
-    <row r="962" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="962" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E962" s="4"/>
     </row>
-    <row r="963" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="963" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E963" s="4"/>
     </row>
-    <row r="964" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="964" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E964" s="4"/>
     </row>
-    <row r="965" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="965" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E965" s="4"/>
     </row>
-    <row r="966" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="966" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E966" s="4"/>
     </row>
-    <row r="967" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="967" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E967" s="4"/>
     </row>
-    <row r="968" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="968" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E968" s="4"/>
     </row>
-    <row r="969" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="969" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E969" s="4"/>
     </row>
-    <row r="970" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="970" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E970" s="4"/>
     </row>
-    <row r="971" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="971" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E971" s="4"/>
     </row>
-    <row r="972" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="972" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E972" s="4"/>
     </row>
-    <row r="973" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="973" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E973" s="4"/>
     </row>
-    <row r="974" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="974" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E974" s="4"/>
     </row>
-    <row r="975" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="975" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E975" s="4"/>
     </row>
-    <row r="976" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="976" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E976" s="4"/>
     </row>
-    <row r="977" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="977" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E977" s="4"/>
     </row>
-    <row r="978" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="978" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E978" s="4"/>
     </row>
-    <row r="979" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="979" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E979" s="4"/>
     </row>
-    <row r="980" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="980" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E980" s="4"/>
     </row>
-    <row r="981" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="981" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E981" s="4"/>
     </row>
-    <row r="982" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="982" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E982" s="4"/>
     </row>
-    <row r="983" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="983" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E983" s="4"/>
     </row>
-    <row r="984" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="984" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E984" s="4"/>
     </row>
-    <row r="985" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="985" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E985" s="4"/>
     </row>
-    <row r="986" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="986" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E986" s="4"/>
     </row>
-    <row r="987" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="987" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E987" s="4"/>
     </row>
-    <row r="988" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="988" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E988" s="4"/>
     </row>
-    <row r="989" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="989" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E989" s="4"/>
     </row>
-    <row r="990" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="990" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E990" s="4"/>
     </row>
-    <row r="991" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="991" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E991" s="4"/>
     </row>
-    <row r="992" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="992" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E992" s="4"/>
     </row>
-    <row r="993" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="993" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E993" s="4"/>
     </row>
-    <row r="994" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="994" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E994" s="4"/>
     </row>
-    <row r="995" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="995" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E995" s="4"/>
     </row>
-    <row r="996" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="996" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E996" s="4"/>
     </row>
-    <row r="997" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="997" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E997" s="4"/>
     </row>
-    <row r="998" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="998" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E998" s="4"/>
     </row>
-    <row r="999" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="999" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E999" s="4"/>
     </row>
-    <row r="1000" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1000" s="4"/>
     </row>
   </sheetData>
@@ -7000,15 +6997,15 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7016,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -7025,46 +7022,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1">
         <v>1800</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C3" s="1">
         <v>1800</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C4" s="1">
         <v>1800</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
         <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Database.xlsx
+++ b/assets/Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65906\AndroidStudioProjects\calory_app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B91D77-AD7D-4A46-81BE-72B4236EC487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56B9302-9C1A-4F22-8C6C-E730EF346C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="upperBodyData" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>Pushups</t>
   </si>
   <si>
-    <t>Start in a straight arm plank position, with palm directly below the shoulders. Lower yourself until the elbows are 90 degrees, then push youself back up, ensuring the back is straight during the entire motion.</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -106,154 +103,157 @@
     <t>Squats</t>
   </si>
   <si>
-    <t>Stand straight with your feet shoulder width apart, lower yourself till the knees are 90 degrees before pushing yourself back up.</t>
-  </si>
-  <si>
     <t>L2</t>
   </si>
   <si>
     <t>Split Squat</t>
   </si>
   <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>Wall Squat</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>Squat Jump</t>
+  </si>
+  <si>
+    <t>L5</t>
+  </si>
+  <si>
+    <t>Single-leg hip raise</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>Lunges</t>
+  </si>
+  <si>
+    <t>L7</t>
+  </si>
+  <si>
+    <t>Jumping Jacks</t>
+  </si>
+  <si>
+    <t>L8</t>
+  </si>
+  <si>
+    <t>Skaters</t>
+  </si>
+  <si>
+    <t>L9</t>
+  </si>
+  <si>
+    <t>Burpees</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Sit-up</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Plank</t>
+  </si>
+  <si>
+    <t>Lie down on your stomach and bring your body up with your elbows on the floor. Hold the position while keeping the back straight.</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Mountain Climbers</t>
+  </si>
+  <si>
+    <t>In a pushup position, bring the knees towards the chest for each rep.</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>Single leg toe touch</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>Leg raises</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>Crunches</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>Russian Twist</t>
+  </si>
+  <si>
+    <t>Sit on the floor with your knee slightly bent, interlace your fingers infront of your chest. Lean back 45 degrees while maintaining balance. For each rep use your abdominals to twist your upper body to the right, then back to center, and then to the left .</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Swim</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>Stand straight with your feet shoulder width apart. Lower yourself till the knees are 90 degrees before pushing yourself back up.</t>
+  </si>
+  <si>
     <t>Stand straight with one leg in front while the other behind. Lower yourself until both knees are 90 degrees before pushing yourself back up.</t>
   </si>
   <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>Wall Squat</t>
-  </si>
-  <si>
     <t>Lean against a wall will your legs slightly forward. Lower yourself until both knees are 90 degrees and hold the position.</t>
   </si>
   <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>Squat Jump</t>
-  </si>
-  <si>
-    <t>Stand straight with your feet shoulder width apart, lower yourself till the knees are 90 degrees before pushing youself back up with a jump.</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>Single-leg hip raise</t>
+    <t>Stand straight with your feet shoulder width apart. Lower yourself till the knees are 90 degrees before pushing youself back up with a jump.</t>
   </si>
   <si>
     <t>While lying down on your back, keep your feet close to your body. Lift up one leg and proceed to thrust the body upwards.</t>
   </si>
   <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>Lunges</t>
-  </si>
-  <si>
-    <t>Start of standing straight. Take a step forward and lower the body until both the knees are 90degrees before pushing youself back up to the original position</t>
-  </si>
-  <si>
-    <t>L7</t>
-  </si>
-  <si>
-    <t>Jumping Jacks</t>
-  </si>
-  <si>
-    <t>L8</t>
-  </si>
-  <si>
-    <t>Skaters</t>
-  </si>
-  <si>
-    <t>L9</t>
-  </si>
-  <si>
-    <t>Burpees</t>
-  </si>
-  <si>
-    <t>Start off standing straight, do a squat and place ur palms on the floor. Proceed to kick out both your legs to transition into a pushup position, before jumping back into a squat before standing back up.</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>Sit-up</t>
-  </si>
-  <si>
-    <t>Lie down on your back, bringing the feet close to the body. With your palms on your ears, bring up your upper body so that your elbows touch your knees, before lowering youself back.</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>Plank</t>
-  </si>
-  <si>
-    <t>Lie down on your stomach and bring your body up with your elbows on the floor. Hold the position while keeping the back straight.</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>Mountain Climbers</t>
-  </si>
-  <si>
-    <t>In a pushup position, bring the knees towards the chest for each rep.</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>Single leg toe touch</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>Leg raises</t>
-  </si>
-  <si>
-    <t>Lie down on your back and bring both feet up.For each rep, bring the legs up until they are perpendicular to the floor, while keeping them as straight as possible before lowering.</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>Crunches</t>
-  </si>
-  <si>
-    <t>Lie down on your back, bring your feet up until your lower half of the legs are parallel to the floor. With your palms on your ears, bring up your upper body so that your elbows touch your knees, before lowering youself back.</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>Russian Twist</t>
-  </si>
-  <si>
-    <t>Sit on the floor with your knee slightly bent, interlace your fingers infront of your chest. Lean back 45 degrees while maintaining balance. For each rep use your abdominals to twist your upper body to the right, then back to center, and then to the left .</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>Swim</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>Cycle</t>
-  </si>
-  <si>
-    <t>Nil</t>
+    <t>Start off standing straight, do a squat and place ur palms on the floor. Proceed to kick out both your legs to transition into a pushup position. Jump back into a squat before standing back up.</t>
+  </si>
+  <si>
+    <t>Start of standing straight. Take a step forward and lower the body until both the knees are 90degrees. Push youself back up to the original position.</t>
+  </si>
+  <si>
+    <t>Start in a straight arm plank position, with palm directly below the shoulders. Lower yourself until the elbows are 90 degrees. Push youself back up, ensuring the back is straight during the entire motion.</t>
+  </si>
+  <si>
+    <t>Lie down on your back, bringing the feet close to the body. With your palms on your ears, bring up your upper body so that your elbows touch your knees.  Lower youself back down, with your back touching the floor.</t>
+  </si>
+  <si>
+    <t>Lie down on your back and bring both feet up. For each rep, bring the legs up until they are perpendicular to the floor. Keep your arms as straight as possible before lowering.</t>
+  </si>
+  <si>
+    <t>Lie down on your back, bring your feet up until your lower half of the legs are parallel to the floor. With your palms on your ears, bring up your upper body so that your elbows touch your knees. Lower youself back down, with your back touching the floor.</t>
   </si>
 </sst>
 </file>
@@ -540,14 +540,14 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="129.5703125" customWidth="1"/>
+    <col min="5" max="5" width="176.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -581,12 +581,12 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>30</v>
@@ -595,15 +595,15 @@
         <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>60</v>
@@ -612,15 +612,15 @@
         <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3">
         <v>40</v>
@@ -629,15 +629,15 @@
         <v>60</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3">
         <v>60</v>
@@ -646,15 +646,15 @@
         <v>60</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3">
         <v>40</v>
@@ -663,15 +663,15 @@
         <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1">
         <v>60</v>
@@ -680,10 +680,10 @@
         <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3674,14 +3674,14 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="131.85546875" customWidth="1"/>
+    <col min="5" max="5" width="170.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3703,7 +3703,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <v>60</v>
@@ -3712,15 +3712,15 @@
         <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>60</v>
@@ -3729,30 +3729,30 @@
         <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1">
         <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>30</v>
@@ -3761,15 +3761,15 @@
         <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1">
         <v>30</v>
@@ -3778,15 +3778,15 @@
         <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1">
         <v>30</v>
@@ -3795,15 +3795,15 @@
         <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1">
         <v>30</v>
@@ -3812,15 +3812,15 @@
         <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1">
         <v>20</v>
@@ -3829,15 +3829,15 @@
         <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1">
         <v>30</v>
@@ -3846,10 +3846,10 @@
         <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3864,15 +3864,15 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="155.42578125" customWidth="1"/>
+    <col min="5" max="5" width="213.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3894,7 +3894,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1">
         <v>60</v>
@@ -3903,29 +3903,29 @@
         <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1">
         <v>30</v>
@@ -3934,15 +3934,15 @@
         <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1">
         <v>40</v>
@@ -3951,15 +3951,15 @@
         <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1">
         <v>40</v>
@@ -3968,15 +3968,15 @@
         <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1">
         <v>60</v>
@@ -3985,15 +3985,15 @@
         <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1">
         <v>40</v>
@@ -4002,10 +4002,10 @@
         <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7024,44 +7024,44 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1">
         <v>1800</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1">
         <v>1800</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1">
         <v>1800</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Database.xlsx
+++ b/assets/Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65906\AndroidStudioProjects\calory_app\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renee\StudioProjects\MyApplication\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56B9302-9C1A-4F22-8C6C-E730EF346C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596A81E7-8C27-47F5-9DA3-B38D725EC0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="upperBodyData" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>exerciseId</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>Lie down on your back, bring your feet up until your lower half of the legs are parallel to the floor. With your palms on your ears, bring up your upper body so that your elbows touch your knees. Lower youself back down, with your back touching the floor.</t>
+  </si>
+  <si>
+    <t>Place yourself in plank position, hands in ground beneath your shoulders. Straight body from head to toes. Tighten abs and glutes to hold up your body. Reach elbow up toward the sky and slowly twist upper body back, look the same direction. Hold 1-3 seconds, return slowly and repeat other side to count one repetition.</t>
   </si>
 </sst>
 </file>
@@ -540,17 +543,17 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="176.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="176.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -584,7 +587,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -601,7 +604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -618,7 +621,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -635,7 +638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -649,10 +652,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -669,7 +672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -686,2980 +689,2980 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E112" s="4"/>
     </row>
-    <row r="113" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E113" s="4"/>
     </row>
-    <row r="114" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E114" s="4"/>
     </row>
-    <row r="115" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E115" s="4"/>
     </row>
-    <row r="116" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E118" s="4"/>
     </row>
-    <row r="119" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E119" s="4"/>
     </row>
-    <row r="120" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E120" s="4"/>
     </row>
-    <row r="121" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E125" s="4"/>
     </row>
-    <row r="126" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E127" s="4"/>
     </row>
-    <row r="128" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E128" s="4"/>
     </row>
-    <row r="129" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E129" s="4"/>
     </row>
-    <row r="130" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E130" s="4"/>
     </row>
-    <row r="131" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E131" s="4"/>
     </row>
-    <row r="132" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E132" s="4"/>
     </row>
-    <row r="133" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E133" s="4"/>
     </row>
-    <row r="134" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E134" s="4"/>
     </row>
-    <row r="135" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E135" s="4"/>
     </row>
-    <row r="136" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E136" s="4"/>
     </row>
-    <row r="137" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E137" s="4"/>
     </row>
-    <row r="138" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E139" s="4"/>
     </row>
-    <row r="140" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E140" s="4"/>
     </row>
-    <row r="141" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E148" s="4"/>
     </row>
-    <row r="149" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E149" s="4"/>
     </row>
-    <row r="150" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E151" s="4"/>
     </row>
-    <row r="152" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E154" s="4"/>
     </row>
-    <row r="155" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E157" s="4"/>
     </row>
-    <row r="158" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E160" s="4"/>
     </row>
-    <row r="161" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E163" s="4"/>
     </row>
-    <row r="164" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E164" s="4"/>
     </row>
-    <row r="165" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E168" s="4"/>
     </row>
-    <row r="169" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E169" s="4"/>
     </row>
-    <row r="170" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E171" s="4"/>
     </row>
-    <row r="172" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E172" s="4"/>
     </row>
-    <row r="173" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E177" s="4"/>
     </row>
-    <row r="178" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E178" s="4"/>
     </row>
-    <row r="179" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E179" s="4"/>
     </row>
-    <row r="180" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E180" s="4"/>
     </row>
-    <row r="181" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E181" s="4"/>
     </row>
-    <row r="182" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E182" s="4"/>
     </row>
-    <row r="183" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E183" s="4"/>
     </row>
-    <row r="184" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E185" s="4"/>
     </row>
-    <row r="186" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E186" s="4"/>
     </row>
-    <row r="187" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E188" s="4"/>
     </row>
-    <row r="189" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E189" s="4"/>
     </row>
-    <row r="190" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E192" s="4"/>
     </row>
-    <row r="193" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E193" s="4"/>
     </row>
-    <row r="194" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E194" s="4"/>
     </row>
-    <row r="195" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E195" s="4"/>
     </row>
-    <row r="196" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E198" s="4"/>
     </row>
-    <row r="199" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E199" s="4"/>
     </row>
-    <row r="200" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E200" s="4"/>
     </row>
-    <row r="201" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E201" s="4"/>
     </row>
-    <row r="202" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E202" s="4"/>
     </row>
-    <row r="203" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E203" s="4"/>
     </row>
-    <row r="204" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E204" s="4"/>
     </row>
-    <row r="205" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E205" s="4"/>
     </row>
-    <row r="206" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E206" s="4"/>
     </row>
-    <row r="207" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E207" s="4"/>
     </row>
-    <row r="208" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E208" s="4"/>
     </row>
-    <row r="209" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E209" s="4"/>
     </row>
-    <row r="210" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E210" s="4"/>
     </row>
-    <row r="211" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E211" s="4"/>
     </row>
-    <row r="212" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E212" s="4"/>
     </row>
-    <row r="213" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E213" s="4"/>
     </row>
-    <row r="214" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E214" s="4"/>
     </row>
-    <row r="215" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E215" s="4"/>
     </row>
-    <row r="216" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E216" s="4"/>
     </row>
-    <row r="217" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E217" s="4"/>
     </row>
-    <row r="218" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E218" s="4"/>
     </row>
-    <row r="219" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E219" s="4"/>
     </row>
-    <row r="220" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E220" s="4"/>
     </row>
-    <row r="221" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E221" s="4"/>
     </row>
-    <row r="222" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E222" s="4"/>
     </row>
-    <row r="223" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E223" s="4"/>
     </row>
-    <row r="224" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E224" s="4"/>
     </row>
-    <row r="225" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E225" s="4"/>
     </row>
-    <row r="226" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E226" s="4"/>
     </row>
-    <row r="227" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E227" s="4"/>
     </row>
-    <row r="228" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E228" s="4"/>
     </row>
-    <row r="229" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E229" s="4"/>
     </row>
-    <row r="230" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E230" s="4"/>
     </row>
-    <row r="231" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E231" s="4"/>
     </row>
-    <row r="232" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E232" s="4"/>
     </row>
-    <row r="233" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E233" s="4"/>
     </row>
-    <row r="234" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E234" s="4"/>
     </row>
-    <row r="235" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E235" s="4"/>
     </row>
-    <row r="236" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E236" s="4"/>
     </row>
-    <row r="237" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E237" s="4"/>
     </row>
-    <row r="238" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E238" s="4"/>
     </row>
-    <row r="239" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E239" s="4"/>
     </row>
-    <row r="240" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E240" s="4"/>
     </row>
-    <row r="241" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E241" s="4"/>
     </row>
-    <row r="242" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E242" s="4"/>
     </row>
-    <row r="243" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E243" s="4"/>
     </row>
-    <row r="244" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E244" s="4"/>
     </row>
-    <row r="245" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E245" s="4"/>
     </row>
-    <row r="246" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E246" s="4"/>
     </row>
-    <row r="247" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E247" s="4"/>
     </row>
-    <row r="248" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E248" s="4"/>
     </row>
-    <row r="249" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E249" s="4"/>
     </row>
-    <row r="250" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E250" s="4"/>
     </row>
-    <row r="251" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E251" s="4"/>
     </row>
-    <row r="252" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E252" s="4"/>
     </row>
-    <row r="253" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E253" s="4"/>
     </row>
-    <row r="254" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E254" s="4"/>
     </row>
-    <row r="255" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E255" s="4"/>
     </row>
-    <row r="256" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E256" s="4"/>
     </row>
-    <row r="257" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E257" s="4"/>
     </row>
-    <row r="258" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E258" s="4"/>
     </row>
-    <row r="259" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E259" s="4"/>
     </row>
-    <row r="260" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E260" s="4"/>
     </row>
-    <row r="261" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E261" s="4"/>
     </row>
-    <row r="262" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E262" s="4"/>
     </row>
-    <row r="263" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E263" s="4"/>
     </row>
-    <row r="264" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E264" s="4"/>
     </row>
-    <row r="265" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E265" s="4"/>
     </row>
-    <row r="266" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E266" s="4"/>
     </row>
-    <row r="267" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E267" s="4"/>
     </row>
-    <row r="268" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E268" s="4"/>
     </row>
-    <row r="269" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E269" s="4"/>
     </row>
-    <row r="270" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E270" s="4"/>
     </row>
-    <row r="271" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E271" s="4"/>
     </row>
-    <row r="272" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E272" s="4"/>
     </row>
-    <row r="273" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E273" s="4"/>
     </row>
-    <row r="274" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E274" s="4"/>
     </row>
-    <row r="275" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E275" s="4"/>
     </row>
-    <row r="276" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E276" s="4"/>
     </row>
-    <row r="277" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E277" s="4"/>
     </row>
-    <row r="278" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E278" s="4"/>
     </row>
-    <row r="279" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E279" s="4"/>
     </row>
-    <row r="280" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E280" s="4"/>
     </row>
-    <row r="281" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E281" s="4"/>
     </row>
-    <row r="282" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E282" s="4"/>
     </row>
-    <row r="283" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E283" s="4"/>
     </row>
-    <row r="284" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E284" s="4"/>
     </row>
-    <row r="285" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E285" s="4"/>
     </row>
-    <row r="286" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E286" s="4"/>
     </row>
-    <row r="287" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E287" s="4"/>
     </row>
-    <row r="288" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E288" s="4"/>
     </row>
-    <row r="289" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E289" s="4"/>
     </row>
-    <row r="290" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E290" s="4"/>
     </row>
-    <row r="291" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E291" s="4"/>
     </row>
-    <row r="292" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E292" s="4"/>
     </row>
-    <row r="293" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E293" s="4"/>
     </row>
-    <row r="294" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E294" s="4"/>
     </row>
-    <row r="295" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E295" s="4"/>
     </row>
-    <row r="296" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E296" s="4"/>
     </row>
-    <row r="297" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E297" s="4"/>
     </row>
-    <row r="298" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E298" s="4"/>
     </row>
-    <row r="299" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E299" s="4"/>
     </row>
-    <row r="300" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E300" s="4"/>
     </row>
-    <row r="301" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E301" s="4"/>
     </row>
-    <row r="302" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E302" s="4"/>
     </row>
-    <row r="303" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E303" s="4"/>
     </row>
-    <row r="304" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E304" s="4"/>
     </row>
-    <row r="305" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E305" s="4"/>
     </row>
-    <row r="306" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E306" s="4"/>
     </row>
-    <row r="307" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E307" s="4"/>
     </row>
-    <row r="308" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E308" s="4"/>
     </row>
-    <row r="309" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E309" s="4"/>
     </row>
-    <row r="310" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E310" s="4"/>
     </row>
-    <row r="311" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E311" s="4"/>
     </row>
-    <row r="312" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E312" s="4"/>
     </row>
-    <row r="313" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E313" s="4"/>
     </row>
-    <row r="314" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E314" s="4"/>
     </row>
-    <row r="315" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E315" s="4"/>
     </row>
-    <row r="316" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E316" s="4"/>
     </row>
-    <row r="317" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E317" s="4"/>
     </row>
-    <row r="318" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E318" s="4"/>
     </row>
-    <row r="319" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E319" s="4"/>
     </row>
-    <row r="320" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E320" s="4"/>
     </row>
-    <row r="321" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E321" s="4"/>
     </row>
-    <row r="322" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E322" s="4"/>
     </row>
-    <row r="323" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E323" s="4"/>
     </row>
-    <row r="324" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E324" s="4"/>
     </row>
-    <row r="325" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E325" s="4"/>
     </row>
-    <row r="326" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E326" s="4"/>
     </row>
-    <row r="327" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E327" s="4"/>
     </row>
-    <row r="328" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E328" s="4"/>
     </row>
-    <row r="329" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E329" s="4"/>
     </row>
-    <row r="330" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E330" s="4"/>
     </row>
-    <row r="331" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E331" s="4"/>
     </row>
-    <row r="332" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E332" s="4"/>
     </row>
-    <row r="333" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E333" s="4"/>
     </row>
-    <row r="334" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E334" s="4"/>
     </row>
-    <row r="335" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E335" s="4"/>
     </row>
-    <row r="336" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E336" s="4"/>
     </row>
-    <row r="337" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E337" s="4"/>
     </row>
-    <row r="338" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E338" s="4"/>
     </row>
-    <row r="339" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E339" s="4"/>
     </row>
-    <row r="340" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E340" s="4"/>
     </row>
-    <row r="341" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E341" s="4"/>
     </row>
-    <row r="342" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E342" s="4"/>
     </row>
-    <row r="343" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E343" s="4"/>
     </row>
-    <row r="344" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E344" s="4"/>
     </row>
-    <row r="345" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E345" s="4"/>
     </row>
-    <row r="346" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E346" s="4"/>
     </row>
-    <row r="347" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E347" s="4"/>
     </row>
-    <row r="348" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E348" s="4"/>
     </row>
-    <row r="349" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E349" s="4"/>
     </row>
-    <row r="350" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E350" s="4"/>
     </row>
-    <row r="351" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E351" s="4"/>
     </row>
-    <row r="352" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E352" s="4"/>
     </row>
-    <row r="353" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E353" s="4"/>
     </row>
-    <row r="354" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E354" s="4"/>
     </row>
-    <row r="355" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E355" s="4"/>
     </row>
-    <row r="356" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E356" s="4"/>
     </row>
-    <row r="357" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E357" s="4"/>
     </row>
-    <row r="358" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E358" s="4"/>
     </row>
-    <row r="359" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E359" s="4"/>
     </row>
-    <row r="360" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E360" s="4"/>
     </row>
-    <row r="361" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E361" s="4"/>
     </row>
-    <row r="362" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E362" s="4"/>
     </row>
-    <row r="363" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E363" s="4"/>
     </row>
-    <row r="364" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E364" s="4"/>
     </row>
-    <row r="365" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E365" s="4"/>
     </row>
-    <row r="366" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E366" s="4"/>
     </row>
-    <row r="367" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E367" s="4"/>
     </row>
-    <row r="368" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E368" s="4"/>
     </row>
-    <row r="369" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E369" s="4"/>
     </row>
-    <row r="370" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E370" s="4"/>
     </row>
-    <row r="371" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E371" s="4"/>
     </row>
-    <row r="372" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E372" s="4"/>
     </row>
-    <row r="373" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E373" s="4"/>
     </row>
-    <row r="374" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E374" s="4"/>
     </row>
-    <row r="375" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E375" s="4"/>
     </row>
-    <row r="376" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E376" s="4"/>
     </row>
-    <row r="377" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E377" s="4"/>
     </row>
-    <row r="378" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E378" s="4"/>
     </row>
-    <row r="379" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E379" s="4"/>
     </row>
-    <row r="380" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E380" s="4"/>
     </row>
-    <row r="381" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E381" s="4"/>
     </row>
-    <row r="382" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E382" s="4"/>
     </row>
-    <row r="383" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E383" s="4"/>
     </row>
-    <row r="384" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E384" s="4"/>
     </row>
-    <row r="385" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E385" s="4"/>
     </row>
-    <row r="386" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E386" s="4"/>
     </row>
-    <row r="387" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E387" s="4"/>
     </row>
-    <row r="388" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E388" s="4"/>
     </row>
-    <row r="389" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E389" s="4"/>
     </row>
-    <row r="390" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E390" s="4"/>
     </row>
-    <row r="391" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E391" s="4"/>
     </row>
-    <row r="392" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E392" s="4"/>
     </row>
-    <row r="393" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E393" s="4"/>
     </row>
-    <row r="394" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E394" s="4"/>
     </row>
-    <row r="395" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E395" s="4"/>
     </row>
-    <row r="396" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E396" s="4"/>
     </row>
-    <row r="397" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E397" s="4"/>
     </row>
-    <row r="398" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E398" s="4"/>
     </row>
-    <row r="399" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E399" s="4"/>
     </row>
-    <row r="400" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E400" s="4"/>
     </row>
-    <row r="401" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E401" s="4"/>
     </row>
-    <row r="402" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E402" s="4"/>
     </row>
-    <row r="403" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E403" s="4"/>
     </row>
-    <row r="404" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E404" s="4"/>
     </row>
-    <row r="405" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E405" s="4"/>
     </row>
-    <row r="406" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E406" s="4"/>
     </row>
-    <row r="407" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E407" s="4"/>
     </row>
-    <row r="408" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E408" s="4"/>
     </row>
-    <row r="409" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E409" s="4"/>
     </row>
-    <row r="410" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E410" s="4"/>
     </row>
-    <row r="411" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E411" s="4"/>
     </row>
-    <row r="412" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E412" s="4"/>
     </row>
-    <row r="413" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E413" s="4"/>
     </row>
-    <row r="414" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E414" s="4"/>
     </row>
-    <row r="415" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E415" s="4"/>
     </row>
-    <row r="416" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E416" s="4"/>
     </row>
-    <row r="417" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E417" s="4"/>
     </row>
-    <row r="418" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E418" s="4"/>
     </row>
-    <row r="419" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E419" s="4"/>
     </row>
-    <row r="420" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E420" s="4"/>
     </row>
-    <row r="421" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E421" s="4"/>
     </row>
-    <row r="422" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E422" s="4"/>
     </row>
-    <row r="423" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E423" s="4"/>
     </row>
-    <row r="424" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E424" s="4"/>
     </row>
-    <row r="425" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E425" s="4"/>
     </row>
-    <row r="426" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E426" s="4"/>
     </row>
-    <row r="427" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E427" s="4"/>
     </row>
-    <row r="428" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E428" s="4"/>
     </row>
-    <row r="429" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E429" s="4"/>
     </row>
-    <row r="430" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E430" s="4"/>
     </row>
-    <row r="431" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E431" s="4"/>
     </row>
-    <row r="432" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E432" s="4"/>
     </row>
-    <row r="433" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E433" s="4"/>
     </row>
-    <row r="434" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E434" s="4"/>
     </row>
-    <row r="435" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E435" s="4"/>
     </row>
-    <row r="436" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E436" s="4"/>
     </row>
-    <row r="437" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E437" s="4"/>
     </row>
-    <row r="438" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E438" s="4"/>
     </row>
-    <row r="439" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E439" s="4"/>
     </row>
-    <row r="440" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E440" s="4"/>
     </row>
-    <row r="441" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E441" s="4"/>
     </row>
-    <row r="442" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E442" s="4"/>
     </row>
-    <row r="443" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E443" s="4"/>
     </row>
-    <row r="444" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E444" s="4"/>
     </row>
-    <row r="445" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E445" s="4"/>
     </row>
-    <row r="446" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E446" s="4"/>
     </row>
-    <row r="447" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E447" s="4"/>
     </row>
-    <row r="448" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E448" s="4"/>
     </row>
-    <row r="449" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E449" s="4"/>
     </row>
-    <row r="450" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E450" s="4"/>
     </row>
-    <row r="451" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E451" s="4"/>
     </row>
-    <row r="452" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E452" s="4"/>
     </row>
-    <row r="453" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E453" s="4"/>
     </row>
-    <row r="454" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E454" s="4"/>
     </row>
-    <row r="455" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E455" s="4"/>
     </row>
-    <row r="456" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E456" s="4"/>
     </row>
-    <row r="457" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E457" s="4"/>
     </row>
-    <row r="458" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E458" s="4"/>
     </row>
-    <row r="459" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E459" s="4"/>
     </row>
-    <row r="460" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E460" s="4"/>
     </row>
-    <row r="461" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E461" s="4"/>
     </row>
-    <row r="462" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E462" s="4"/>
     </row>
-    <row r="463" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E463" s="4"/>
     </row>
-    <row r="464" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E464" s="4"/>
     </row>
-    <row r="465" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E465" s="4"/>
     </row>
-    <row r="466" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E466" s="4"/>
     </row>
-    <row r="467" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E467" s="4"/>
     </row>
-    <row r="468" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E468" s="4"/>
     </row>
-    <row r="469" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E469" s="4"/>
     </row>
-    <row r="470" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E470" s="4"/>
     </row>
-    <row r="471" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E471" s="4"/>
     </row>
-    <row r="472" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E472" s="4"/>
     </row>
-    <row r="473" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E473" s="4"/>
     </row>
-    <row r="474" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E474" s="4"/>
     </row>
-    <row r="475" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E475" s="4"/>
     </row>
-    <row r="476" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E476" s="4"/>
     </row>
-    <row r="477" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E477" s="4"/>
     </row>
-    <row r="478" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E478" s="4"/>
     </row>
-    <row r="479" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E479" s="4"/>
     </row>
-    <row r="480" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E480" s="4"/>
     </row>
-    <row r="481" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E481" s="4"/>
     </row>
-    <row r="482" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E482" s="4"/>
     </row>
-    <row r="483" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E483" s="4"/>
     </row>
-    <row r="484" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E484" s="4"/>
     </row>
-    <row r="485" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E485" s="4"/>
     </row>
-    <row r="486" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E486" s="4"/>
     </row>
-    <row r="487" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E487" s="4"/>
     </row>
-    <row r="488" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E488" s="4"/>
     </row>
-    <row r="489" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E489" s="4"/>
     </row>
-    <row r="490" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E490" s="4"/>
     </row>
-    <row r="491" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E491" s="4"/>
     </row>
-    <row r="492" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E492" s="4"/>
     </row>
-    <row r="493" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E493" s="4"/>
     </row>
-    <row r="494" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E494" s="4"/>
     </row>
-    <row r="495" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E495" s="4"/>
     </row>
-    <row r="496" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E496" s="4"/>
     </row>
-    <row r="497" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E497" s="4"/>
     </row>
-    <row r="498" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E498" s="4"/>
     </row>
-    <row r="499" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E499" s="4"/>
     </row>
-    <row r="500" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E500" s="4"/>
     </row>
-    <row r="501" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E501" s="4"/>
     </row>
-    <row r="502" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E502" s="4"/>
     </row>
-    <row r="503" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E503" s="4"/>
     </row>
-    <row r="504" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E504" s="4"/>
     </row>
-    <row r="505" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E505" s="4"/>
     </row>
-    <row r="506" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E506" s="4"/>
     </row>
-    <row r="507" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E507" s="4"/>
     </row>
-    <row r="508" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E508" s="4"/>
     </row>
-    <row r="509" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E509" s="4"/>
     </row>
-    <row r="510" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E510" s="4"/>
     </row>
-    <row r="511" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E511" s="4"/>
     </row>
-    <row r="512" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E512" s="4"/>
     </row>
-    <row r="513" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E513" s="4"/>
     </row>
-    <row r="514" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E514" s="4"/>
     </row>
-    <row r="515" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E515" s="4"/>
     </row>
-    <row r="516" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E516" s="4"/>
     </row>
-    <row r="517" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E517" s="4"/>
     </row>
-    <row r="518" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E518" s="4"/>
     </row>
-    <row r="519" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E519" s="4"/>
     </row>
-    <row r="520" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E520" s="4"/>
     </row>
-    <row r="521" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E521" s="4"/>
     </row>
-    <row r="522" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E522" s="4"/>
     </row>
-    <row r="523" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E523" s="4"/>
     </row>
-    <row r="524" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E524" s="4"/>
     </row>
-    <row r="525" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E525" s="4"/>
     </row>
-    <row r="526" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E526" s="4"/>
     </row>
-    <row r="527" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E527" s="4"/>
     </row>
-    <row r="528" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E528" s="4"/>
     </row>
-    <row r="529" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E529" s="4"/>
     </row>
-    <row r="530" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E530" s="4"/>
     </row>
-    <row r="531" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E531" s="4"/>
     </row>
-    <row r="532" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E532" s="4"/>
     </row>
-    <row r="533" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E533" s="4"/>
     </row>
-    <row r="534" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E534" s="4"/>
     </row>
-    <row r="535" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E535" s="4"/>
     </row>
-    <row r="536" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E536" s="4"/>
     </row>
-    <row r="537" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E537" s="4"/>
     </row>
-    <row r="538" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E538" s="4"/>
     </row>
-    <row r="539" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E539" s="4"/>
     </row>
-    <row r="540" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E540" s="4"/>
     </row>
-    <row r="541" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E541" s="4"/>
     </row>
-    <row r="542" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E542" s="4"/>
     </row>
-    <row r="543" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E543" s="4"/>
     </row>
-    <row r="544" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E544" s="4"/>
     </row>
-    <row r="545" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E545" s="4"/>
     </row>
-    <row r="546" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E546" s="4"/>
     </row>
-    <row r="547" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E547" s="4"/>
     </row>
-    <row r="548" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E548" s="4"/>
     </row>
-    <row r="549" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E549" s="4"/>
     </row>
-    <row r="550" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E550" s="4"/>
     </row>
-    <row r="551" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E551" s="4"/>
     </row>
-    <row r="552" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E552" s="4"/>
     </row>
-    <row r="553" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E553" s="4"/>
     </row>
-    <row r="554" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E554" s="4"/>
     </row>
-    <row r="555" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E555" s="4"/>
     </row>
-    <row r="556" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E556" s="4"/>
     </row>
-    <row r="557" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E557" s="4"/>
     </row>
-    <row r="558" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E558" s="4"/>
     </row>
-    <row r="559" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E559" s="4"/>
     </row>
-    <row r="560" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E560" s="4"/>
     </row>
-    <row r="561" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E561" s="4"/>
     </row>
-    <row r="562" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E562" s="4"/>
     </row>
-    <row r="563" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E563" s="4"/>
     </row>
-    <row r="564" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E564" s="4"/>
     </row>
-    <row r="565" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E565" s="4"/>
     </row>
-    <row r="566" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E566" s="4"/>
     </row>
-    <row r="567" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E567" s="4"/>
     </row>
-    <row r="568" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E568" s="4"/>
     </row>
-    <row r="569" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E569" s="4"/>
     </row>
-    <row r="570" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E570" s="4"/>
     </row>
-    <row r="571" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E571" s="4"/>
     </row>
-    <row r="572" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E572" s="4"/>
     </row>
-    <row r="573" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E573" s="4"/>
     </row>
-    <row r="574" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E574" s="4"/>
     </row>
-    <row r="575" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E575" s="4"/>
     </row>
-    <row r="576" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E576" s="4"/>
     </row>
-    <row r="577" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E577" s="4"/>
     </row>
-    <row r="578" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E578" s="4"/>
     </row>
-    <row r="579" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E579" s="4"/>
     </row>
-    <row r="580" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E580" s="4"/>
     </row>
-    <row r="581" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E581" s="4"/>
     </row>
-    <row r="582" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E582" s="4"/>
     </row>
-    <row r="583" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E583" s="4"/>
     </row>
-    <row r="584" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E584" s="4"/>
     </row>
-    <row r="585" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E585" s="4"/>
     </row>
-    <row r="586" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E586" s="4"/>
     </row>
-    <row r="587" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E587" s="4"/>
     </row>
-    <row r="588" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E588" s="4"/>
     </row>
-    <row r="589" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E589" s="4"/>
     </row>
-    <row r="590" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E590" s="4"/>
     </row>
-    <row r="591" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E591" s="4"/>
     </row>
-    <row r="592" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E592" s="4"/>
     </row>
-    <row r="593" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E593" s="4"/>
     </row>
-    <row r="594" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E594" s="4"/>
     </row>
-    <row r="595" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E595" s="4"/>
     </row>
-    <row r="596" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E596" s="4"/>
     </row>
-    <row r="597" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E597" s="4"/>
     </row>
-    <row r="598" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E598" s="4"/>
     </row>
-    <row r="599" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E599" s="4"/>
     </row>
-    <row r="600" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E600" s="4"/>
     </row>
-    <row r="601" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E601" s="4"/>
     </row>
-    <row r="602" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E602" s="4"/>
     </row>
-    <row r="603" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E603" s="4"/>
     </row>
-    <row r="604" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E604" s="4"/>
     </row>
-    <row r="605" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E605" s="4"/>
     </row>
-    <row r="606" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E606" s="4"/>
     </row>
-    <row r="607" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E607" s="4"/>
     </row>
-    <row r="608" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E608" s="4"/>
     </row>
-    <row r="609" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E609" s="4"/>
     </row>
-    <row r="610" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E610" s="4"/>
     </row>
-    <row r="611" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E611" s="4"/>
     </row>
-    <row r="612" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E612" s="4"/>
     </row>
-    <row r="613" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E613" s="4"/>
     </row>
-    <row r="614" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E614" s="4"/>
     </row>
-    <row r="615" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E615" s="4"/>
     </row>
-    <row r="616" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E616" s="4"/>
     </row>
-    <row r="617" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E617" s="4"/>
     </row>
-    <row r="618" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E618" s="4"/>
     </row>
-    <row r="619" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E619" s="4"/>
     </row>
-    <row r="620" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E620" s="4"/>
     </row>
-    <row r="621" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E621" s="4"/>
     </row>
-    <row r="622" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E622" s="4"/>
     </row>
-    <row r="623" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E623" s="4"/>
     </row>
-    <row r="624" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E624" s="4"/>
     </row>
-    <row r="625" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E625" s="4"/>
     </row>
-    <row r="626" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E626" s="4"/>
     </row>
-    <row r="627" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E627" s="4"/>
     </row>
-    <row r="628" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E628" s="4"/>
     </row>
-    <row r="629" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E629" s="4"/>
     </row>
-    <row r="630" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E630" s="4"/>
     </row>
-    <row r="631" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E631" s="4"/>
     </row>
-    <row r="632" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E632" s="4"/>
     </row>
-    <row r="633" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E633" s="4"/>
     </row>
-    <row r="634" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E634" s="4"/>
     </row>
-    <row r="635" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E635" s="4"/>
     </row>
-    <row r="636" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E636" s="4"/>
     </row>
-    <row r="637" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E637" s="4"/>
     </row>
-    <row r="638" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E638" s="4"/>
     </row>
-    <row r="639" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E639" s="4"/>
     </row>
-    <row r="640" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E640" s="4"/>
     </row>
-    <row r="641" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E641" s="4"/>
     </row>
-    <row r="642" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E642" s="4"/>
     </row>
-    <row r="643" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E643" s="4"/>
     </row>
-    <row r="644" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E644" s="4"/>
     </row>
-    <row r="645" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E645" s="4"/>
     </row>
-    <row r="646" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E646" s="4"/>
     </row>
-    <row r="647" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E647" s="4"/>
     </row>
-    <row r="648" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E648" s="4"/>
     </row>
-    <row r="649" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E649" s="4"/>
     </row>
-    <row r="650" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E650" s="4"/>
     </row>
-    <row r="651" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E651" s="4"/>
     </row>
-    <row r="652" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E652" s="4"/>
     </row>
-    <row r="653" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E653" s="4"/>
     </row>
-    <row r="654" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E654" s="4"/>
     </row>
-    <row r="655" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E655" s="4"/>
     </row>
-    <row r="656" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E656" s="4"/>
     </row>
-    <row r="657" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E657" s="4"/>
     </row>
-    <row r="658" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E658" s="4"/>
     </row>
-    <row r="659" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E659" s="4"/>
     </row>
-    <row r="660" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E660" s="4"/>
     </row>
-    <row r="661" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E661" s="4"/>
     </row>
-    <row r="662" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E662" s="4"/>
     </row>
-    <row r="663" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E663" s="4"/>
     </row>
-    <row r="664" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E664" s="4"/>
     </row>
-    <row r="665" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E665" s="4"/>
     </row>
-    <row r="666" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E666" s="4"/>
     </row>
-    <row r="667" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E667" s="4"/>
     </row>
-    <row r="668" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E668" s="4"/>
     </row>
-    <row r="669" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E669" s="4"/>
     </row>
-    <row r="670" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E670" s="4"/>
     </row>
-    <row r="671" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E671" s="4"/>
     </row>
-    <row r="672" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E672" s="4"/>
     </row>
-    <row r="673" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E673" s="4"/>
     </row>
-    <row r="674" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E674" s="4"/>
     </row>
-    <row r="675" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E675" s="4"/>
     </row>
-    <row r="676" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E676" s="4"/>
     </row>
-    <row r="677" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E677" s="4"/>
     </row>
-    <row r="678" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E678" s="4"/>
     </row>
-    <row r="679" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E679" s="4"/>
     </row>
-    <row r="680" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E680" s="4"/>
     </row>
-    <row r="681" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E681" s="4"/>
     </row>
-    <row r="682" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E682" s="4"/>
     </row>
-    <row r="683" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E683" s="4"/>
     </row>
-    <row r="684" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E684" s="4"/>
     </row>
-    <row r="685" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E685" s="4"/>
     </row>
-    <row r="686" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E686" s="4"/>
     </row>
-    <row r="687" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E687" s="4"/>
     </row>
-    <row r="688" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E688" s="4"/>
     </row>
-    <row r="689" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E689" s="4"/>
     </row>
-    <row r="690" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E690" s="4"/>
     </row>
-    <row r="691" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E691" s="4"/>
     </row>
-    <row r="692" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E692" s="4"/>
     </row>
-    <row r="693" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E693" s="4"/>
     </row>
-    <row r="694" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E694" s="4"/>
     </row>
-    <row r="695" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E695" s="4"/>
     </row>
-    <row r="696" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E696" s="4"/>
     </row>
-    <row r="697" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E697" s="4"/>
     </row>
-    <row r="698" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E698" s="4"/>
     </row>
-    <row r="699" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E699" s="4"/>
     </row>
-    <row r="700" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E700" s="4"/>
     </row>
-    <row r="701" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E701" s="4"/>
     </row>
-    <row r="702" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E702" s="4"/>
     </row>
-    <row r="703" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E703" s="4"/>
     </row>
-    <row r="704" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E704" s="4"/>
     </row>
-    <row r="705" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E705" s="4"/>
     </row>
-    <row r="706" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E706" s="4"/>
     </row>
-    <row r="707" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E707" s="4"/>
     </row>
-    <row r="708" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E708" s="4"/>
     </row>
-    <row r="709" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E709" s="4"/>
     </row>
-    <row r="710" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E710" s="4"/>
     </row>
-    <row r="711" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E711" s="4"/>
     </row>
-    <row r="712" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E712" s="4"/>
     </row>
-    <row r="713" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E713" s="4"/>
     </row>
-    <row r="714" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E714" s="4"/>
     </row>
-    <row r="715" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E715" s="4"/>
     </row>
-    <row r="716" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E716" s="4"/>
     </row>
-    <row r="717" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E717" s="4"/>
     </row>
-    <row r="718" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E718" s="4"/>
     </row>
-    <row r="719" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E719" s="4"/>
     </row>
-    <row r="720" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E720" s="4"/>
     </row>
-    <row r="721" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E721" s="4"/>
     </row>
-    <row r="722" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E722" s="4"/>
     </row>
-    <row r="723" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E723" s="4"/>
     </row>
-    <row r="724" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E724" s="4"/>
     </row>
-    <row r="725" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E725" s="4"/>
     </row>
-    <row r="726" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E726" s="4"/>
     </row>
-    <row r="727" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E727" s="4"/>
     </row>
-    <row r="728" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E728" s="4"/>
     </row>
-    <row r="729" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E729" s="4"/>
     </row>
-    <row r="730" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E730" s="4"/>
     </row>
-    <row r="731" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E731" s="4"/>
     </row>
-    <row r="732" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E732" s="4"/>
     </row>
-    <row r="733" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E733" s="4"/>
     </row>
-    <row r="734" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E734" s="4"/>
     </row>
-    <row r="735" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E735" s="4"/>
     </row>
-    <row r="736" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E736" s="4"/>
     </row>
-    <row r="737" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E737" s="4"/>
     </row>
-    <row r="738" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E738" s="4"/>
     </row>
-    <row r="739" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E739" s="4"/>
     </row>
-    <row r="740" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E740" s="4"/>
     </row>
-    <row r="741" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E741" s="4"/>
     </row>
-    <row r="742" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E742" s="4"/>
     </row>
-    <row r="743" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E743" s="4"/>
     </row>
-    <row r="744" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E744" s="4"/>
     </row>
-    <row r="745" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E745" s="4"/>
     </row>
-    <row r="746" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E746" s="4"/>
     </row>
-    <row r="747" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E747" s="4"/>
     </row>
-    <row r="748" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E748" s="4"/>
     </row>
-    <row r="749" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E749" s="4"/>
     </row>
-    <row r="750" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E750" s="4"/>
     </row>
-    <row r="751" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E751" s="4"/>
     </row>
-    <row r="752" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E752" s="4"/>
     </row>
-    <row r="753" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E753" s="4"/>
     </row>
-    <row r="754" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E754" s="4"/>
     </row>
-    <row r="755" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E755" s="4"/>
     </row>
-    <row r="756" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E756" s="4"/>
     </row>
-    <row r="757" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E757" s="4"/>
     </row>
-    <row r="758" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E758" s="4"/>
     </row>
-    <row r="759" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E759" s="4"/>
     </row>
-    <row r="760" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E760" s="4"/>
     </row>
-    <row r="761" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E761" s="4"/>
     </row>
-    <row r="762" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E762" s="4"/>
     </row>
-    <row r="763" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E763" s="4"/>
     </row>
-    <row r="764" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E764" s="4"/>
     </row>
-    <row r="765" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E765" s="4"/>
     </row>
-    <row r="766" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E766" s="4"/>
     </row>
-    <row r="767" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E767" s="4"/>
     </row>
-    <row r="768" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E768" s="4"/>
     </row>
-    <row r="769" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E769" s="4"/>
     </row>
-    <row r="770" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E770" s="4"/>
     </row>
-    <row r="771" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E771" s="4"/>
     </row>
-    <row r="772" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E772" s="4"/>
     </row>
-    <row r="773" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E773" s="4"/>
     </row>
-    <row r="774" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E774" s="4"/>
     </row>
-    <row r="775" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E775" s="4"/>
     </row>
-    <row r="776" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E776" s="4"/>
     </row>
-    <row r="777" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E777" s="4"/>
     </row>
-    <row r="778" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E778" s="4"/>
     </row>
-    <row r="779" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E779" s="4"/>
     </row>
-    <row r="780" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E780" s="4"/>
     </row>
-    <row r="781" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E781" s="4"/>
     </row>
-    <row r="782" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E782" s="4"/>
     </row>
-    <row r="783" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E783" s="4"/>
     </row>
-    <row r="784" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E784" s="4"/>
     </row>
-    <row r="785" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E785" s="4"/>
     </row>
-    <row r="786" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E786" s="4"/>
     </row>
-    <row r="787" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E787" s="4"/>
     </row>
-    <row r="788" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E788" s="4"/>
     </row>
-    <row r="789" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E789" s="4"/>
     </row>
-    <row r="790" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E790" s="4"/>
     </row>
-    <row r="791" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E791" s="4"/>
     </row>
-    <row r="792" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E792" s="4"/>
     </row>
-    <row r="793" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E793" s="4"/>
     </row>
-    <row r="794" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E794" s="4"/>
     </row>
-    <row r="795" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E795" s="4"/>
     </row>
-    <row r="796" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E796" s="4"/>
     </row>
-    <row r="797" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E797" s="4"/>
     </row>
-    <row r="798" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E798" s="4"/>
     </row>
-    <row r="799" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E799" s="4"/>
     </row>
-    <row r="800" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E800" s="4"/>
     </row>
-    <row r="801" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E801" s="4"/>
     </row>
-    <row r="802" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E802" s="4"/>
     </row>
-    <row r="803" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E803" s="4"/>
     </row>
-    <row r="804" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E804" s="4"/>
     </row>
-    <row r="805" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E805" s="4"/>
     </row>
-    <row r="806" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E806" s="4"/>
     </row>
-    <row r="807" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E807" s="4"/>
     </row>
-    <row r="808" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E808" s="4"/>
     </row>
-    <row r="809" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E809" s="4"/>
     </row>
-    <row r="810" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E810" s="4"/>
     </row>
-    <row r="811" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E811" s="4"/>
     </row>
-    <row r="812" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E812" s="4"/>
     </row>
-    <row r="813" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E813" s="4"/>
     </row>
-    <row r="814" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E814" s="4"/>
     </row>
-    <row r="815" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E815" s="4"/>
     </row>
-    <row r="816" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E816" s="4"/>
     </row>
-    <row r="817" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E817" s="4"/>
     </row>
-    <row r="818" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E818" s="4"/>
     </row>
-    <row r="819" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E819" s="4"/>
     </row>
-    <row r="820" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E820" s="4"/>
     </row>
-    <row r="821" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E821" s="4"/>
     </row>
-    <row r="822" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E822" s="4"/>
     </row>
-    <row r="823" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E823" s="4"/>
     </row>
-    <row r="824" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E824" s="4"/>
     </row>
-    <row r="825" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E825" s="4"/>
     </row>
-    <row r="826" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E826" s="4"/>
     </row>
-    <row r="827" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E827" s="4"/>
     </row>
-    <row r="828" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E828" s="4"/>
     </row>
-    <row r="829" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E829" s="4"/>
     </row>
-    <row r="830" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E830" s="4"/>
     </row>
-    <row r="831" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E831" s="4"/>
     </row>
-    <row r="832" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E832" s="4"/>
     </row>
-    <row r="833" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E833" s="4"/>
     </row>
-    <row r="834" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E834" s="4"/>
     </row>
-    <row r="835" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E835" s="4"/>
     </row>
-    <row r="836" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E836" s="4"/>
     </row>
-    <row r="837" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E837" s="4"/>
     </row>
-    <row r="838" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E838" s="4"/>
     </row>
-    <row r="839" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E839" s="4"/>
     </row>
-    <row r="840" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E840" s="4"/>
     </row>
-    <row r="841" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E841" s="4"/>
     </row>
-    <row r="842" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E842" s="4"/>
     </row>
-    <row r="843" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E843" s="4"/>
     </row>
-    <row r="844" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E844" s="4"/>
     </row>
-    <row r="845" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E845" s="4"/>
     </row>
-    <row r="846" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E846" s="4"/>
     </row>
-    <row r="847" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E847" s="4"/>
     </row>
-    <row r="848" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E848" s="4"/>
     </row>
-    <row r="849" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E849" s="4"/>
     </row>
-    <row r="850" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E850" s="4"/>
     </row>
-    <row r="851" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E851" s="4"/>
     </row>
-    <row r="852" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E852" s="4"/>
     </row>
-    <row r="853" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E853" s="4"/>
     </row>
-    <row r="854" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E854" s="4"/>
     </row>
-    <row r="855" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E855" s="4"/>
     </row>
-    <row r="856" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E856" s="4"/>
     </row>
-    <row r="857" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E857" s="4"/>
     </row>
-    <row r="858" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E858" s="4"/>
     </row>
-    <row r="859" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E859" s="4"/>
     </row>
-    <row r="860" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E860" s="4"/>
     </row>
-    <row r="861" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E861" s="4"/>
     </row>
-    <row r="862" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E862" s="4"/>
     </row>
-    <row r="863" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E863" s="4"/>
     </row>
-    <row r="864" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E864" s="4"/>
     </row>
-    <row r="865" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E865" s="4"/>
     </row>
-    <row r="866" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E866" s="4"/>
     </row>
-    <row r="867" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E867" s="4"/>
     </row>
-    <row r="868" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E868" s="4"/>
     </row>
-    <row r="869" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E869" s="4"/>
     </row>
-    <row r="870" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E870" s="4"/>
     </row>
-    <row r="871" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E871" s="4"/>
     </row>
-    <row r="872" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E872" s="4"/>
     </row>
-    <row r="873" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E873" s="4"/>
     </row>
-    <row r="874" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E874" s="4"/>
     </row>
-    <row r="875" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E875" s="4"/>
     </row>
-    <row r="876" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E876" s="4"/>
     </row>
-    <row r="877" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E877" s="4"/>
     </row>
-    <row r="878" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E878" s="4"/>
     </row>
-    <row r="879" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E879" s="4"/>
     </row>
-    <row r="880" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E880" s="4"/>
     </row>
-    <row r="881" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E881" s="4"/>
     </row>
-    <row r="882" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E882" s="4"/>
     </row>
-    <row r="883" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E883" s="4"/>
     </row>
-    <row r="884" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E884" s="4"/>
     </row>
-    <row r="885" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E885" s="4"/>
     </row>
-    <row r="886" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E886" s="4"/>
     </row>
-    <row r="887" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E887" s="4"/>
     </row>
-    <row r="888" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E888" s="4"/>
     </row>
-    <row r="889" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E889" s="4"/>
     </row>
-    <row r="890" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E890" s="4"/>
     </row>
-    <row r="891" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E891" s="4"/>
     </row>
-    <row r="892" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E892" s="4"/>
     </row>
-    <row r="893" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E893" s="4"/>
     </row>
-    <row r="894" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E894" s="4"/>
     </row>
-    <row r="895" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E895" s="4"/>
     </row>
-    <row r="896" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E896" s="4"/>
     </row>
-    <row r="897" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E897" s="4"/>
     </row>
-    <row r="898" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E898" s="4"/>
     </row>
-    <row r="899" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E899" s="4"/>
     </row>
-    <row r="900" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E900" s="4"/>
     </row>
-    <row r="901" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E901" s="4"/>
     </row>
-    <row r="902" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E902" s="4"/>
     </row>
-    <row r="903" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E903" s="4"/>
     </row>
-    <row r="904" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E904" s="4"/>
     </row>
-    <row r="905" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E905" s="4"/>
     </row>
-    <row r="906" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E906" s="4"/>
     </row>
-    <row r="907" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E907" s="4"/>
     </row>
-    <row r="908" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E908" s="4"/>
     </row>
-    <row r="909" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E909" s="4"/>
     </row>
-    <row r="910" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E910" s="4"/>
     </row>
-    <row r="911" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E911" s="4"/>
     </row>
-    <row r="912" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E912" s="4"/>
     </row>
-    <row r="913" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E913" s="4"/>
     </row>
-    <row r="914" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E914" s="4"/>
     </row>
-    <row r="915" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E915" s="4"/>
     </row>
-    <row r="916" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E916" s="4"/>
     </row>
-    <row r="917" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E917" s="4"/>
     </row>
-    <row r="918" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E918" s="4"/>
     </row>
-    <row r="919" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E919" s="4"/>
     </row>
-    <row r="920" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E920" s="4"/>
     </row>
-    <row r="921" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E921" s="4"/>
     </row>
-    <row r="922" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E922" s="4"/>
     </row>
-    <row r="923" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E923" s="4"/>
     </row>
-    <row r="924" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E924" s="4"/>
     </row>
-    <row r="925" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E925" s="4"/>
     </row>
-    <row r="926" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E926" s="4"/>
     </row>
-    <row r="927" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E927" s="4"/>
     </row>
-    <row r="928" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E928" s="4"/>
     </row>
-    <row r="929" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E929" s="4"/>
     </row>
-    <row r="930" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E930" s="4"/>
     </row>
-    <row r="931" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E931" s="4"/>
     </row>
-    <row r="932" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E932" s="4"/>
     </row>
-    <row r="933" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E933" s="4"/>
     </row>
-    <row r="934" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E934" s="4"/>
     </row>
-    <row r="935" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E935" s="4"/>
     </row>
-    <row r="936" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E936" s="4"/>
     </row>
-    <row r="937" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E937" s="4"/>
     </row>
-    <row r="938" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E938" s="4"/>
     </row>
-    <row r="939" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E939" s="4"/>
     </row>
-    <row r="940" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E940" s="4"/>
     </row>
-    <row r="941" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E941" s="4"/>
     </row>
-    <row r="942" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E942" s="4"/>
     </row>
-    <row r="943" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E943" s="4"/>
     </row>
-    <row r="944" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E944" s="4"/>
     </row>
-    <row r="945" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E945" s="4"/>
     </row>
-    <row r="946" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E946" s="4"/>
     </row>
-    <row r="947" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E947" s="4"/>
     </row>
-    <row r="948" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E948" s="4"/>
     </row>
-    <row r="949" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E949" s="4"/>
     </row>
-    <row r="950" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E950" s="4"/>
     </row>
-    <row r="951" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E951" s="4"/>
     </row>
-    <row r="952" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E952" s="4"/>
     </row>
-    <row r="953" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E953" s="4"/>
     </row>
-    <row r="954" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E954" s="4"/>
     </row>
-    <row r="955" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E955" s="4"/>
     </row>
-    <row r="956" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E956" s="4"/>
     </row>
-    <row r="957" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E957" s="4"/>
     </row>
-    <row r="958" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E958" s="4"/>
     </row>
-    <row r="959" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E959" s="4"/>
     </row>
-    <row r="960" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E960" s="4"/>
     </row>
-    <row r="961" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E961" s="4"/>
     </row>
-    <row r="962" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E962" s="4"/>
     </row>
-    <row r="963" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E963" s="4"/>
     </row>
-    <row r="964" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E964" s="4"/>
     </row>
-    <row r="965" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E965" s="4"/>
     </row>
-    <row r="966" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E966" s="4"/>
     </row>
-    <row r="967" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E967" s="4"/>
     </row>
-    <row r="968" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E968" s="4"/>
     </row>
-    <row r="969" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E969" s="4"/>
     </row>
-    <row r="970" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E970" s="4"/>
     </row>
-    <row r="971" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E971" s="4"/>
     </row>
-    <row r="972" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E972" s="4"/>
     </row>
-    <row r="973" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E973" s="4"/>
     </row>
-    <row r="974" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E974" s="4"/>
     </row>
-    <row r="975" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E975" s="4"/>
     </row>
-    <row r="976" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E976" s="4"/>
     </row>
-    <row r="977" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E977" s="4"/>
     </row>
-    <row r="978" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E978" s="4"/>
     </row>
-    <row r="979" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E979" s="4"/>
     </row>
-    <row r="980" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E980" s="4"/>
     </row>
-    <row r="981" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E981" s="4"/>
     </row>
-    <row r="982" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E982" s="4"/>
     </row>
-    <row r="983" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E983" s="4"/>
     </row>
-    <row r="984" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E984" s="4"/>
     </row>
-    <row r="985" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E985" s="4"/>
     </row>
-    <row r="986" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E986" s="4"/>
     </row>
-    <row r="987" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E987" s="4"/>
     </row>
-    <row r="988" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E988" s="4"/>
     </row>
-    <row r="989" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E989" s="4"/>
     </row>
-    <row r="990" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E990" s="4"/>
     </row>
-    <row r="991" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E991" s="4"/>
     </row>
-    <row r="992" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E992" s="4"/>
     </row>
-    <row r="993" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E993" s="4"/>
     </row>
-    <row r="994" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E994" s="4"/>
     </row>
-    <row r="995" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E995" s="4"/>
     </row>
-    <row r="996" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E996" s="4"/>
     </row>
-    <row r="997" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E997" s="4"/>
     </row>
-    <row r="998" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E998" s="4"/>
     </row>
-    <row r="999" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E999" s="4"/>
     </row>
-    <row r="1000" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1000" s="4"/>
     </row>
   </sheetData>
@@ -3678,13 +3681,13 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="170.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="170.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -3718,7 +3721,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -3735,7 +3738,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -3767,7 +3770,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -3784,7 +3787,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3801,7 +3804,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -3835,7 +3838,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -3868,14 +3871,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="213.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="213.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3892,7 +3895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -3909,7 +3912,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -3923,7 +3926,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -3940,7 +3943,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
@@ -3957,7 +3960,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -3974,7 +3977,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -3991,7 +3994,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -4008,2980 +4011,2980 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E112" s="4"/>
     </row>
-    <row r="113" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E113" s="4"/>
     </row>
-    <row r="114" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E114" s="4"/>
     </row>
-    <row r="115" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E115" s="4"/>
     </row>
-    <row r="116" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E118" s="4"/>
     </row>
-    <row r="119" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E119" s="4"/>
     </row>
-    <row r="120" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E120" s="4"/>
     </row>
-    <row r="121" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E125" s="4"/>
     </row>
-    <row r="126" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E127" s="4"/>
     </row>
-    <row r="128" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E128" s="4"/>
     </row>
-    <row r="129" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E129" s="4"/>
     </row>
-    <row r="130" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E130" s="4"/>
     </row>
-    <row r="131" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E131" s="4"/>
     </row>
-    <row r="132" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E132" s="4"/>
     </row>
-    <row r="133" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E133" s="4"/>
     </row>
-    <row r="134" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E134" s="4"/>
     </row>
-    <row r="135" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E135" s="4"/>
     </row>
-    <row r="136" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E136" s="4"/>
     </row>
-    <row r="137" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E137" s="4"/>
     </row>
-    <row r="138" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E139" s="4"/>
     </row>
-    <row r="140" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E140" s="4"/>
     </row>
-    <row r="141" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E148" s="4"/>
     </row>
-    <row r="149" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E149" s="4"/>
     </row>
-    <row r="150" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E151" s="4"/>
     </row>
-    <row r="152" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E154" s="4"/>
     </row>
-    <row r="155" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E157" s="4"/>
     </row>
-    <row r="158" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E160" s="4"/>
     </row>
-    <row r="161" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E163" s="4"/>
     </row>
-    <row r="164" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E164" s="4"/>
     </row>
-    <row r="165" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E168" s="4"/>
     </row>
-    <row r="169" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E169" s="4"/>
     </row>
-    <row r="170" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E171" s="4"/>
     </row>
-    <row r="172" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E172" s="4"/>
     </row>
-    <row r="173" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E177" s="4"/>
     </row>
-    <row r="178" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E178" s="4"/>
     </row>
-    <row r="179" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E179" s="4"/>
     </row>
-    <row r="180" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E180" s="4"/>
     </row>
-    <row r="181" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E181" s="4"/>
     </row>
-    <row r="182" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E182" s="4"/>
     </row>
-    <row r="183" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E183" s="4"/>
     </row>
-    <row r="184" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E185" s="4"/>
     </row>
-    <row r="186" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E186" s="4"/>
     </row>
-    <row r="187" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E188" s="4"/>
     </row>
-    <row r="189" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E189" s="4"/>
     </row>
-    <row r="190" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E192" s="4"/>
     </row>
-    <row r="193" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E193" s="4"/>
     </row>
-    <row r="194" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E194" s="4"/>
     </row>
-    <row r="195" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E195" s="4"/>
     </row>
-    <row r="196" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E198" s="4"/>
     </row>
-    <row r="199" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E199" s="4"/>
     </row>
-    <row r="200" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E200" s="4"/>
     </row>
-    <row r="201" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E201" s="4"/>
     </row>
-    <row r="202" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E202" s="4"/>
     </row>
-    <row r="203" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E203" s="4"/>
     </row>
-    <row r="204" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E204" s="4"/>
     </row>
-    <row r="205" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E205" s="4"/>
     </row>
-    <row r="206" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E206" s="4"/>
     </row>
-    <row r="207" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E207" s="4"/>
     </row>
-    <row r="208" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E208" s="4"/>
     </row>
-    <row r="209" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E209" s="4"/>
     </row>
-    <row r="210" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E210" s="4"/>
     </row>
-    <row r="211" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E211" s="4"/>
     </row>
-    <row r="212" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E212" s="4"/>
     </row>
-    <row r="213" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E213" s="4"/>
     </row>
-    <row r="214" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E214" s="4"/>
     </row>
-    <row r="215" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E215" s="4"/>
     </row>
-    <row r="216" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E216" s="4"/>
     </row>
-    <row r="217" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E217" s="4"/>
     </row>
-    <row r="218" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E218" s="4"/>
     </row>
-    <row r="219" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E219" s="4"/>
     </row>
-    <row r="220" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E220" s="4"/>
     </row>
-    <row r="221" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E221" s="4"/>
     </row>
-    <row r="222" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E222" s="4"/>
     </row>
-    <row r="223" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E223" s="4"/>
     </row>
-    <row r="224" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E224" s="4"/>
     </row>
-    <row r="225" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E225" s="4"/>
     </row>
-    <row r="226" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E226" s="4"/>
     </row>
-    <row r="227" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E227" s="4"/>
     </row>
-    <row r="228" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E228" s="4"/>
     </row>
-    <row r="229" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E229" s="4"/>
     </row>
-    <row r="230" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E230" s="4"/>
     </row>
-    <row r="231" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E231" s="4"/>
     </row>
-    <row r="232" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E232" s="4"/>
     </row>
-    <row r="233" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E233" s="4"/>
     </row>
-    <row r="234" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E234" s="4"/>
     </row>
-    <row r="235" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E235" s="4"/>
     </row>
-    <row r="236" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E236" s="4"/>
     </row>
-    <row r="237" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E237" s="4"/>
     </row>
-    <row r="238" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E238" s="4"/>
     </row>
-    <row r="239" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E239" s="4"/>
     </row>
-    <row r="240" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E240" s="4"/>
     </row>
-    <row r="241" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E241" s="4"/>
     </row>
-    <row r="242" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E242" s="4"/>
     </row>
-    <row r="243" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E243" s="4"/>
     </row>
-    <row r="244" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E244" s="4"/>
     </row>
-    <row r="245" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E245" s="4"/>
     </row>
-    <row r="246" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E246" s="4"/>
     </row>
-    <row r="247" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E247" s="4"/>
     </row>
-    <row r="248" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E248" s="4"/>
     </row>
-    <row r="249" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E249" s="4"/>
     </row>
-    <row r="250" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E250" s="4"/>
     </row>
-    <row r="251" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E251" s="4"/>
     </row>
-    <row r="252" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E252" s="4"/>
     </row>
-    <row r="253" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E253" s="4"/>
     </row>
-    <row r="254" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E254" s="4"/>
     </row>
-    <row r="255" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E255" s="4"/>
     </row>
-    <row r="256" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E256" s="4"/>
     </row>
-    <row r="257" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E257" s="4"/>
     </row>
-    <row r="258" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E258" s="4"/>
     </row>
-    <row r="259" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E259" s="4"/>
     </row>
-    <row r="260" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E260" s="4"/>
     </row>
-    <row r="261" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E261" s="4"/>
     </row>
-    <row r="262" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E262" s="4"/>
     </row>
-    <row r="263" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E263" s="4"/>
     </row>
-    <row r="264" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E264" s="4"/>
     </row>
-    <row r="265" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E265" s="4"/>
     </row>
-    <row r="266" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E266" s="4"/>
     </row>
-    <row r="267" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E267" s="4"/>
     </row>
-    <row r="268" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E268" s="4"/>
     </row>
-    <row r="269" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E269" s="4"/>
     </row>
-    <row r="270" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E270" s="4"/>
     </row>
-    <row r="271" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E271" s="4"/>
     </row>
-    <row r="272" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E272" s="4"/>
     </row>
-    <row r="273" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E273" s="4"/>
     </row>
-    <row r="274" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E274" s="4"/>
     </row>
-    <row r="275" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E275" s="4"/>
     </row>
-    <row r="276" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E276" s="4"/>
     </row>
-    <row r="277" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E277" s="4"/>
     </row>
-    <row r="278" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E278" s="4"/>
     </row>
-    <row r="279" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E279" s="4"/>
     </row>
-    <row r="280" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E280" s="4"/>
     </row>
-    <row r="281" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E281" s="4"/>
     </row>
-    <row r="282" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E282" s="4"/>
     </row>
-    <row r="283" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E283" s="4"/>
     </row>
-    <row r="284" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E284" s="4"/>
     </row>
-    <row r="285" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E285" s="4"/>
     </row>
-    <row r="286" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E286" s="4"/>
     </row>
-    <row r="287" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E287" s="4"/>
     </row>
-    <row r="288" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E288" s="4"/>
     </row>
-    <row r="289" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E289" s="4"/>
     </row>
-    <row r="290" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E290" s="4"/>
     </row>
-    <row r="291" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E291" s="4"/>
     </row>
-    <row r="292" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E292" s="4"/>
     </row>
-    <row r="293" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E293" s="4"/>
     </row>
-    <row r="294" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E294" s="4"/>
     </row>
-    <row r="295" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E295" s="4"/>
     </row>
-    <row r="296" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E296" s="4"/>
     </row>
-    <row r="297" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E297" s="4"/>
     </row>
-    <row r="298" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E298" s="4"/>
     </row>
-    <row r="299" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E299" s="4"/>
     </row>
-    <row r="300" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E300" s="4"/>
     </row>
-    <row r="301" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E301" s="4"/>
     </row>
-    <row r="302" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E302" s="4"/>
     </row>
-    <row r="303" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E303" s="4"/>
     </row>
-    <row r="304" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E304" s="4"/>
     </row>
-    <row r="305" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E305" s="4"/>
     </row>
-    <row r="306" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E306" s="4"/>
     </row>
-    <row r="307" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E307" s="4"/>
     </row>
-    <row r="308" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E308" s="4"/>
     </row>
-    <row r="309" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E309" s="4"/>
     </row>
-    <row r="310" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E310" s="4"/>
     </row>
-    <row r="311" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E311" s="4"/>
     </row>
-    <row r="312" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E312" s="4"/>
     </row>
-    <row r="313" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E313" s="4"/>
     </row>
-    <row r="314" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E314" s="4"/>
     </row>
-    <row r="315" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E315" s="4"/>
     </row>
-    <row r="316" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E316" s="4"/>
     </row>
-    <row r="317" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E317" s="4"/>
     </row>
-    <row r="318" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E318" s="4"/>
     </row>
-    <row r="319" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E319" s="4"/>
     </row>
-    <row r="320" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E320" s="4"/>
     </row>
-    <row r="321" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E321" s="4"/>
     </row>
-    <row r="322" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E322" s="4"/>
     </row>
-    <row r="323" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E323" s="4"/>
     </row>
-    <row r="324" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E324" s="4"/>
     </row>
-    <row r="325" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E325" s="4"/>
     </row>
-    <row r="326" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E326" s="4"/>
     </row>
-    <row r="327" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E327" s="4"/>
     </row>
-    <row r="328" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E328" s="4"/>
     </row>
-    <row r="329" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E329" s="4"/>
     </row>
-    <row r="330" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E330" s="4"/>
     </row>
-    <row r="331" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E331" s="4"/>
     </row>
-    <row r="332" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E332" s="4"/>
     </row>
-    <row r="333" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E333" s="4"/>
     </row>
-    <row r="334" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E334" s="4"/>
     </row>
-    <row r="335" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E335" s="4"/>
     </row>
-    <row r="336" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E336" s="4"/>
     </row>
-    <row r="337" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E337" s="4"/>
     </row>
-    <row r="338" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E338" s="4"/>
     </row>
-    <row r="339" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E339" s="4"/>
     </row>
-    <row r="340" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E340" s="4"/>
     </row>
-    <row r="341" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E341" s="4"/>
     </row>
-    <row r="342" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E342" s="4"/>
     </row>
-    <row r="343" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E343" s="4"/>
     </row>
-    <row r="344" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E344" s="4"/>
     </row>
-    <row r="345" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E345" s="4"/>
     </row>
-    <row r="346" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E346" s="4"/>
     </row>
-    <row r="347" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E347" s="4"/>
     </row>
-    <row r="348" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E348" s="4"/>
     </row>
-    <row r="349" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E349" s="4"/>
     </row>
-    <row r="350" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E350" s="4"/>
     </row>
-    <row r="351" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E351" s="4"/>
     </row>
-    <row r="352" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E352" s="4"/>
     </row>
-    <row r="353" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E353" s="4"/>
     </row>
-    <row r="354" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E354" s="4"/>
     </row>
-    <row r="355" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E355" s="4"/>
     </row>
-    <row r="356" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E356" s="4"/>
     </row>
-    <row r="357" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E357" s="4"/>
     </row>
-    <row r="358" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E358" s="4"/>
     </row>
-    <row r="359" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E359" s="4"/>
     </row>
-    <row r="360" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E360" s="4"/>
     </row>
-    <row r="361" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E361" s="4"/>
     </row>
-    <row r="362" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E362" s="4"/>
     </row>
-    <row r="363" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E363" s="4"/>
     </row>
-    <row r="364" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E364" s="4"/>
     </row>
-    <row r="365" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E365" s="4"/>
     </row>
-    <row r="366" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E366" s="4"/>
     </row>
-    <row r="367" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E367" s="4"/>
     </row>
-    <row r="368" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E368" s="4"/>
     </row>
-    <row r="369" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E369" s="4"/>
     </row>
-    <row r="370" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E370" s="4"/>
     </row>
-    <row r="371" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E371" s="4"/>
     </row>
-    <row r="372" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E372" s="4"/>
     </row>
-    <row r="373" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E373" s="4"/>
     </row>
-    <row r="374" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E374" s="4"/>
     </row>
-    <row r="375" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E375" s="4"/>
     </row>
-    <row r="376" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E376" s="4"/>
     </row>
-    <row r="377" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E377" s="4"/>
     </row>
-    <row r="378" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E378" s="4"/>
     </row>
-    <row r="379" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E379" s="4"/>
     </row>
-    <row r="380" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E380" s="4"/>
     </row>
-    <row r="381" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E381" s="4"/>
     </row>
-    <row r="382" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E382" s="4"/>
     </row>
-    <row r="383" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E383" s="4"/>
     </row>
-    <row r="384" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E384" s="4"/>
     </row>
-    <row r="385" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E385" s="4"/>
     </row>
-    <row r="386" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E386" s="4"/>
     </row>
-    <row r="387" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E387" s="4"/>
     </row>
-    <row r="388" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E388" s="4"/>
     </row>
-    <row r="389" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E389" s="4"/>
     </row>
-    <row r="390" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E390" s="4"/>
     </row>
-    <row r="391" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E391" s="4"/>
     </row>
-    <row r="392" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E392" s="4"/>
     </row>
-    <row r="393" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E393" s="4"/>
     </row>
-    <row r="394" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E394" s="4"/>
     </row>
-    <row r="395" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E395" s="4"/>
     </row>
-    <row r="396" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E396" s="4"/>
     </row>
-    <row r="397" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E397" s="4"/>
     </row>
-    <row r="398" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E398" s="4"/>
     </row>
-    <row r="399" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E399" s="4"/>
     </row>
-    <row r="400" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E400" s="4"/>
     </row>
-    <row r="401" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E401" s="4"/>
     </row>
-    <row r="402" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E402" s="4"/>
     </row>
-    <row r="403" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E403" s="4"/>
     </row>
-    <row r="404" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E404" s="4"/>
     </row>
-    <row r="405" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E405" s="4"/>
     </row>
-    <row r="406" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E406" s="4"/>
     </row>
-    <row r="407" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E407" s="4"/>
     </row>
-    <row r="408" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E408" s="4"/>
     </row>
-    <row r="409" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E409" s="4"/>
     </row>
-    <row r="410" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E410" s="4"/>
     </row>
-    <row r="411" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E411" s="4"/>
     </row>
-    <row r="412" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E412" s="4"/>
     </row>
-    <row r="413" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E413" s="4"/>
     </row>
-    <row r="414" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E414" s="4"/>
     </row>
-    <row r="415" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E415" s="4"/>
     </row>
-    <row r="416" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E416" s="4"/>
     </row>
-    <row r="417" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E417" s="4"/>
     </row>
-    <row r="418" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E418" s="4"/>
     </row>
-    <row r="419" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E419" s="4"/>
     </row>
-    <row r="420" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E420" s="4"/>
     </row>
-    <row r="421" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E421" s="4"/>
     </row>
-    <row r="422" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E422" s="4"/>
     </row>
-    <row r="423" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E423" s="4"/>
     </row>
-    <row r="424" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E424" s="4"/>
     </row>
-    <row r="425" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E425" s="4"/>
     </row>
-    <row r="426" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E426" s="4"/>
     </row>
-    <row r="427" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E427" s="4"/>
     </row>
-    <row r="428" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E428" s="4"/>
     </row>
-    <row r="429" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E429" s="4"/>
     </row>
-    <row r="430" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E430" s="4"/>
     </row>
-    <row r="431" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E431" s="4"/>
     </row>
-    <row r="432" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E432" s="4"/>
     </row>
-    <row r="433" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E433" s="4"/>
     </row>
-    <row r="434" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E434" s="4"/>
     </row>
-    <row r="435" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E435" s="4"/>
     </row>
-    <row r="436" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E436" s="4"/>
     </row>
-    <row r="437" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E437" s="4"/>
     </row>
-    <row r="438" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E438" s="4"/>
     </row>
-    <row r="439" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E439" s="4"/>
     </row>
-    <row r="440" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E440" s="4"/>
     </row>
-    <row r="441" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E441" s="4"/>
     </row>
-    <row r="442" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E442" s="4"/>
     </row>
-    <row r="443" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E443" s="4"/>
     </row>
-    <row r="444" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E444" s="4"/>
     </row>
-    <row r="445" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E445" s="4"/>
     </row>
-    <row r="446" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E446" s="4"/>
     </row>
-    <row r="447" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E447" s="4"/>
     </row>
-    <row r="448" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E448" s="4"/>
     </row>
-    <row r="449" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E449" s="4"/>
     </row>
-    <row r="450" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E450" s="4"/>
     </row>
-    <row r="451" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E451" s="4"/>
     </row>
-    <row r="452" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E452" s="4"/>
     </row>
-    <row r="453" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E453" s="4"/>
     </row>
-    <row r="454" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E454" s="4"/>
     </row>
-    <row r="455" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E455" s="4"/>
     </row>
-    <row r="456" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E456" s="4"/>
     </row>
-    <row r="457" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E457" s="4"/>
     </row>
-    <row r="458" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E458" s="4"/>
     </row>
-    <row r="459" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E459" s="4"/>
     </row>
-    <row r="460" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E460" s="4"/>
     </row>
-    <row r="461" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E461" s="4"/>
     </row>
-    <row r="462" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E462" s="4"/>
     </row>
-    <row r="463" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E463" s="4"/>
     </row>
-    <row r="464" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E464" s="4"/>
     </row>
-    <row r="465" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E465" s="4"/>
     </row>
-    <row r="466" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E466" s="4"/>
     </row>
-    <row r="467" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E467" s="4"/>
     </row>
-    <row r="468" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E468" s="4"/>
     </row>
-    <row r="469" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E469" s="4"/>
     </row>
-    <row r="470" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E470" s="4"/>
     </row>
-    <row r="471" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E471" s="4"/>
     </row>
-    <row r="472" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E472" s="4"/>
     </row>
-    <row r="473" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E473" s="4"/>
     </row>
-    <row r="474" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E474" s="4"/>
     </row>
-    <row r="475" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E475" s="4"/>
     </row>
-    <row r="476" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E476" s="4"/>
     </row>
-    <row r="477" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E477" s="4"/>
     </row>
-    <row r="478" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E478" s="4"/>
     </row>
-    <row r="479" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E479" s="4"/>
     </row>
-    <row r="480" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E480" s="4"/>
     </row>
-    <row r="481" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E481" s="4"/>
     </row>
-    <row r="482" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E482" s="4"/>
     </row>
-    <row r="483" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E483" s="4"/>
     </row>
-    <row r="484" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E484" s="4"/>
     </row>
-    <row r="485" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E485" s="4"/>
     </row>
-    <row r="486" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E486" s="4"/>
     </row>
-    <row r="487" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E487" s="4"/>
     </row>
-    <row r="488" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E488" s="4"/>
     </row>
-    <row r="489" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E489" s="4"/>
     </row>
-    <row r="490" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E490" s="4"/>
     </row>
-    <row r="491" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E491" s="4"/>
     </row>
-    <row r="492" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E492" s="4"/>
     </row>
-    <row r="493" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E493" s="4"/>
     </row>
-    <row r="494" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E494" s="4"/>
     </row>
-    <row r="495" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E495" s="4"/>
     </row>
-    <row r="496" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E496" s="4"/>
     </row>
-    <row r="497" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E497" s="4"/>
     </row>
-    <row r="498" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E498" s="4"/>
     </row>
-    <row r="499" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E499" s="4"/>
     </row>
-    <row r="500" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E500" s="4"/>
     </row>
-    <row r="501" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E501" s="4"/>
     </row>
-    <row r="502" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E502" s="4"/>
     </row>
-    <row r="503" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E503" s="4"/>
     </row>
-    <row r="504" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E504" s="4"/>
     </row>
-    <row r="505" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E505" s="4"/>
     </row>
-    <row r="506" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E506" s="4"/>
     </row>
-    <row r="507" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E507" s="4"/>
     </row>
-    <row r="508" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E508" s="4"/>
     </row>
-    <row r="509" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E509" s="4"/>
     </row>
-    <row r="510" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E510" s="4"/>
     </row>
-    <row r="511" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E511" s="4"/>
     </row>
-    <row r="512" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E512" s="4"/>
     </row>
-    <row r="513" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E513" s="4"/>
     </row>
-    <row r="514" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E514" s="4"/>
     </row>
-    <row r="515" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E515" s="4"/>
     </row>
-    <row r="516" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E516" s="4"/>
     </row>
-    <row r="517" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E517" s="4"/>
     </row>
-    <row r="518" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E518" s="4"/>
     </row>
-    <row r="519" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E519" s="4"/>
     </row>
-    <row r="520" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E520" s="4"/>
     </row>
-    <row r="521" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E521" s="4"/>
     </row>
-    <row r="522" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E522" s="4"/>
     </row>
-    <row r="523" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E523" s="4"/>
     </row>
-    <row r="524" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E524" s="4"/>
     </row>
-    <row r="525" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E525" s="4"/>
     </row>
-    <row r="526" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E526" s="4"/>
     </row>
-    <row r="527" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E527" s="4"/>
     </row>
-    <row r="528" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E528" s="4"/>
     </row>
-    <row r="529" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E529" s="4"/>
     </row>
-    <row r="530" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E530" s="4"/>
     </row>
-    <row r="531" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E531" s="4"/>
     </row>
-    <row r="532" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E532" s="4"/>
     </row>
-    <row r="533" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E533" s="4"/>
     </row>
-    <row r="534" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E534" s="4"/>
     </row>
-    <row r="535" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E535" s="4"/>
     </row>
-    <row r="536" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E536" s="4"/>
     </row>
-    <row r="537" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E537" s="4"/>
     </row>
-    <row r="538" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E538" s="4"/>
     </row>
-    <row r="539" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E539" s="4"/>
     </row>
-    <row r="540" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E540" s="4"/>
     </row>
-    <row r="541" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E541" s="4"/>
     </row>
-    <row r="542" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E542" s="4"/>
     </row>
-    <row r="543" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E543" s="4"/>
     </row>
-    <row r="544" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E544" s="4"/>
     </row>
-    <row r="545" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E545" s="4"/>
     </row>
-    <row r="546" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E546" s="4"/>
     </row>
-    <row r="547" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E547" s="4"/>
     </row>
-    <row r="548" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E548" s="4"/>
     </row>
-    <row r="549" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E549" s="4"/>
     </row>
-    <row r="550" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E550" s="4"/>
     </row>
-    <row r="551" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E551" s="4"/>
     </row>
-    <row r="552" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E552" s="4"/>
     </row>
-    <row r="553" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E553" s="4"/>
     </row>
-    <row r="554" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E554" s="4"/>
     </row>
-    <row r="555" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E555" s="4"/>
     </row>
-    <row r="556" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E556" s="4"/>
     </row>
-    <row r="557" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E557" s="4"/>
     </row>
-    <row r="558" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E558" s="4"/>
     </row>
-    <row r="559" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E559" s="4"/>
     </row>
-    <row r="560" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E560" s="4"/>
     </row>
-    <row r="561" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E561" s="4"/>
     </row>
-    <row r="562" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E562" s="4"/>
     </row>
-    <row r="563" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E563" s="4"/>
     </row>
-    <row r="564" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E564" s="4"/>
     </row>
-    <row r="565" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E565" s="4"/>
     </row>
-    <row r="566" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E566" s="4"/>
     </row>
-    <row r="567" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E567" s="4"/>
     </row>
-    <row r="568" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E568" s="4"/>
     </row>
-    <row r="569" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E569" s="4"/>
     </row>
-    <row r="570" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E570" s="4"/>
     </row>
-    <row r="571" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E571" s="4"/>
     </row>
-    <row r="572" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E572" s="4"/>
     </row>
-    <row r="573" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E573" s="4"/>
     </row>
-    <row r="574" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E574" s="4"/>
     </row>
-    <row r="575" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E575" s="4"/>
     </row>
-    <row r="576" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E576" s="4"/>
     </row>
-    <row r="577" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E577" s="4"/>
     </row>
-    <row r="578" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E578" s="4"/>
     </row>
-    <row r="579" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E579" s="4"/>
     </row>
-    <row r="580" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E580" s="4"/>
     </row>
-    <row r="581" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E581" s="4"/>
     </row>
-    <row r="582" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E582" s="4"/>
     </row>
-    <row r="583" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E583" s="4"/>
     </row>
-    <row r="584" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E584" s="4"/>
     </row>
-    <row r="585" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E585" s="4"/>
     </row>
-    <row r="586" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E586" s="4"/>
     </row>
-    <row r="587" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E587" s="4"/>
     </row>
-    <row r="588" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E588" s="4"/>
     </row>
-    <row r="589" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E589" s="4"/>
     </row>
-    <row r="590" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E590" s="4"/>
     </row>
-    <row r="591" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E591" s="4"/>
     </row>
-    <row r="592" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E592" s="4"/>
     </row>
-    <row r="593" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E593" s="4"/>
     </row>
-    <row r="594" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E594" s="4"/>
     </row>
-    <row r="595" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E595" s="4"/>
     </row>
-    <row r="596" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E596" s="4"/>
     </row>
-    <row r="597" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E597" s="4"/>
     </row>
-    <row r="598" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E598" s="4"/>
     </row>
-    <row r="599" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E599" s="4"/>
     </row>
-    <row r="600" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E600" s="4"/>
     </row>
-    <row r="601" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E601" s="4"/>
     </row>
-    <row r="602" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E602" s="4"/>
     </row>
-    <row r="603" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E603" s="4"/>
     </row>
-    <row r="604" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E604" s="4"/>
     </row>
-    <row r="605" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E605" s="4"/>
     </row>
-    <row r="606" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E606" s="4"/>
     </row>
-    <row r="607" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E607" s="4"/>
     </row>
-    <row r="608" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E608" s="4"/>
     </row>
-    <row r="609" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E609" s="4"/>
     </row>
-    <row r="610" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E610" s="4"/>
     </row>
-    <row r="611" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E611" s="4"/>
     </row>
-    <row r="612" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E612" s="4"/>
     </row>
-    <row r="613" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E613" s="4"/>
     </row>
-    <row r="614" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E614" s="4"/>
     </row>
-    <row r="615" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E615" s="4"/>
     </row>
-    <row r="616" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E616" s="4"/>
     </row>
-    <row r="617" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E617" s="4"/>
     </row>
-    <row r="618" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E618" s="4"/>
     </row>
-    <row r="619" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E619" s="4"/>
     </row>
-    <row r="620" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E620" s="4"/>
     </row>
-    <row r="621" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E621" s="4"/>
     </row>
-    <row r="622" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E622" s="4"/>
     </row>
-    <row r="623" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E623" s="4"/>
     </row>
-    <row r="624" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E624" s="4"/>
     </row>
-    <row r="625" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E625" s="4"/>
     </row>
-    <row r="626" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E626" s="4"/>
     </row>
-    <row r="627" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E627" s="4"/>
     </row>
-    <row r="628" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E628" s="4"/>
     </row>
-    <row r="629" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E629" s="4"/>
     </row>
-    <row r="630" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E630" s="4"/>
     </row>
-    <row r="631" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E631" s="4"/>
     </row>
-    <row r="632" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E632" s="4"/>
     </row>
-    <row r="633" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E633" s="4"/>
     </row>
-    <row r="634" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E634" s="4"/>
     </row>
-    <row r="635" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E635" s="4"/>
     </row>
-    <row r="636" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E636" s="4"/>
     </row>
-    <row r="637" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E637" s="4"/>
     </row>
-    <row r="638" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E638" s="4"/>
     </row>
-    <row r="639" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E639" s="4"/>
     </row>
-    <row r="640" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E640" s="4"/>
     </row>
-    <row r="641" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E641" s="4"/>
     </row>
-    <row r="642" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E642" s="4"/>
     </row>
-    <row r="643" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E643" s="4"/>
     </row>
-    <row r="644" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E644" s="4"/>
     </row>
-    <row r="645" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E645" s="4"/>
     </row>
-    <row r="646" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E646" s="4"/>
     </row>
-    <row r="647" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E647" s="4"/>
     </row>
-    <row r="648" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E648" s="4"/>
     </row>
-    <row r="649" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E649" s="4"/>
     </row>
-    <row r="650" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E650" s="4"/>
     </row>
-    <row r="651" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E651" s="4"/>
     </row>
-    <row r="652" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E652" s="4"/>
     </row>
-    <row r="653" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E653" s="4"/>
     </row>
-    <row r="654" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E654" s="4"/>
     </row>
-    <row r="655" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E655" s="4"/>
     </row>
-    <row r="656" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E656" s="4"/>
     </row>
-    <row r="657" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E657" s="4"/>
     </row>
-    <row r="658" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E658" s="4"/>
     </row>
-    <row r="659" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E659" s="4"/>
     </row>
-    <row r="660" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E660" s="4"/>
     </row>
-    <row r="661" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E661" s="4"/>
     </row>
-    <row r="662" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E662" s="4"/>
     </row>
-    <row r="663" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E663" s="4"/>
     </row>
-    <row r="664" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E664" s="4"/>
     </row>
-    <row r="665" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E665" s="4"/>
     </row>
-    <row r="666" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E666" s="4"/>
     </row>
-    <row r="667" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E667" s="4"/>
     </row>
-    <row r="668" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E668" s="4"/>
     </row>
-    <row r="669" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E669" s="4"/>
     </row>
-    <row r="670" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E670" s="4"/>
     </row>
-    <row r="671" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E671" s="4"/>
     </row>
-    <row r="672" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E672" s="4"/>
     </row>
-    <row r="673" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E673" s="4"/>
     </row>
-    <row r="674" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E674" s="4"/>
     </row>
-    <row r="675" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E675" s="4"/>
     </row>
-    <row r="676" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E676" s="4"/>
     </row>
-    <row r="677" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E677" s="4"/>
     </row>
-    <row r="678" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E678" s="4"/>
     </row>
-    <row r="679" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E679" s="4"/>
     </row>
-    <row r="680" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E680" s="4"/>
     </row>
-    <row r="681" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E681" s="4"/>
     </row>
-    <row r="682" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E682" s="4"/>
     </row>
-    <row r="683" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E683" s="4"/>
     </row>
-    <row r="684" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E684" s="4"/>
     </row>
-    <row r="685" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E685" s="4"/>
     </row>
-    <row r="686" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E686" s="4"/>
     </row>
-    <row r="687" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E687" s="4"/>
     </row>
-    <row r="688" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E688" s="4"/>
     </row>
-    <row r="689" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E689" s="4"/>
     </row>
-    <row r="690" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E690" s="4"/>
     </row>
-    <row r="691" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E691" s="4"/>
     </row>
-    <row r="692" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E692" s="4"/>
     </row>
-    <row r="693" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E693" s="4"/>
     </row>
-    <row r="694" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E694" s="4"/>
     </row>
-    <row r="695" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E695" s="4"/>
     </row>
-    <row r="696" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E696" s="4"/>
     </row>
-    <row r="697" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E697" s="4"/>
     </row>
-    <row r="698" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E698" s="4"/>
     </row>
-    <row r="699" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E699" s="4"/>
     </row>
-    <row r="700" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E700" s="4"/>
     </row>
-    <row r="701" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E701" s="4"/>
     </row>
-    <row r="702" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E702" s="4"/>
     </row>
-    <row r="703" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E703" s="4"/>
     </row>
-    <row r="704" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E704" s="4"/>
     </row>
-    <row r="705" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E705" s="4"/>
     </row>
-    <row r="706" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E706" s="4"/>
     </row>
-    <row r="707" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E707" s="4"/>
     </row>
-    <row r="708" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E708" s="4"/>
     </row>
-    <row r="709" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E709" s="4"/>
     </row>
-    <row r="710" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E710" s="4"/>
     </row>
-    <row r="711" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E711" s="4"/>
     </row>
-    <row r="712" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E712" s="4"/>
     </row>
-    <row r="713" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E713" s="4"/>
     </row>
-    <row r="714" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E714" s="4"/>
     </row>
-    <row r="715" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E715" s="4"/>
     </row>
-    <row r="716" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E716" s="4"/>
     </row>
-    <row r="717" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E717" s="4"/>
     </row>
-    <row r="718" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E718" s="4"/>
     </row>
-    <row r="719" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E719" s="4"/>
     </row>
-    <row r="720" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E720" s="4"/>
     </row>
-    <row r="721" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E721" s="4"/>
     </row>
-    <row r="722" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E722" s="4"/>
     </row>
-    <row r="723" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E723" s="4"/>
     </row>
-    <row r="724" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E724" s="4"/>
     </row>
-    <row r="725" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E725" s="4"/>
     </row>
-    <row r="726" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E726" s="4"/>
     </row>
-    <row r="727" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E727" s="4"/>
     </row>
-    <row r="728" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E728" s="4"/>
     </row>
-    <row r="729" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E729" s="4"/>
     </row>
-    <row r="730" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E730" s="4"/>
     </row>
-    <row r="731" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E731" s="4"/>
     </row>
-    <row r="732" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E732" s="4"/>
     </row>
-    <row r="733" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E733" s="4"/>
     </row>
-    <row r="734" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E734" s="4"/>
     </row>
-    <row r="735" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E735" s="4"/>
     </row>
-    <row r="736" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E736" s="4"/>
     </row>
-    <row r="737" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E737" s="4"/>
     </row>
-    <row r="738" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E738" s="4"/>
     </row>
-    <row r="739" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E739" s="4"/>
     </row>
-    <row r="740" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E740" s="4"/>
     </row>
-    <row r="741" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E741" s="4"/>
     </row>
-    <row r="742" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E742" s="4"/>
     </row>
-    <row r="743" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E743" s="4"/>
     </row>
-    <row r="744" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E744" s="4"/>
     </row>
-    <row r="745" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E745" s="4"/>
     </row>
-    <row r="746" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E746" s="4"/>
     </row>
-    <row r="747" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E747" s="4"/>
     </row>
-    <row r="748" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E748" s="4"/>
     </row>
-    <row r="749" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E749" s="4"/>
     </row>
-    <row r="750" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E750" s="4"/>
     </row>
-    <row r="751" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E751" s="4"/>
     </row>
-    <row r="752" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E752" s="4"/>
     </row>
-    <row r="753" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E753" s="4"/>
     </row>
-    <row r="754" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E754" s="4"/>
     </row>
-    <row r="755" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E755" s="4"/>
     </row>
-    <row r="756" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E756" s="4"/>
     </row>
-    <row r="757" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E757" s="4"/>
     </row>
-    <row r="758" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E758" s="4"/>
     </row>
-    <row r="759" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E759" s="4"/>
     </row>
-    <row r="760" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E760" s="4"/>
     </row>
-    <row r="761" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E761" s="4"/>
     </row>
-    <row r="762" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E762" s="4"/>
     </row>
-    <row r="763" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E763" s="4"/>
     </row>
-    <row r="764" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E764" s="4"/>
     </row>
-    <row r="765" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E765" s="4"/>
     </row>
-    <row r="766" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E766" s="4"/>
     </row>
-    <row r="767" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E767" s="4"/>
     </row>
-    <row r="768" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E768" s="4"/>
     </row>
-    <row r="769" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E769" s="4"/>
     </row>
-    <row r="770" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E770" s="4"/>
     </row>
-    <row r="771" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E771" s="4"/>
     </row>
-    <row r="772" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E772" s="4"/>
     </row>
-    <row r="773" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E773" s="4"/>
     </row>
-    <row r="774" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E774" s="4"/>
     </row>
-    <row r="775" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E775" s="4"/>
     </row>
-    <row r="776" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E776" s="4"/>
     </row>
-    <row r="777" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E777" s="4"/>
     </row>
-    <row r="778" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E778" s="4"/>
     </row>
-    <row r="779" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E779" s="4"/>
     </row>
-    <row r="780" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E780" s="4"/>
     </row>
-    <row r="781" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E781" s="4"/>
     </row>
-    <row r="782" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E782" s="4"/>
     </row>
-    <row r="783" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E783" s="4"/>
     </row>
-    <row r="784" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E784" s="4"/>
     </row>
-    <row r="785" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E785" s="4"/>
     </row>
-    <row r="786" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E786" s="4"/>
     </row>
-    <row r="787" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E787" s="4"/>
     </row>
-    <row r="788" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E788" s="4"/>
     </row>
-    <row r="789" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E789" s="4"/>
     </row>
-    <row r="790" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E790" s="4"/>
     </row>
-    <row r="791" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E791" s="4"/>
     </row>
-    <row r="792" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E792" s="4"/>
     </row>
-    <row r="793" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E793" s="4"/>
     </row>
-    <row r="794" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E794" s="4"/>
     </row>
-    <row r="795" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E795" s="4"/>
     </row>
-    <row r="796" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E796" s="4"/>
     </row>
-    <row r="797" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E797" s="4"/>
     </row>
-    <row r="798" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E798" s="4"/>
     </row>
-    <row r="799" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E799" s="4"/>
     </row>
-    <row r="800" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E800" s="4"/>
     </row>
-    <row r="801" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E801" s="4"/>
     </row>
-    <row r="802" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E802" s="4"/>
     </row>
-    <row r="803" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E803" s="4"/>
     </row>
-    <row r="804" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E804" s="4"/>
     </row>
-    <row r="805" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E805" s="4"/>
     </row>
-    <row r="806" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E806" s="4"/>
     </row>
-    <row r="807" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E807" s="4"/>
     </row>
-    <row r="808" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E808" s="4"/>
     </row>
-    <row r="809" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E809" s="4"/>
     </row>
-    <row r="810" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E810" s="4"/>
     </row>
-    <row r="811" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E811" s="4"/>
     </row>
-    <row r="812" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E812" s="4"/>
     </row>
-    <row r="813" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E813" s="4"/>
     </row>
-    <row r="814" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E814" s="4"/>
     </row>
-    <row r="815" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E815" s="4"/>
     </row>
-    <row r="816" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E816" s="4"/>
     </row>
-    <row r="817" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E817" s="4"/>
     </row>
-    <row r="818" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E818" s="4"/>
     </row>
-    <row r="819" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E819" s="4"/>
     </row>
-    <row r="820" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E820" s="4"/>
     </row>
-    <row r="821" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E821" s="4"/>
     </row>
-    <row r="822" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E822" s="4"/>
     </row>
-    <row r="823" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E823" s="4"/>
     </row>
-    <row r="824" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E824" s="4"/>
     </row>
-    <row r="825" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E825" s="4"/>
     </row>
-    <row r="826" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E826" s="4"/>
     </row>
-    <row r="827" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E827" s="4"/>
     </row>
-    <row r="828" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E828" s="4"/>
     </row>
-    <row r="829" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E829" s="4"/>
     </row>
-    <row r="830" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E830" s="4"/>
     </row>
-    <row r="831" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E831" s="4"/>
     </row>
-    <row r="832" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E832" s="4"/>
     </row>
-    <row r="833" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E833" s="4"/>
     </row>
-    <row r="834" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E834" s="4"/>
     </row>
-    <row r="835" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E835" s="4"/>
     </row>
-    <row r="836" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E836" s="4"/>
     </row>
-    <row r="837" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E837" s="4"/>
     </row>
-    <row r="838" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E838" s="4"/>
     </row>
-    <row r="839" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E839" s="4"/>
     </row>
-    <row r="840" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E840" s="4"/>
     </row>
-    <row r="841" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E841" s="4"/>
     </row>
-    <row r="842" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E842" s="4"/>
     </row>
-    <row r="843" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E843" s="4"/>
     </row>
-    <row r="844" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E844" s="4"/>
     </row>
-    <row r="845" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E845" s="4"/>
     </row>
-    <row r="846" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E846" s="4"/>
     </row>
-    <row r="847" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E847" s="4"/>
     </row>
-    <row r="848" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E848" s="4"/>
     </row>
-    <row r="849" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E849" s="4"/>
     </row>
-    <row r="850" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E850" s="4"/>
     </row>
-    <row r="851" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E851" s="4"/>
     </row>
-    <row r="852" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E852" s="4"/>
     </row>
-    <row r="853" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E853" s="4"/>
     </row>
-    <row r="854" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E854" s="4"/>
     </row>
-    <row r="855" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E855" s="4"/>
     </row>
-    <row r="856" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E856" s="4"/>
     </row>
-    <row r="857" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E857" s="4"/>
     </row>
-    <row r="858" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E858" s="4"/>
     </row>
-    <row r="859" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E859" s="4"/>
     </row>
-    <row r="860" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E860" s="4"/>
     </row>
-    <row r="861" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E861" s="4"/>
     </row>
-    <row r="862" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E862" s="4"/>
     </row>
-    <row r="863" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E863" s="4"/>
     </row>
-    <row r="864" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E864" s="4"/>
     </row>
-    <row r="865" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E865" s="4"/>
     </row>
-    <row r="866" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E866" s="4"/>
     </row>
-    <row r="867" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E867" s="4"/>
     </row>
-    <row r="868" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E868" s="4"/>
     </row>
-    <row r="869" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E869" s="4"/>
     </row>
-    <row r="870" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E870" s="4"/>
     </row>
-    <row r="871" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E871" s="4"/>
     </row>
-    <row r="872" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E872" s="4"/>
     </row>
-    <row r="873" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E873" s="4"/>
     </row>
-    <row r="874" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E874" s="4"/>
     </row>
-    <row r="875" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E875" s="4"/>
     </row>
-    <row r="876" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E876" s="4"/>
     </row>
-    <row r="877" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E877" s="4"/>
     </row>
-    <row r="878" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E878" s="4"/>
     </row>
-    <row r="879" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E879" s="4"/>
     </row>
-    <row r="880" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E880" s="4"/>
     </row>
-    <row r="881" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E881" s="4"/>
     </row>
-    <row r="882" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E882" s="4"/>
     </row>
-    <row r="883" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E883" s="4"/>
     </row>
-    <row r="884" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E884" s="4"/>
     </row>
-    <row r="885" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E885" s="4"/>
     </row>
-    <row r="886" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E886" s="4"/>
     </row>
-    <row r="887" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E887" s="4"/>
     </row>
-    <row r="888" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E888" s="4"/>
     </row>
-    <row r="889" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E889" s="4"/>
     </row>
-    <row r="890" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E890" s="4"/>
     </row>
-    <row r="891" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E891" s="4"/>
     </row>
-    <row r="892" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E892" s="4"/>
     </row>
-    <row r="893" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E893" s="4"/>
     </row>
-    <row r="894" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E894" s="4"/>
     </row>
-    <row r="895" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E895" s="4"/>
     </row>
-    <row r="896" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E896" s="4"/>
     </row>
-    <row r="897" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E897" s="4"/>
     </row>
-    <row r="898" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E898" s="4"/>
     </row>
-    <row r="899" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E899" s="4"/>
     </row>
-    <row r="900" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E900" s="4"/>
     </row>
-    <row r="901" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E901" s="4"/>
     </row>
-    <row r="902" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E902" s="4"/>
     </row>
-    <row r="903" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E903" s="4"/>
     </row>
-    <row r="904" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E904" s="4"/>
     </row>
-    <row r="905" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E905" s="4"/>
     </row>
-    <row r="906" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E906" s="4"/>
     </row>
-    <row r="907" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E907" s="4"/>
     </row>
-    <row r="908" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E908" s="4"/>
     </row>
-    <row r="909" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E909" s="4"/>
     </row>
-    <row r="910" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E910" s="4"/>
     </row>
-    <row r="911" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E911" s="4"/>
     </row>
-    <row r="912" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E912" s="4"/>
     </row>
-    <row r="913" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E913" s="4"/>
     </row>
-    <row r="914" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E914" s="4"/>
     </row>
-    <row r="915" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E915" s="4"/>
     </row>
-    <row r="916" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E916" s="4"/>
     </row>
-    <row r="917" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E917" s="4"/>
     </row>
-    <row r="918" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E918" s="4"/>
     </row>
-    <row r="919" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E919" s="4"/>
     </row>
-    <row r="920" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E920" s="4"/>
     </row>
-    <row r="921" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E921" s="4"/>
     </row>
-    <row r="922" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E922" s="4"/>
     </row>
-    <row r="923" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E923" s="4"/>
     </row>
-    <row r="924" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E924" s="4"/>
     </row>
-    <row r="925" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E925" s="4"/>
     </row>
-    <row r="926" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E926" s="4"/>
     </row>
-    <row r="927" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E927" s="4"/>
     </row>
-    <row r="928" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E928" s="4"/>
     </row>
-    <row r="929" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E929" s="4"/>
     </row>
-    <row r="930" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E930" s="4"/>
     </row>
-    <row r="931" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E931" s="4"/>
     </row>
-    <row r="932" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E932" s="4"/>
     </row>
-    <row r="933" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E933" s="4"/>
     </row>
-    <row r="934" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E934" s="4"/>
     </row>
-    <row r="935" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E935" s="4"/>
     </row>
-    <row r="936" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E936" s="4"/>
     </row>
-    <row r="937" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E937" s="4"/>
     </row>
-    <row r="938" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E938" s="4"/>
     </row>
-    <row r="939" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E939" s="4"/>
     </row>
-    <row r="940" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E940" s="4"/>
     </row>
-    <row r="941" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E941" s="4"/>
     </row>
-    <row r="942" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E942" s="4"/>
     </row>
-    <row r="943" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E943" s="4"/>
     </row>
-    <row r="944" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E944" s="4"/>
     </row>
-    <row r="945" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E945" s="4"/>
     </row>
-    <row r="946" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E946" s="4"/>
     </row>
-    <row r="947" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E947" s="4"/>
     </row>
-    <row r="948" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E948" s="4"/>
     </row>
-    <row r="949" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E949" s="4"/>
     </row>
-    <row r="950" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E950" s="4"/>
     </row>
-    <row r="951" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E951" s="4"/>
     </row>
-    <row r="952" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E952" s="4"/>
     </row>
-    <row r="953" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E953" s="4"/>
     </row>
-    <row r="954" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E954" s="4"/>
     </row>
-    <row r="955" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E955" s="4"/>
     </row>
-    <row r="956" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E956" s="4"/>
     </row>
-    <row r="957" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E957" s="4"/>
     </row>
-    <row r="958" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E958" s="4"/>
     </row>
-    <row r="959" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E959" s="4"/>
     </row>
-    <row r="960" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E960" s="4"/>
     </row>
-    <row r="961" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E961" s="4"/>
     </row>
-    <row r="962" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E962" s="4"/>
     </row>
-    <row r="963" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E963" s="4"/>
     </row>
-    <row r="964" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E964" s="4"/>
     </row>
-    <row r="965" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E965" s="4"/>
     </row>
-    <row r="966" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E966" s="4"/>
     </row>
-    <row r="967" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E967" s="4"/>
     </row>
-    <row r="968" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E968" s="4"/>
     </row>
-    <row r="969" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E969" s="4"/>
     </row>
-    <row r="970" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E970" s="4"/>
     </row>
-    <row r="971" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E971" s="4"/>
     </row>
-    <row r="972" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E972" s="4"/>
     </row>
-    <row r="973" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E973" s="4"/>
     </row>
-    <row r="974" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E974" s="4"/>
     </row>
-    <row r="975" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E975" s="4"/>
     </row>
-    <row r="976" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E976" s="4"/>
     </row>
-    <row r="977" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E977" s="4"/>
     </row>
-    <row r="978" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E978" s="4"/>
     </row>
-    <row r="979" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E979" s="4"/>
     </row>
-    <row r="980" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E980" s="4"/>
     </row>
-    <row r="981" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E981" s="4"/>
     </row>
-    <row r="982" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E982" s="4"/>
     </row>
-    <row r="983" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E983" s="4"/>
     </row>
-    <row r="984" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E984" s="4"/>
     </row>
-    <row r="985" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E985" s="4"/>
     </row>
-    <row r="986" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E986" s="4"/>
     </row>
-    <row r="987" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E987" s="4"/>
     </row>
-    <row r="988" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E988" s="4"/>
     </row>
-    <row r="989" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E989" s="4"/>
     </row>
-    <row r="990" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E990" s="4"/>
     </row>
-    <row r="991" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E991" s="4"/>
     </row>
-    <row r="992" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E992" s="4"/>
     </row>
-    <row r="993" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E993" s="4"/>
     </row>
-    <row r="994" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E994" s="4"/>
     </row>
-    <row r="995" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E995" s="4"/>
     </row>
-    <row r="996" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E996" s="4"/>
     </row>
-    <row r="997" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E997" s="4"/>
     </row>
-    <row r="998" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E998" s="4"/>
     </row>
-    <row r="999" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E999" s="4"/>
     </row>
-    <row r="1000" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E1000" s="4"/>
     </row>
   </sheetData>
@@ -7000,12 +7003,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7022,7 +7025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -7036,7 +7039,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -7050,7 +7053,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>

--- a/assets/Database.xlsx
+++ b/assets/Database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renee\StudioProjects\MyApplication\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65906\AndroidStudioProjects\calory_app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596A81E7-8C27-47F5-9DA3-B38D725EC0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0C67E8-4F8F-40EB-BDC6-8AC0F45F36CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="upperBodyData" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
   <si>
     <t>exerciseId</t>
   </si>
@@ -241,22 +241,31 @@
     <t>Start off standing straight, do a squat and place ur palms on the floor. Proceed to kick out both your legs to transition into a pushup position. Jump back into a squat before standing back up.</t>
   </si>
   <si>
-    <t>Start of standing straight. Take a step forward and lower the body until both the knees are 90degrees. Push youself back up to the original position.</t>
-  </si>
-  <si>
     <t>Start in a straight arm plank position, with palm directly below the shoulders. Lower yourself until the elbows are 90 degrees. Push youself back up, ensuring the back is straight during the entire motion.</t>
   </si>
   <si>
     <t>Lie down on your back, bringing the feet close to the body. With your palms on your ears, bring up your upper body so that your elbows touch your knees.  Lower youself back down, with your back touching the floor.</t>
   </si>
   <si>
-    <t>Lie down on your back and bring both feet up. For each rep, bring the legs up until they are perpendicular to the floor. Keep your arms as straight as possible before lowering.</t>
-  </si>
-  <si>
     <t>Lie down on your back, bring your feet up until your lower half of the legs are parallel to the floor. With your palms on your ears, bring up your upper body so that your elbows touch your knees. Lower youself back down, with your back touching the floor.</t>
   </si>
   <si>
     <t>Place yourself in plank position, hands in ground beneath your shoulders. Straight body from head to toes. Tighten abs and glutes to hold up your body. Reach elbow up toward the sky and slowly twist upper body back, look the same direction. Hold 1-3 seconds, return slowly and repeat other side to count one repetition.</t>
+  </si>
+  <si>
+    <t>Lie down on your back and bring both feet up. For each rep, bring the legs up until they are perpendicular to the floor. Keep your legs as straight as possible before lowering.</t>
+  </si>
+  <si>
+    <t>Start off standing straight. Take a step forward and lower the body until both the knees are 90degrees. Push youself back up to the original position.</t>
+  </si>
+  <si>
+    <t>Start off standing straight with your arms flat against your body. With each jump stretch out your arms and leg to form a star shape with ur body. Afterwhich, stand back straight with your arms against your body.</t>
+  </si>
+  <si>
+    <t>Start off standing straight. For each rep, jump to the left land on your left foot while swinging the arms and right legs to the left. Then repeat for the right side, landing on right leg while swinging the arms and left legs to the right.</t>
+  </si>
+  <si>
+    <t>Start off standing straight, while balancing on one feet, slowly squat down and touch the toe with the opposite arm. Example, touch your right toe with your left arm. After which, slowly stand back up straight.</t>
   </si>
 </sst>
 </file>
@@ -543,17 +552,17 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="176.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -584,10 +593,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -604,7 +613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -621,7 +630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -638,7 +647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -651,11 +660,11 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -672,7 +681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -689,2980 +698,2980 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E112" s="4"/>
     </row>
-    <row r="113" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E113" s="4"/>
     </row>
-    <row r="114" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E114" s="4"/>
     </row>
-    <row r="115" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E115" s="4"/>
     </row>
-    <row r="116" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E118" s="4"/>
     </row>
-    <row r="119" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E119" s="4"/>
     </row>
-    <row r="120" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E120" s="4"/>
     </row>
-    <row r="121" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E125" s="4"/>
     </row>
-    <row r="126" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E127" s="4"/>
     </row>
-    <row r="128" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E128" s="4"/>
     </row>
-    <row r="129" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E129" s="4"/>
     </row>
-    <row r="130" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E130" s="4"/>
     </row>
-    <row r="131" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E131" s="4"/>
     </row>
-    <row r="132" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E132" s="4"/>
     </row>
-    <row r="133" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E133" s="4"/>
     </row>
-    <row r="134" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E134" s="4"/>
     </row>
-    <row r="135" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E135" s="4"/>
     </row>
-    <row r="136" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E136" s="4"/>
     </row>
-    <row r="137" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E137" s="4"/>
     </row>
-    <row r="138" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E139" s="4"/>
     </row>
-    <row r="140" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E140" s="4"/>
     </row>
-    <row r="141" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E148" s="4"/>
     </row>
-    <row r="149" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E149" s="4"/>
     </row>
-    <row r="150" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E151" s="4"/>
     </row>
-    <row r="152" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E154" s="4"/>
     </row>
-    <row r="155" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E157" s="4"/>
     </row>
-    <row r="158" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E160" s="4"/>
     </row>
-    <row r="161" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E163" s="4"/>
     </row>
-    <row r="164" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E164" s="4"/>
     </row>
-    <row r="165" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E168" s="4"/>
     </row>
-    <row r="169" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E169" s="4"/>
     </row>
-    <row r="170" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E171" s="4"/>
     </row>
-    <row r="172" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E172" s="4"/>
     </row>
-    <row r="173" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E177" s="4"/>
     </row>
-    <row r="178" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E178" s="4"/>
     </row>
-    <row r="179" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E179" s="4"/>
     </row>
-    <row r="180" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E180" s="4"/>
     </row>
-    <row r="181" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E181" s="4"/>
     </row>
-    <row r="182" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E182" s="4"/>
     </row>
-    <row r="183" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E183" s="4"/>
     </row>
-    <row r="184" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E185" s="4"/>
     </row>
-    <row r="186" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E186" s="4"/>
     </row>
-    <row r="187" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E188" s="4"/>
     </row>
-    <row r="189" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E189" s="4"/>
     </row>
-    <row r="190" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E192" s="4"/>
     </row>
-    <row r="193" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E193" s="4"/>
     </row>
-    <row r="194" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E194" s="4"/>
     </row>
-    <row r="195" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E195" s="4"/>
     </row>
-    <row r="196" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E198" s="4"/>
     </row>
-    <row r="199" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E199" s="4"/>
     </row>
-    <row r="200" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E200" s="4"/>
     </row>
-    <row r="201" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E201" s="4"/>
     </row>
-    <row r="202" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E202" s="4"/>
     </row>
-    <row r="203" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E203" s="4"/>
     </row>
-    <row r="204" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E204" s="4"/>
     </row>
-    <row r="205" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E205" s="4"/>
     </row>
-    <row r="206" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E206" s="4"/>
     </row>
-    <row r="207" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E207" s="4"/>
     </row>
-    <row r="208" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E208" s="4"/>
     </row>
-    <row r="209" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E209" s="4"/>
     </row>
-    <row r="210" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E210" s="4"/>
     </row>
-    <row r="211" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E211" s="4"/>
     </row>
-    <row r="212" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E212" s="4"/>
     </row>
-    <row r="213" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E213" s="4"/>
     </row>
-    <row r="214" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E214" s="4"/>
     </row>
-    <row r="215" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E215" s="4"/>
     </row>
-    <row r="216" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E216" s="4"/>
     </row>
-    <row r="217" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E217" s="4"/>
     </row>
-    <row r="218" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E218" s="4"/>
     </row>
-    <row r="219" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E219" s="4"/>
     </row>
-    <row r="220" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E220" s="4"/>
     </row>
-    <row r="221" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E221" s="4"/>
     </row>
-    <row r="222" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E222" s="4"/>
     </row>
-    <row r="223" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E223" s="4"/>
     </row>
-    <row r="224" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E224" s="4"/>
     </row>
-    <row r="225" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E225" s="4"/>
     </row>
-    <row r="226" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E226" s="4"/>
     </row>
-    <row r="227" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E227" s="4"/>
     </row>
-    <row r="228" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E228" s="4"/>
     </row>
-    <row r="229" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E229" s="4"/>
     </row>
-    <row r="230" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E230" s="4"/>
     </row>
-    <row r="231" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E231" s="4"/>
     </row>
-    <row r="232" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E232" s="4"/>
     </row>
-    <row r="233" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E233" s="4"/>
     </row>
-    <row r="234" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E234" s="4"/>
     </row>
-    <row r="235" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E235" s="4"/>
     </row>
-    <row r="236" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E236" s="4"/>
     </row>
-    <row r="237" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E237" s="4"/>
     </row>
-    <row r="238" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E238" s="4"/>
     </row>
-    <row r="239" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E239" s="4"/>
     </row>
-    <row r="240" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E240" s="4"/>
     </row>
-    <row r="241" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E241" s="4"/>
     </row>
-    <row r="242" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E242" s="4"/>
     </row>
-    <row r="243" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E243" s="4"/>
     </row>
-    <row r="244" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E244" s="4"/>
     </row>
-    <row r="245" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E245" s="4"/>
     </row>
-    <row r="246" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E246" s="4"/>
     </row>
-    <row r="247" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E247" s="4"/>
     </row>
-    <row r="248" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E248" s="4"/>
     </row>
-    <row r="249" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E249" s="4"/>
     </row>
-    <row r="250" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E250" s="4"/>
     </row>
-    <row r="251" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E251" s="4"/>
     </row>
-    <row r="252" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E252" s="4"/>
     </row>
-    <row r="253" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E253" s="4"/>
     </row>
-    <row r="254" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E254" s="4"/>
     </row>
-    <row r="255" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E255" s="4"/>
     </row>
-    <row r="256" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E256" s="4"/>
     </row>
-    <row r="257" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E257" s="4"/>
     </row>
-    <row r="258" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E258" s="4"/>
     </row>
-    <row r="259" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E259" s="4"/>
     </row>
-    <row r="260" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E260" s="4"/>
     </row>
-    <row r="261" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E261" s="4"/>
     </row>
-    <row r="262" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E262" s="4"/>
     </row>
-    <row r="263" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E263" s="4"/>
     </row>
-    <row r="264" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E264" s="4"/>
     </row>
-    <row r="265" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E265" s="4"/>
     </row>
-    <row r="266" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E266" s="4"/>
     </row>
-    <row r="267" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E267" s="4"/>
     </row>
-    <row r="268" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E268" s="4"/>
     </row>
-    <row r="269" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E269" s="4"/>
     </row>
-    <row r="270" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E270" s="4"/>
     </row>
-    <row r="271" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E271" s="4"/>
     </row>
-    <row r="272" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E272" s="4"/>
     </row>
-    <row r="273" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E273" s="4"/>
     </row>
-    <row r="274" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E274" s="4"/>
     </row>
-    <row r="275" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E275" s="4"/>
     </row>
-    <row r="276" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E276" s="4"/>
     </row>
-    <row r="277" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E277" s="4"/>
     </row>
-    <row r="278" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E278" s="4"/>
     </row>
-    <row r="279" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E279" s="4"/>
     </row>
-    <row r="280" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E280" s="4"/>
     </row>
-    <row r="281" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E281" s="4"/>
     </row>
-    <row r="282" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E282" s="4"/>
     </row>
-    <row r="283" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E283" s="4"/>
     </row>
-    <row r="284" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E284" s="4"/>
     </row>
-    <row r="285" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E285" s="4"/>
     </row>
-    <row r="286" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E286" s="4"/>
     </row>
-    <row r="287" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E287" s="4"/>
     </row>
-    <row r="288" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E288" s="4"/>
     </row>
-    <row r="289" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E289" s="4"/>
     </row>
-    <row r="290" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E290" s="4"/>
     </row>
-    <row r="291" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E291" s="4"/>
     </row>
-    <row r="292" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E292" s="4"/>
     </row>
-    <row r="293" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E293" s="4"/>
     </row>
-    <row r="294" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E294" s="4"/>
     </row>
-    <row r="295" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E295" s="4"/>
     </row>
-    <row r="296" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E296" s="4"/>
     </row>
-    <row r="297" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E297" s="4"/>
     </row>
-    <row r="298" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E298" s="4"/>
     </row>
-    <row r="299" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E299" s="4"/>
     </row>
-    <row r="300" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E300" s="4"/>
     </row>
-    <row r="301" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E301" s="4"/>
     </row>
-    <row r="302" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E302" s="4"/>
     </row>
-    <row r="303" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E303" s="4"/>
     </row>
-    <row r="304" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E304" s="4"/>
     </row>
-    <row r="305" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E305" s="4"/>
     </row>
-    <row r="306" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E306" s="4"/>
     </row>
-    <row r="307" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E307" s="4"/>
     </row>
-    <row r="308" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E308" s="4"/>
     </row>
-    <row r="309" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E309" s="4"/>
     </row>
-    <row r="310" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E310" s="4"/>
     </row>
-    <row r="311" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E311" s="4"/>
     </row>
-    <row r="312" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E312" s="4"/>
     </row>
-    <row r="313" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E313" s="4"/>
     </row>
-    <row r="314" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E314" s="4"/>
     </row>
-    <row r="315" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E315" s="4"/>
     </row>
-    <row r="316" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E316" s="4"/>
     </row>
-    <row r="317" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E317" s="4"/>
     </row>
-    <row r="318" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E318" s="4"/>
     </row>
-    <row r="319" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E319" s="4"/>
     </row>
-    <row r="320" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E320" s="4"/>
     </row>
-    <row r="321" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E321" s="4"/>
     </row>
-    <row r="322" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E322" s="4"/>
     </row>
-    <row r="323" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E323" s="4"/>
     </row>
-    <row r="324" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E324" s="4"/>
     </row>
-    <row r="325" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E325" s="4"/>
     </row>
-    <row r="326" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E326" s="4"/>
     </row>
-    <row r="327" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E327" s="4"/>
     </row>
-    <row r="328" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E328" s="4"/>
     </row>
-    <row r="329" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E329" s="4"/>
     </row>
-    <row r="330" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E330" s="4"/>
     </row>
-    <row r="331" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E331" s="4"/>
     </row>
-    <row r="332" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E332" s="4"/>
     </row>
-    <row r="333" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E333" s="4"/>
     </row>
-    <row r="334" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E334" s="4"/>
     </row>
-    <row r="335" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E335" s="4"/>
     </row>
-    <row r="336" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E336" s="4"/>
     </row>
-    <row r="337" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E337" s="4"/>
     </row>
-    <row r="338" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E338" s="4"/>
     </row>
-    <row r="339" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E339" s="4"/>
     </row>
-    <row r="340" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E340" s="4"/>
     </row>
-    <row r="341" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E341" s="4"/>
     </row>
-    <row r="342" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E342" s="4"/>
     </row>
-    <row r="343" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E343" s="4"/>
     </row>
-    <row r="344" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E344" s="4"/>
     </row>
-    <row r="345" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E345" s="4"/>
     </row>
-    <row r="346" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E346" s="4"/>
     </row>
-    <row r="347" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E347" s="4"/>
     </row>
-    <row r="348" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E348" s="4"/>
     </row>
-    <row r="349" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E349" s="4"/>
     </row>
-    <row r="350" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E350" s="4"/>
     </row>
-    <row r="351" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E351" s="4"/>
     </row>
-    <row r="352" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E352" s="4"/>
     </row>
-    <row r="353" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E353" s="4"/>
     </row>
-    <row r="354" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E354" s="4"/>
     </row>
-    <row r="355" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E355" s="4"/>
     </row>
-    <row r="356" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E356" s="4"/>
     </row>
-    <row r="357" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E357" s="4"/>
     </row>
-    <row r="358" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E358" s="4"/>
     </row>
-    <row r="359" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E359" s="4"/>
     </row>
-    <row r="360" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E360" s="4"/>
     </row>
-    <row r="361" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E361" s="4"/>
     </row>
-    <row r="362" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E362" s="4"/>
     </row>
-    <row r="363" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E363" s="4"/>
     </row>
-    <row r="364" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E364" s="4"/>
     </row>
-    <row r="365" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E365" s="4"/>
     </row>
-    <row r="366" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E366" s="4"/>
     </row>
-    <row r="367" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E367" s="4"/>
     </row>
-    <row r="368" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E368" s="4"/>
     </row>
-    <row r="369" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E369" s="4"/>
     </row>
-    <row r="370" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E370" s="4"/>
     </row>
-    <row r="371" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E371" s="4"/>
     </row>
-    <row r="372" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E372" s="4"/>
     </row>
-    <row r="373" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E373" s="4"/>
     </row>
-    <row r="374" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E374" s="4"/>
     </row>
-    <row r="375" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E375" s="4"/>
     </row>
-    <row r="376" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E376" s="4"/>
     </row>
-    <row r="377" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E377" s="4"/>
     </row>
-    <row r="378" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E378" s="4"/>
     </row>
-    <row r="379" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E379" s="4"/>
     </row>
-    <row r="380" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E380" s="4"/>
     </row>
-    <row r="381" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E381" s="4"/>
     </row>
-    <row r="382" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E382" s="4"/>
     </row>
-    <row r="383" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E383" s="4"/>
     </row>
-    <row r="384" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E384" s="4"/>
     </row>
-    <row r="385" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E385" s="4"/>
     </row>
-    <row r="386" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E386" s="4"/>
     </row>
-    <row r="387" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E387" s="4"/>
     </row>
-    <row r="388" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E388" s="4"/>
     </row>
-    <row r="389" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E389" s="4"/>
     </row>
-    <row r="390" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E390" s="4"/>
     </row>
-    <row r="391" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E391" s="4"/>
     </row>
-    <row r="392" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E392" s="4"/>
     </row>
-    <row r="393" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E393" s="4"/>
     </row>
-    <row r="394" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E394" s="4"/>
     </row>
-    <row r="395" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E395" s="4"/>
     </row>
-    <row r="396" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E396" s="4"/>
     </row>
-    <row r="397" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E397" s="4"/>
     </row>
-    <row r="398" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E398" s="4"/>
     </row>
-    <row r="399" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E399" s="4"/>
     </row>
-    <row r="400" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E400" s="4"/>
     </row>
-    <row r="401" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E401" s="4"/>
     </row>
-    <row r="402" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E402" s="4"/>
     </row>
-    <row r="403" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E403" s="4"/>
     </row>
-    <row r="404" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E404" s="4"/>
     </row>
-    <row r="405" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E405" s="4"/>
     </row>
-    <row r="406" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E406" s="4"/>
     </row>
-    <row r="407" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E407" s="4"/>
     </row>
-    <row r="408" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E408" s="4"/>
     </row>
-    <row r="409" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E409" s="4"/>
     </row>
-    <row r="410" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E410" s="4"/>
     </row>
-    <row r="411" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E411" s="4"/>
     </row>
-    <row r="412" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E412" s="4"/>
     </row>
-    <row r="413" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E413" s="4"/>
     </row>
-    <row r="414" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E414" s="4"/>
     </row>
-    <row r="415" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E415" s="4"/>
     </row>
-    <row r="416" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E416" s="4"/>
     </row>
-    <row r="417" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E417" s="4"/>
     </row>
-    <row r="418" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E418" s="4"/>
     </row>
-    <row r="419" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E419" s="4"/>
     </row>
-    <row r="420" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E420" s="4"/>
     </row>
-    <row r="421" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E421" s="4"/>
     </row>
-    <row r="422" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E422" s="4"/>
     </row>
-    <row r="423" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E423" s="4"/>
     </row>
-    <row r="424" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E424" s="4"/>
     </row>
-    <row r="425" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E425" s="4"/>
     </row>
-    <row r="426" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E426" s="4"/>
     </row>
-    <row r="427" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E427" s="4"/>
     </row>
-    <row r="428" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E428" s="4"/>
     </row>
-    <row r="429" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E429" s="4"/>
     </row>
-    <row r="430" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E430" s="4"/>
     </row>
-    <row r="431" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E431" s="4"/>
     </row>
-    <row r="432" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E432" s="4"/>
     </row>
-    <row r="433" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E433" s="4"/>
     </row>
-    <row r="434" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E434" s="4"/>
     </row>
-    <row r="435" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E435" s="4"/>
     </row>
-    <row r="436" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E436" s="4"/>
     </row>
-    <row r="437" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E437" s="4"/>
     </row>
-    <row r="438" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E438" s="4"/>
     </row>
-    <row r="439" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E439" s="4"/>
     </row>
-    <row r="440" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E440" s="4"/>
     </row>
-    <row r="441" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E441" s="4"/>
     </row>
-    <row r="442" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E442" s="4"/>
     </row>
-    <row r="443" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E443" s="4"/>
     </row>
-    <row r="444" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E444" s="4"/>
     </row>
-    <row r="445" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E445" s="4"/>
     </row>
-    <row r="446" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E446" s="4"/>
     </row>
-    <row r="447" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E447" s="4"/>
     </row>
-    <row r="448" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E448" s="4"/>
     </row>
-    <row r="449" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E449" s="4"/>
     </row>
-    <row r="450" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E450" s="4"/>
     </row>
-    <row r="451" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E451" s="4"/>
     </row>
-    <row r="452" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E452" s="4"/>
     </row>
-    <row r="453" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E453" s="4"/>
     </row>
-    <row r="454" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E454" s="4"/>
     </row>
-    <row r="455" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E455" s="4"/>
     </row>
-    <row r="456" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E456" s="4"/>
     </row>
-    <row r="457" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E457" s="4"/>
     </row>
-    <row r="458" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E458" s="4"/>
     </row>
-    <row r="459" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E459" s="4"/>
     </row>
-    <row r="460" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E460" s="4"/>
     </row>
-    <row r="461" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E461" s="4"/>
     </row>
-    <row r="462" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E462" s="4"/>
     </row>
-    <row r="463" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E463" s="4"/>
     </row>
-    <row r="464" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E464" s="4"/>
     </row>
-    <row r="465" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E465" s="4"/>
     </row>
-    <row r="466" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E466" s="4"/>
     </row>
-    <row r="467" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E467" s="4"/>
     </row>
-    <row r="468" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E468" s="4"/>
     </row>
-    <row r="469" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E469" s="4"/>
     </row>
-    <row r="470" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E470" s="4"/>
     </row>
-    <row r="471" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E471" s="4"/>
     </row>
-    <row r="472" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E472" s="4"/>
     </row>
-    <row r="473" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E473" s="4"/>
     </row>
-    <row r="474" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E474" s="4"/>
     </row>
-    <row r="475" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E475" s="4"/>
     </row>
-    <row r="476" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E476" s="4"/>
     </row>
-    <row r="477" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E477" s="4"/>
     </row>
-    <row r="478" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E478" s="4"/>
     </row>
-    <row r="479" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E479" s="4"/>
     </row>
-    <row r="480" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E480" s="4"/>
     </row>
-    <row r="481" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E481" s="4"/>
     </row>
-    <row r="482" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E482" s="4"/>
     </row>
-    <row r="483" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E483" s="4"/>
     </row>
-    <row r="484" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E484" s="4"/>
     </row>
-    <row r="485" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E485" s="4"/>
     </row>
-    <row r="486" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E486" s="4"/>
     </row>
-    <row r="487" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E487" s="4"/>
     </row>
-    <row r="488" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E488" s="4"/>
     </row>
-    <row r="489" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E489" s="4"/>
     </row>
-    <row r="490" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E490" s="4"/>
     </row>
-    <row r="491" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E491" s="4"/>
     </row>
-    <row r="492" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E492" s="4"/>
     </row>
-    <row r="493" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E493" s="4"/>
     </row>
-    <row r="494" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E494" s="4"/>
     </row>
-    <row r="495" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E495" s="4"/>
     </row>
-    <row r="496" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E496" s="4"/>
     </row>
-    <row r="497" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E497" s="4"/>
     </row>
-    <row r="498" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E498" s="4"/>
     </row>
-    <row r="499" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E499" s="4"/>
     </row>
-    <row r="500" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E500" s="4"/>
     </row>
-    <row r="501" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E501" s="4"/>
     </row>
-    <row r="502" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E502" s="4"/>
     </row>
-    <row r="503" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E503" s="4"/>
     </row>
-    <row r="504" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E504" s="4"/>
     </row>
-    <row r="505" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E505" s="4"/>
     </row>
-    <row r="506" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E506" s="4"/>
     </row>
-    <row r="507" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E507" s="4"/>
     </row>
-    <row r="508" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E508" s="4"/>
     </row>
-    <row r="509" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E509" s="4"/>
     </row>
-    <row r="510" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E510" s="4"/>
     </row>
-    <row r="511" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E511" s="4"/>
     </row>
-    <row r="512" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E512" s="4"/>
     </row>
-    <row r="513" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E513" s="4"/>
     </row>
-    <row r="514" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E514" s="4"/>
     </row>
-    <row r="515" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E515" s="4"/>
     </row>
-    <row r="516" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E516" s="4"/>
     </row>
-    <row r="517" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E517" s="4"/>
     </row>
-    <row r="518" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E518" s="4"/>
     </row>
-    <row r="519" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E519" s="4"/>
     </row>
-    <row r="520" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E520" s="4"/>
     </row>
-    <row r="521" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E521" s="4"/>
     </row>
-    <row r="522" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E522" s="4"/>
     </row>
-    <row r="523" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E523" s="4"/>
     </row>
-    <row r="524" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E524" s="4"/>
     </row>
-    <row r="525" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E525" s="4"/>
     </row>
-    <row r="526" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E526" s="4"/>
     </row>
-    <row r="527" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E527" s="4"/>
     </row>
-    <row r="528" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E528" s="4"/>
     </row>
-    <row r="529" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E529" s="4"/>
     </row>
-    <row r="530" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E530" s="4"/>
     </row>
-    <row r="531" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E531" s="4"/>
     </row>
-    <row r="532" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E532" s="4"/>
     </row>
-    <row r="533" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E533" s="4"/>
     </row>
-    <row r="534" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E534" s="4"/>
     </row>
-    <row r="535" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E535" s="4"/>
     </row>
-    <row r="536" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E536" s="4"/>
     </row>
-    <row r="537" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E537" s="4"/>
     </row>
-    <row r="538" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E538" s="4"/>
     </row>
-    <row r="539" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E539" s="4"/>
     </row>
-    <row r="540" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E540" s="4"/>
     </row>
-    <row r="541" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E541" s="4"/>
     </row>
-    <row r="542" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E542" s="4"/>
     </row>
-    <row r="543" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E543" s="4"/>
     </row>
-    <row r="544" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E544" s="4"/>
     </row>
-    <row r="545" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E545" s="4"/>
     </row>
-    <row r="546" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E546" s="4"/>
     </row>
-    <row r="547" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E547" s="4"/>
     </row>
-    <row r="548" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E548" s="4"/>
     </row>
-    <row r="549" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E549" s="4"/>
     </row>
-    <row r="550" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E550" s="4"/>
     </row>
-    <row r="551" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E551" s="4"/>
     </row>
-    <row r="552" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E552" s="4"/>
     </row>
-    <row r="553" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E553" s="4"/>
     </row>
-    <row r="554" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E554" s="4"/>
     </row>
-    <row r="555" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E555" s="4"/>
     </row>
-    <row r="556" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E556" s="4"/>
     </row>
-    <row r="557" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E557" s="4"/>
     </row>
-    <row r="558" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E558" s="4"/>
     </row>
-    <row r="559" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E559" s="4"/>
     </row>
-    <row r="560" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E560" s="4"/>
     </row>
-    <row r="561" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E561" s="4"/>
     </row>
-    <row r="562" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E562" s="4"/>
     </row>
-    <row r="563" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E563" s="4"/>
     </row>
-    <row r="564" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E564" s="4"/>
     </row>
-    <row r="565" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E565" s="4"/>
     </row>
-    <row r="566" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E566" s="4"/>
     </row>
-    <row r="567" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E567" s="4"/>
     </row>
-    <row r="568" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E568" s="4"/>
     </row>
-    <row r="569" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E569" s="4"/>
     </row>
-    <row r="570" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E570" s="4"/>
     </row>
-    <row r="571" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E571" s="4"/>
     </row>
-    <row r="572" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E572" s="4"/>
     </row>
-    <row r="573" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E573" s="4"/>
     </row>
-    <row r="574" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E574" s="4"/>
     </row>
-    <row r="575" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E575" s="4"/>
     </row>
-    <row r="576" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E576" s="4"/>
     </row>
-    <row r="577" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E577" s="4"/>
     </row>
-    <row r="578" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E578" s="4"/>
     </row>
-    <row r="579" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E579" s="4"/>
     </row>
-    <row r="580" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E580" s="4"/>
     </row>
-    <row r="581" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E581" s="4"/>
     </row>
-    <row r="582" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E582" s="4"/>
     </row>
-    <row r="583" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E583" s="4"/>
     </row>
-    <row r="584" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E584" s="4"/>
     </row>
-    <row r="585" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E585" s="4"/>
     </row>
-    <row r="586" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E586" s="4"/>
     </row>
-    <row r="587" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E587" s="4"/>
     </row>
-    <row r="588" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E588" s="4"/>
     </row>
-    <row r="589" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E589" s="4"/>
     </row>
-    <row r="590" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E590" s="4"/>
     </row>
-    <row r="591" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E591" s="4"/>
     </row>
-    <row r="592" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E592" s="4"/>
     </row>
-    <row r="593" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E593" s="4"/>
     </row>
-    <row r="594" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E594" s="4"/>
     </row>
-    <row r="595" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E595" s="4"/>
     </row>
-    <row r="596" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E596" s="4"/>
     </row>
-    <row r="597" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E597" s="4"/>
     </row>
-    <row r="598" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E598" s="4"/>
     </row>
-    <row r="599" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E599" s="4"/>
     </row>
-    <row r="600" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E600" s="4"/>
     </row>
-    <row r="601" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E601" s="4"/>
     </row>
-    <row r="602" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E602" s="4"/>
     </row>
-    <row r="603" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E603" s="4"/>
     </row>
-    <row r="604" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E604" s="4"/>
     </row>
-    <row r="605" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E605" s="4"/>
     </row>
-    <row r="606" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E606" s="4"/>
     </row>
-    <row r="607" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E607" s="4"/>
     </row>
-    <row r="608" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E608" s="4"/>
     </row>
-    <row r="609" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E609" s="4"/>
     </row>
-    <row r="610" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E610" s="4"/>
     </row>
-    <row r="611" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E611" s="4"/>
     </row>
-    <row r="612" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E612" s="4"/>
     </row>
-    <row r="613" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E613" s="4"/>
     </row>
-    <row r="614" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E614" s="4"/>
     </row>
-    <row r="615" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E615" s="4"/>
     </row>
-    <row r="616" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E616" s="4"/>
     </row>
-    <row r="617" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E617" s="4"/>
     </row>
-    <row r="618" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E618" s="4"/>
     </row>
-    <row r="619" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E619" s="4"/>
     </row>
-    <row r="620" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E620" s="4"/>
     </row>
-    <row r="621" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E621" s="4"/>
     </row>
-    <row r="622" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E622" s="4"/>
     </row>
-    <row r="623" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E623" s="4"/>
     </row>
-    <row r="624" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E624" s="4"/>
     </row>
-    <row r="625" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E625" s="4"/>
     </row>
-    <row r="626" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E626" s="4"/>
     </row>
-    <row r="627" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E627" s="4"/>
     </row>
-    <row r="628" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E628" s="4"/>
     </row>
-    <row r="629" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E629" s="4"/>
     </row>
-    <row r="630" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E630" s="4"/>
     </row>
-    <row r="631" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E631" s="4"/>
     </row>
-    <row r="632" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E632" s="4"/>
     </row>
-    <row r="633" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E633" s="4"/>
     </row>
-    <row r="634" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E634" s="4"/>
     </row>
-    <row r="635" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E635" s="4"/>
     </row>
-    <row r="636" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E636" s="4"/>
     </row>
-    <row r="637" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E637" s="4"/>
     </row>
-    <row r="638" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E638" s="4"/>
     </row>
-    <row r="639" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E639" s="4"/>
     </row>
-    <row r="640" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E640" s="4"/>
     </row>
-    <row r="641" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E641" s="4"/>
     </row>
-    <row r="642" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E642" s="4"/>
     </row>
-    <row r="643" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E643" s="4"/>
     </row>
-    <row r="644" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E644" s="4"/>
     </row>
-    <row r="645" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E645" s="4"/>
     </row>
-    <row r="646" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E646" s="4"/>
     </row>
-    <row r="647" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E647" s="4"/>
     </row>
-    <row r="648" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E648" s="4"/>
     </row>
-    <row r="649" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E649" s="4"/>
     </row>
-    <row r="650" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E650" s="4"/>
     </row>
-    <row r="651" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E651" s="4"/>
     </row>
-    <row r="652" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E652" s="4"/>
     </row>
-    <row r="653" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E653" s="4"/>
     </row>
-    <row r="654" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E654" s="4"/>
     </row>
-    <row r="655" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E655" s="4"/>
     </row>
-    <row r="656" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E656" s="4"/>
     </row>
-    <row r="657" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E657" s="4"/>
     </row>
-    <row r="658" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E658" s="4"/>
     </row>
-    <row r="659" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E659" s="4"/>
     </row>
-    <row r="660" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E660" s="4"/>
     </row>
-    <row r="661" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E661" s="4"/>
     </row>
-    <row r="662" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E662" s="4"/>
     </row>
-    <row r="663" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E663" s="4"/>
     </row>
-    <row r="664" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E664" s="4"/>
     </row>
-    <row r="665" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E665" s="4"/>
     </row>
-    <row r="666" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E666" s="4"/>
     </row>
-    <row r="667" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E667" s="4"/>
     </row>
-    <row r="668" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E668" s="4"/>
     </row>
-    <row r="669" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E669" s="4"/>
     </row>
-    <row r="670" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E670" s="4"/>
     </row>
-    <row r="671" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E671" s="4"/>
     </row>
-    <row r="672" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E672" s="4"/>
     </row>
-    <row r="673" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E673" s="4"/>
     </row>
-    <row r="674" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E674" s="4"/>
     </row>
-    <row r="675" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E675" s="4"/>
     </row>
-    <row r="676" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E676" s="4"/>
     </row>
-    <row r="677" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E677" s="4"/>
     </row>
-    <row r="678" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E678" s="4"/>
     </row>
-    <row r="679" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E679" s="4"/>
     </row>
-    <row r="680" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E680" s="4"/>
     </row>
-    <row r="681" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E681" s="4"/>
     </row>
-    <row r="682" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E682" s="4"/>
     </row>
-    <row r="683" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E683" s="4"/>
     </row>
-    <row r="684" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E684" s="4"/>
     </row>
-    <row r="685" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E685" s="4"/>
     </row>
-    <row r="686" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E686" s="4"/>
     </row>
-    <row r="687" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E687" s="4"/>
     </row>
-    <row r="688" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E688" s="4"/>
     </row>
-    <row r="689" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E689" s="4"/>
     </row>
-    <row r="690" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E690" s="4"/>
     </row>
-    <row r="691" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E691" s="4"/>
     </row>
-    <row r="692" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E692" s="4"/>
     </row>
-    <row r="693" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E693" s="4"/>
     </row>
-    <row r="694" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E694" s="4"/>
     </row>
-    <row r="695" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E695" s="4"/>
     </row>
-    <row r="696" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E696" s="4"/>
     </row>
-    <row r="697" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E697" s="4"/>
     </row>
-    <row r="698" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E698" s="4"/>
     </row>
-    <row r="699" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E699" s="4"/>
     </row>
-    <row r="700" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E700" s="4"/>
     </row>
-    <row r="701" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E701" s="4"/>
     </row>
-    <row r="702" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E702" s="4"/>
     </row>
-    <row r="703" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E703" s="4"/>
     </row>
-    <row r="704" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E704" s="4"/>
     </row>
-    <row r="705" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E705" s="4"/>
     </row>
-    <row r="706" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E706" s="4"/>
     </row>
-    <row r="707" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E707" s="4"/>
     </row>
-    <row r="708" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E708" s="4"/>
     </row>
-    <row r="709" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E709" s="4"/>
     </row>
-    <row r="710" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E710" s="4"/>
     </row>
-    <row r="711" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E711" s="4"/>
     </row>
-    <row r="712" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E712" s="4"/>
     </row>
-    <row r="713" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E713" s="4"/>
     </row>
-    <row r="714" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E714" s="4"/>
     </row>
-    <row r="715" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E715" s="4"/>
     </row>
-    <row r="716" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E716" s="4"/>
     </row>
-    <row r="717" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E717" s="4"/>
     </row>
-    <row r="718" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E718" s="4"/>
     </row>
-    <row r="719" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E719" s="4"/>
     </row>
-    <row r="720" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E720" s="4"/>
     </row>
-    <row r="721" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E721" s="4"/>
     </row>
-    <row r="722" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E722" s="4"/>
     </row>
-    <row r="723" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E723" s="4"/>
     </row>
-    <row r="724" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E724" s="4"/>
     </row>
-    <row r="725" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E725" s="4"/>
     </row>
-    <row r="726" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E726" s="4"/>
     </row>
-    <row r="727" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E727" s="4"/>
     </row>
-    <row r="728" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E728" s="4"/>
     </row>
-    <row r="729" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E729" s="4"/>
     </row>
-    <row r="730" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E730" s="4"/>
     </row>
-    <row r="731" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E731" s="4"/>
     </row>
-    <row r="732" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E732" s="4"/>
     </row>
-    <row r="733" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E733" s="4"/>
     </row>
-    <row r="734" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E734" s="4"/>
     </row>
-    <row r="735" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E735" s="4"/>
     </row>
-    <row r="736" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E736" s="4"/>
     </row>
-    <row r="737" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E737" s="4"/>
     </row>
-    <row r="738" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E738" s="4"/>
     </row>
-    <row r="739" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E739" s="4"/>
     </row>
-    <row r="740" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E740" s="4"/>
     </row>
-    <row r="741" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E741" s="4"/>
     </row>
-    <row r="742" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E742" s="4"/>
     </row>
-    <row r="743" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E743" s="4"/>
     </row>
-    <row r="744" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E744" s="4"/>
     </row>
-    <row r="745" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E745" s="4"/>
     </row>
-    <row r="746" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E746" s="4"/>
     </row>
-    <row r="747" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E747" s="4"/>
     </row>
-    <row r="748" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E748" s="4"/>
     </row>
-    <row r="749" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E749" s="4"/>
     </row>
-    <row r="750" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E750" s="4"/>
     </row>
-    <row r="751" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E751" s="4"/>
     </row>
-    <row r="752" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E752" s="4"/>
     </row>
-    <row r="753" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E753" s="4"/>
     </row>
-    <row r="754" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E754" s="4"/>
     </row>
-    <row r="755" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E755" s="4"/>
     </row>
-    <row r="756" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E756" s="4"/>
     </row>
-    <row r="757" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E757" s="4"/>
     </row>
-    <row r="758" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E758" s="4"/>
     </row>
-    <row r="759" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E759" s="4"/>
     </row>
-    <row r="760" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E760" s="4"/>
     </row>
-    <row r="761" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E761" s="4"/>
     </row>
-    <row r="762" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E762" s="4"/>
     </row>
-    <row r="763" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E763" s="4"/>
     </row>
-    <row r="764" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E764" s="4"/>
     </row>
-    <row r="765" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E765" s="4"/>
     </row>
-    <row r="766" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E766" s="4"/>
     </row>
-    <row r="767" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E767" s="4"/>
     </row>
-    <row r="768" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E768" s="4"/>
     </row>
-    <row r="769" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E769" s="4"/>
     </row>
-    <row r="770" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E770" s="4"/>
     </row>
-    <row r="771" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E771" s="4"/>
     </row>
-    <row r="772" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E772" s="4"/>
     </row>
-    <row r="773" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E773" s="4"/>
     </row>
-    <row r="774" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E774" s="4"/>
     </row>
-    <row r="775" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E775" s="4"/>
     </row>
-    <row r="776" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E776" s="4"/>
     </row>
-    <row r="777" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E777" s="4"/>
     </row>
-    <row r="778" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E778" s="4"/>
     </row>
-    <row r="779" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E779" s="4"/>
     </row>
-    <row r="780" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E780" s="4"/>
     </row>
-    <row r="781" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E781" s="4"/>
     </row>
-    <row r="782" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E782" s="4"/>
     </row>
-    <row r="783" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E783" s="4"/>
     </row>
-    <row r="784" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E784" s="4"/>
     </row>
-    <row r="785" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E785" s="4"/>
     </row>
-    <row r="786" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E786" s="4"/>
     </row>
-    <row r="787" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E787" s="4"/>
     </row>
-    <row r="788" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E788" s="4"/>
     </row>
-    <row r="789" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E789" s="4"/>
     </row>
-    <row r="790" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E790" s="4"/>
     </row>
-    <row r="791" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E791" s="4"/>
     </row>
-    <row r="792" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E792" s="4"/>
     </row>
-    <row r="793" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E793" s="4"/>
     </row>
-    <row r="794" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E794" s="4"/>
     </row>
-    <row r="795" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E795" s="4"/>
     </row>
-    <row r="796" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E796" s="4"/>
     </row>
-    <row r="797" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E797" s="4"/>
     </row>
-    <row r="798" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E798" s="4"/>
     </row>
-    <row r="799" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E799" s="4"/>
     </row>
-    <row r="800" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E800" s="4"/>
     </row>
-    <row r="801" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E801" s="4"/>
     </row>
-    <row r="802" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E802" s="4"/>
     </row>
-    <row r="803" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E803" s="4"/>
     </row>
-    <row r="804" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E804" s="4"/>
     </row>
-    <row r="805" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E805" s="4"/>
     </row>
-    <row r="806" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E806" s="4"/>
     </row>
-    <row r="807" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E807" s="4"/>
     </row>
-    <row r="808" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E808" s="4"/>
     </row>
-    <row r="809" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E809" s="4"/>
     </row>
-    <row r="810" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E810" s="4"/>
     </row>
-    <row r="811" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E811" s="4"/>
     </row>
-    <row r="812" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E812" s="4"/>
     </row>
-    <row r="813" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E813" s="4"/>
     </row>
-    <row r="814" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E814" s="4"/>
     </row>
-    <row r="815" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E815" s="4"/>
     </row>
-    <row r="816" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E816" s="4"/>
     </row>
-    <row r="817" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E817" s="4"/>
     </row>
-    <row r="818" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E818" s="4"/>
     </row>
-    <row r="819" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E819" s="4"/>
     </row>
-    <row r="820" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E820" s="4"/>
     </row>
-    <row r="821" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E821" s="4"/>
     </row>
-    <row r="822" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E822" s="4"/>
     </row>
-    <row r="823" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E823" s="4"/>
     </row>
-    <row r="824" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E824" s="4"/>
     </row>
-    <row r="825" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E825" s="4"/>
     </row>
-    <row r="826" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E826" s="4"/>
     </row>
-    <row r="827" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E827" s="4"/>
     </row>
-    <row r="828" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E828" s="4"/>
     </row>
-    <row r="829" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E829" s="4"/>
     </row>
-    <row r="830" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E830" s="4"/>
     </row>
-    <row r="831" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E831" s="4"/>
     </row>
-    <row r="832" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E832" s="4"/>
     </row>
-    <row r="833" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E833" s="4"/>
     </row>
-    <row r="834" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E834" s="4"/>
     </row>
-    <row r="835" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E835" s="4"/>
     </row>
-    <row r="836" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E836" s="4"/>
     </row>
-    <row r="837" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E837" s="4"/>
     </row>
-    <row r="838" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E838" s="4"/>
     </row>
-    <row r="839" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E839" s="4"/>
     </row>
-    <row r="840" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E840" s="4"/>
     </row>
-    <row r="841" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E841" s="4"/>
     </row>
-    <row r="842" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E842" s="4"/>
     </row>
-    <row r="843" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E843" s="4"/>
     </row>
-    <row r="844" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E844" s="4"/>
     </row>
-    <row r="845" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E845" s="4"/>
     </row>
-    <row r="846" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E846" s="4"/>
     </row>
-    <row r="847" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E847" s="4"/>
     </row>
-    <row r="848" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E848" s="4"/>
     </row>
-    <row r="849" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E849" s="4"/>
     </row>
-    <row r="850" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E850" s="4"/>
     </row>
-    <row r="851" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E851" s="4"/>
     </row>
-    <row r="852" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E852" s="4"/>
     </row>
-    <row r="853" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E853" s="4"/>
     </row>
-    <row r="854" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E854" s="4"/>
     </row>
-    <row r="855" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E855" s="4"/>
     </row>
-    <row r="856" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E856" s="4"/>
     </row>
-    <row r="857" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E857" s="4"/>
     </row>
-    <row r="858" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E858" s="4"/>
     </row>
-    <row r="859" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E859" s="4"/>
     </row>
-    <row r="860" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E860" s="4"/>
     </row>
-    <row r="861" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E861" s="4"/>
     </row>
-    <row r="862" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E862" s="4"/>
     </row>
-    <row r="863" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E863" s="4"/>
     </row>
-    <row r="864" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E864" s="4"/>
     </row>
-    <row r="865" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E865" s="4"/>
     </row>
-    <row r="866" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E866" s="4"/>
     </row>
-    <row r="867" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E867" s="4"/>
     </row>
-    <row r="868" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E868" s="4"/>
     </row>
-    <row r="869" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E869" s="4"/>
     </row>
-    <row r="870" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E870" s="4"/>
     </row>
-    <row r="871" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E871" s="4"/>
     </row>
-    <row r="872" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E872" s="4"/>
     </row>
-    <row r="873" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E873" s="4"/>
     </row>
-    <row r="874" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E874" s="4"/>
     </row>
-    <row r="875" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E875" s="4"/>
     </row>
-    <row r="876" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E876" s="4"/>
     </row>
-    <row r="877" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E877" s="4"/>
     </row>
-    <row r="878" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E878" s="4"/>
     </row>
-    <row r="879" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E879" s="4"/>
     </row>
-    <row r="880" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E880" s="4"/>
     </row>
-    <row r="881" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E881" s="4"/>
     </row>
-    <row r="882" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E882" s="4"/>
     </row>
-    <row r="883" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E883" s="4"/>
     </row>
-    <row r="884" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E884" s="4"/>
     </row>
-    <row r="885" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E885" s="4"/>
     </row>
-    <row r="886" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E886" s="4"/>
     </row>
-    <row r="887" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E887" s="4"/>
     </row>
-    <row r="888" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E888" s="4"/>
     </row>
-    <row r="889" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E889" s="4"/>
     </row>
-    <row r="890" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E890" s="4"/>
     </row>
-    <row r="891" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E891" s="4"/>
     </row>
-    <row r="892" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E892" s="4"/>
     </row>
-    <row r="893" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E893" s="4"/>
     </row>
-    <row r="894" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E894" s="4"/>
     </row>
-    <row r="895" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E895" s="4"/>
     </row>
-    <row r="896" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E896" s="4"/>
     </row>
-    <row r="897" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E897" s="4"/>
     </row>
-    <row r="898" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E898" s="4"/>
     </row>
-    <row r="899" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E899" s="4"/>
     </row>
-    <row r="900" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E900" s="4"/>
     </row>
-    <row r="901" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E901" s="4"/>
     </row>
-    <row r="902" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E902" s="4"/>
     </row>
-    <row r="903" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E903" s="4"/>
     </row>
-    <row r="904" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E904" s="4"/>
     </row>
-    <row r="905" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E905" s="4"/>
     </row>
-    <row r="906" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E906" s="4"/>
     </row>
-    <row r="907" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E907" s="4"/>
     </row>
-    <row r="908" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E908" s="4"/>
     </row>
-    <row r="909" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E909" s="4"/>
     </row>
-    <row r="910" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E910" s="4"/>
     </row>
-    <row r="911" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E911" s="4"/>
     </row>
-    <row r="912" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E912" s="4"/>
     </row>
-    <row r="913" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E913" s="4"/>
     </row>
-    <row r="914" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E914" s="4"/>
     </row>
-    <row r="915" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E915" s="4"/>
     </row>
-    <row r="916" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E916" s="4"/>
     </row>
-    <row r="917" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E917" s="4"/>
     </row>
-    <row r="918" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E918" s="4"/>
     </row>
-    <row r="919" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E919" s="4"/>
     </row>
-    <row r="920" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E920" s="4"/>
     </row>
-    <row r="921" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E921" s="4"/>
     </row>
-    <row r="922" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E922" s="4"/>
     </row>
-    <row r="923" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E923" s="4"/>
     </row>
-    <row r="924" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E924" s="4"/>
     </row>
-    <row r="925" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E925" s="4"/>
     </row>
-    <row r="926" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E926" s="4"/>
     </row>
-    <row r="927" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E927" s="4"/>
     </row>
-    <row r="928" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E928" s="4"/>
     </row>
-    <row r="929" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E929" s="4"/>
     </row>
-    <row r="930" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E930" s="4"/>
     </row>
-    <row r="931" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E931" s="4"/>
     </row>
-    <row r="932" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E932" s="4"/>
     </row>
-    <row r="933" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E933" s="4"/>
     </row>
-    <row r="934" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E934" s="4"/>
     </row>
-    <row r="935" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E935" s="4"/>
     </row>
-    <row r="936" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E936" s="4"/>
     </row>
-    <row r="937" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E937" s="4"/>
     </row>
-    <row r="938" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E938" s="4"/>
     </row>
-    <row r="939" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E939" s="4"/>
     </row>
-    <row r="940" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E940" s="4"/>
     </row>
-    <row r="941" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E941" s="4"/>
     </row>
-    <row r="942" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E942" s="4"/>
     </row>
-    <row r="943" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E943" s="4"/>
     </row>
-    <row r="944" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E944" s="4"/>
     </row>
-    <row r="945" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E945" s="4"/>
     </row>
-    <row r="946" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E946" s="4"/>
     </row>
-    <row r="947" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E947" s="4"/>
     </row>
-    <row r="948" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E948" s="4"/>
     </row>
-    <row r="949" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E949" s="4"/>
     </row>
-    <row r="950" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E950" s="4"/>
     </row>
-    <row r="951" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E951" s="4"/>
     </row>
-    <row r="952" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E952" s="4"/>
     </row>
-    <row r="953" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E953" s="4"/>
     </row>
-    <row r="954" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E954" s="4"/>
     </row>
-    <row r="955" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E955" s="4"/>
     </row>
-    <row r="956" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E956" s="4"/>
     </row>
-    <row r="957" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E957" s="4"/>
     </row>
-    <row r="958" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E958" s="4"/>
     </row>
-    <row r="959" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E959" s="4"/>
     </row>
-    <row r="960" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E960" s="4"/>
     </row>
-    <row r="961" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E961" s="4"/>
     </row>
-    <row r="962" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E962" s="4"/>
     </row>
-    <row r="963" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E963" s="4"/>
     </row>
-    <row r="964" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E964" s="4"/>
     </row>
-    <row r="965" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E965" s="4"/>
     </row>
-    <row r="966" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E966" s="4"/>
     </row>
-    <row r="967" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E967" s="4"/>
     </row>
-    <row r="968" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E968" s="4"/>
     </row>
-    <row r="969" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E969" s="4"/>
     </row>
-    <row r="970" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E970" s="4"/>
     </row>
-    <row r="971" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E971" s="4"/>
     </row>
-    <row r="972" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E972" s="4"/>
     </row>
-    <row r="973" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E973" s="4"/>
     </row>
-    <row r="974" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E974" s="4"/>
     </row>
-    <row r="975" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E975" s="4"/>
     </row>
-    <row r="976" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E976" s="4"/>
     </row>
-    <row r="977" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E977" s="4"/>
     </row>
-    <row r="978" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E978" s="4"/>
     </row>
-    <row r="979" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E979" s="4"/>
     </row>
-    <row r="980" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E980" s="4"/>
     </row>
-    <row r="981" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E981" s="4"/>
     </row>
-    <row r="982" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E982" s="4"/>
     </row>
-    <row r="983" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E983" s="4"/>
     </row>
-    <row r="984" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E984" s="4"/>
     </row>
-    <row r="985" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E985" s="4"/>
     </row>
-    <row r="986" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E986" s="4"/>
     </row>
-    <row r="987" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E987" s="4"/>
     </row>
-    <row r="988" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E988" s="4"/>
     </row>
-    <row r="989" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E989" s="4"/>
     </row>
-    <row r="990" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E990" s="4"/>
     </row>
-    <row r="991" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E991" s="4"/>
     </row>
-    <row r="992" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E992" s="4"/>
     </row>
-    <row r="993" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E993" s="4"/>
     </row>
-    <row r="994" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E994" s="4"/>
     </row>
-    <row r="995" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E995" s="4"/>
     </row>
-    <row r="996" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E996" s="4"/>
     </row>
-    <row r="997" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E997" s="4"/>
     </row>
-    <row r="998" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E998" s="4"/>
     </row>
-    <row r="999" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E999" s="4"/>
     </row>
-    <row r="1000" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1000" s="4"/>
     </row>
   </sheetData>
@@ -3678,16 +3687,16 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="170.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="192.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3704,7 +3713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -3721,7 +3730,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -3738,7 +3747,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -3753,7 +3762,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -3770,7 +3779,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -3787,7 +3796,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3801,10 +3810,10 @@
         <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -3818,10 +3827,10 @@
         <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -3835,10 +3844,10 @@
         <v>39</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -3867,18 +3876,18 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="213.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="213.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3895,7 +3904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -3909,10 +3918,10 @@
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -3926,7 +3935,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -3943,7 +3952,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>50</v>
       </c>
@@ -3957,10 +3966,10 @@
         <v>51</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -3974,10 +3983,10 @@
         <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -3991,10 +4000,10 @@
         <v>55</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -4011,2980 +4020,2980 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E51" s="4"/>
     </row>
-    <row r="52" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E52" s="4"/>
     </row>
-    <row r="53" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E57" s="4"/>
     </row>
-    <row r="58" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E59" s="4"/>
     </row>
-    <row r="60" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E60" s="4"/>
     </row>
-    <row r="61" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E61" s="4"/>
     </row>
-    <row r="62" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E62" s="4"/>
     </row>
-    <row r="63" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E79" s="4"/>
     </row>
-    <row r="80" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E81" s="4"/>
     </row>
-    <row r="82" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E84" s="4"/>
     </row>
-    <row r="85" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E85" s="4"/>
     </row>
-    <row r="86" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E86" s="4"/>
     </row>
-    <row r="87" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E87" s="4"/>
     </row>
-    <row r="88" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E88" s="4"/>
     </row>
-    <row r="89" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E89" s="4"/>
     </row>
-    <row r="90" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E90" s="4"/>
     </row>
-    <row r="91" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E91" s="4"/>
     </row>
-    <row r="92" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E92" s="4"/>
     </row>
-    <row r="93" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E94" s="4"/>
     </row>
-    <row r="95" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E95" s="4"/>
     </row>
-    <row r="96" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E100" s="4"/>
     </row>
-    <row r="101" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E112" s="4"/>
     </row>
-    <row r="113" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E113" s="4"/>
     </row>
-    <row r="114" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E114" s="4"/>
     </row>
-    <row r="115" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E115" s="4"/>
     </row>
-    <row r="116" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E116" s="4"/>
     </row>
-    <row r="117" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E117" s="4"/>
     </row>
-    <row r="118" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E118" s="4"/>
     </row>
-    <row r="119" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E119" s="4"/>
     </row>
-    <row r="120" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E120" s="4"/>
     </row>
-    <row r="121" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E124" s="4"/>
     </row>
-    <row r="125" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E125" s="4"/>
     </row>
-    <row r="126" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E127" s="4"/>
     </row>
-    <row r="128" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E128" s="4"/>
     </row>
-    <row r="129" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="129" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E129" s="4"/>
     </row>
-    <row r="130" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="130" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E130" s="4"/>
     </row>
-    <row r="131" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="131" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E131" s="4"/>
     </row>
-    <row r="132" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="132" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E132" s="4"/>
     </row>
-    <row r="133" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="133" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E133" s="4"/>
     </row>
-    <row r="134" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="134" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E134" s="4"/>
     </row>
-    <row r="135" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="135" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E135" s="4"/>
     </row>
-    <row r="136" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="136" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E136" s="4"/>
     </row>
-    <row r="137" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="137" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E137" s="4"/>
     </row>
-    <row r="138" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="138" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="139" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E139" s="4"/>
     </row>
-    <row r="140" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="140" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E140" s="4"/>
     </row>
-    <row r="141" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="141" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="142" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="143" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E145" s="4"/>
     </row>
-    <row r="146" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E146" s="4"/>
     </row>
-    <row r="147" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E147" s="4"/>
     </row>
-    <row r="148" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E148" s="4"/>
     </row>
-    <row r="149" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E149" s="4"/>
     </row>
-    <row r="150" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E150" s="4"/>
     </row>
-    <row r="151" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E151" s="4"/>
     </row>
-    <row r="152" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E153" s="4"/>
     </row>
-    <row r="154" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E154" s="4"/>
     </row>
-    <row r="155" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E157" s="4"/>
     </row>
-    <row r="158" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E158" s="4"/>
     </row>
-    <row r="159" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E160" s="4"/>
     </row>
-    <row r="161" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E161" s="4"/>
     </row>
-    <row r="162" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E162" s="4"/>
     </row>
-    <row r="163" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E163" s="4"/>
     </row>
-    <row r="164" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E164" s="4"/>
     </row>
-    <row r="165" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E168" s="4"/>
     </row>
-    <row r="169" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E169" s="4"/>
     </row>
-    <row r="170" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E171" s="4"/>
     </row>
-    <row r="172" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="172" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E172" s="4"/>
     </row>
-    <row r="173" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="173" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E173" s="4"/>
     </row>
-    <row r="174" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="175" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="176" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E177" s="4"/>
     </row>
-    <row r="178" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="178" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E178" s="4"/>
     </row>
-    <row r="179" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="179" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E179" s="4"/>
     </row>
-    <row r="180" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E180" s="4"/>
     </row>
-    <row r="181" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="181" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E181" s="4"/>
     </row>
-    <row r="182" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="182" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E182" s="4"/>
     </row>
-    <row r="183" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E183" s="4"/>
     </row>
-    <row r="184" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="184" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="185" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E185" s="4"/>
     </row>
-    <row r="186" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E186" s="4"/>
     </row>
-    <row r="187" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="187" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E187" s="4"/>
     </row>
-    <row r="188" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="188" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E188" s="4"/>
     </row>
-    <row r="189" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E189" s="4"/>
     </row>
-    <row r="190" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="190" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E190" s="4"/>
     </row>
-    <row r="191" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="191" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E191" s="4"/>
     </row>
-    <row r="192" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E192" s="4"/>
     </row>
-    <row r="193" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="193" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E193" s="4"/>
     </row>
-    <row r="194" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E194" s="4"/>
     </row>
-    <row r="195" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E195" s="4"/>
     </row>
-    <row r="196" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E196" s="4"/>
     </row>
-    <row r="197" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E197" s="4"/>
     </row>
-    <row r="198" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E198" s="4"/>
     </row>
-    <row r="199" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E199" s="4"/>
     </row>
-    <row r="200" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E200" s="4"/>
     </row>
-    <row r="201" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E201" s="4"/>
     </row>
-    <row r="202" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E202" s="4"/>
     </row>
-    <row r="203" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E203" s="4"/>
     </row>
-    <row r="204" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E204" s="4"/>
     </row>
-    <row r="205" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E205" s="4"/>
     </row>
-    <row r="206" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E206" s="4"/>
     </row>
-    <row r="207" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="207" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E207" s="4"/>
     </row>
-    <row r="208" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="208" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E208" s="4"/>
     </row>
-    <row r="209" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E209" s="4"/>
     </row>
-    <row r="210" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E210" s="4"/>
     </row>
-    <row r="211" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E211" s="4"/>
     </row>
-    <row r="212" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E212" s="4"/>
     </row>
-    <row r="213" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E213" s="4"/>
     </row>
-    <row r="214" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="214" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E214" s="4"/>
     </row>
-    <row r="215" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="215" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E215" s="4"/>
     </row>
-    <row r="216" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E216" s="4"/>
     </row>
-    <row r="217" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E217" s="4"/>
     </row>
-    <row r="218" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E218" s="4"/>
     </row>
-    <row r="219" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E219" s="4"/>
     </row>
-    <row r="220" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E220" s="4"/>
     </row>
-    <row r="221" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E221" s="4"/>
     </row>
-    <row r="222" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E222" s="4"/>
     </row>
-    <row r="223" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E223" s="4"/>
     </row>
-    <row r="224" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E224" s="4"/>
     </row>
-    <row r="225" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E225" s="4"/>
     </row>
-    <row r="226" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E226" s="4"/>
     </row>
-    <row r="227" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E227" s="4"/>
     </row>
-    <row r="228" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E228" s="4"/>
     </row>
-    <row r="229" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E229" s="4"/>
     </row>
-    <row r="230" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E230" s="4"/>
     </row>
-    <row r="231" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E231" s="4"/>
     </row>
-    <row r="232" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E232" s="4"/>
     </row>
-    <row r="233" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E233" s="4"/>
     </row>
-    <row r="234" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E234" s="4"/>
     </row>
-    <row r="235" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E235" s="4"/>
     </row>
-    <row r="236" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E236" s="4"/>
     </row>
-    <row r="237" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E237" s="4"/>
     </row>
-    <row r="238" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E238" s="4"/>
     </row>
-    <row r="239" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E239" s="4"/>
     </row>
-    <row r="240" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E240" s="4"/>
     </row>
-    <row r="241" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E241" s="4"/>
     </row>
-    <row r="242" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E242" s="4"/>
     </row>
-    <row r="243" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E243" s="4"/>
     </row>
-    <row r="244" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E244" s="4"/>
     </row>
-    <row r="245" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E245" s="4"/>
     </row>
-    <row r="246" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E246" s="4"/>
     </row>
-    <row r="247" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E247" s="4"/>
     </row>
-    <row r="248" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E248" s="4"/>
     </row>
-    <row r="249" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E249" s="4"/>
     </row>
-    <row r="250" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E250" s="4"/>
     </row>
-    <row r="251" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E251" s="4"/>
     </row>
-    <row r="252" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E252" s="4"/>
     </row>
-    <row r="253" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E253" s="4"/>
     </row>
-    <row r="254" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E254" s="4"/>
     </row>
-    <row r="255" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E255" s="4"/>
     </row>
-    <row r="256" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E256" s="4"/>
     </row>
-    <row r="257" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E257" s="4"/>
     </row>
-    <row r="258" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E258" s="4"/>
     </row>
-    <row r="259" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E259" s="4"/>
     </row>
-    <row r="260" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E260" s="4"/>
     </row>
-    <row r="261" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E261" s="4"/>
     </row>
-    <row r="262" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E262" s="4"/>
     </row>
-    <row r="263" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E263" s="4"/>
     </row>
-    <row r="264" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E264" s="4"/>
     </row>
-    <row r="265" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E265" s="4"/>
     </row>
-    <row r="266" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E266" s="4"/>
     </row>
-    <row r="267" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E267" s="4"/>
     </row>
-    <row r="268" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E268" s="4"/>
     </row>
-    <row r="269" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E269" s="4"/>
     </row>
-    <row r="270" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E270" s="4"/>
     </row>
-    <row r="271" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E271" s="4"/>
     </row>
-    <row r="272" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E272" s="4"/>
     </row>
-    <row r="273" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E273" s="4"/>
     </row>
-    <row r="274" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E274" s="4"/>
     </row>
-    <row r="275" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E275" s="4"/>
     </row>
-    <row r="276" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E276" s="4"/>
     </row>
-    <row r="277" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E277" s="4"/>
     </row>
-    <row r="278" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E278" s="4"/>
     </row>
-    <row r="279" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E279" s="4"/>
     </row>
-    <row r="280" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E280" s="4"/>
     </row>
-    <row r="281" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E281" s="4"/>
     </row>
-    <row r="282" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E282" s="4"/>
     </row>
-    <row r="283" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E283" s="4"/>
     </row>
-    <row r="284" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E284" s="4"/>
     </row>
-    <row r="285" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E285" s="4"/>
     </row>
-    <row r="286" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E286" s="4"/>
     </row>
-    <row r="287" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E287" s="4"/>
     </row>
-    <row r="288" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E288" s="4"/>
     </row>
-    <row r="289" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E289" s="4"/>
     </row>
-    <row r="290" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E290" s="4"/>
     </row>
-    <row r="291" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E291" s="4"/>
     </row>
-    <row r="292" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E292" s="4"/>
     </row>
-    <row r="293" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E293" s="4"/>
     </row>
-    <row r="294" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E294" s="4"/>
     </row>
-    <row r="295" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E295" s="4"/>
     </row>
-    <row r="296" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E296" s="4"/>
     </row>
-    <row r="297" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E297" s="4"/>
     </row>
-    <row r="298" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E298" s="4"/>
     </row>
-    <row r="299" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E299" s="4"/>
     </row>
-    <row r="300" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E300" s="4"/>
     </row>
-    <row r="301" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E301" s="4"/>
     </row>
-    <row r="302" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E302" s="4"/>
     </row>
-    <row r="303" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E303" s="4"/>
     </row>
-    <row r="304" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E304" s="4"/>
     </row>
-    <row r="305" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E305" s="4"/>
     </row>
-    <row r="306" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E306" s="4"/>
     </row>
-    <row r="307" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E307" s="4"/>
     </row>
-    <row r="308" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E308" s="4"/>
     </row>
-    <row r="309" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E309" s="4"/>
     </row>
-    <row r="310" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E310" s="4"/>
     </row>
-    <row r="311" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E311" s="4"/>
     </row>
-    <row r="312" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E312" s="4"/>
     </row>
-    <row r="313" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E313" s="4"/>
     </row>
-    <row r="314" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E314" s="4"/>
     </row>
-    <row r="315" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E315" s="4"/>
     </row>
-    <row r="316" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E316" s="4"/>
     </row>
-    <row r="317" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E317" s="4"/>
     </row>
-    <row r="318" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E318" s="4"/>
     </row>
-    <row r="319" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E319" s="4"/>
     </row>
-    <row r="320" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E320" s="4"/>
     </row>
-    <row r="321" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E321" s="4"/>
     </row>
-    <row r="322" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E322" s="4"/>
     </row>
-    <row r="323" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E323" s="4"/>
     </row>
-    <row r="324" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E324" s="4"/>
     </row>
-    <row r="325" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E325" s="4"/>
     </row>
-    <row r="326" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E326" s="4"/>
     </row>
-    <row r="327" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E327" s="4"/>
     </row>
-    <row r="328" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E328" s="4"/>
     </row>
-    <row r="329" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E329" s="4"/>
     </row>
-    <row r="330" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E330" s="4"/>
     </row>
-    <row r="331" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E331" s="4"/>
     </row>
-    <row r="332" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E332" s="4"/>
     </row>
-    <row r="333" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E333" s="4"/>
     </row>
-    <row r="334" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E334" s="4"/>
     </row>
-    <row r="335" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E335" s="4"/>
     </row>
-    <row r="336" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E336" s="4"/>
     </row>
-    <row r="337" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E337" s="4"/>
     </row>
-    <row r="338" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E338" s="4"/>
     </row>
-    <row r="339" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E339" s="4"/>
     </row>
-    <row r="340" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E340" s="4"/>
     </row>
-    <row r="341" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E341" s="4"/>
     </row>
-    <row r="342" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E342" s="4"/>
     </row>
-    <row r="343" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E343" s="4"/>
     </row>
-    <row r="344" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E344" s="4"/>
     </row>
-    <row r="345" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="345" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E345" s="4"/>
     </row>
-    <row r="346" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="346" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E346" s="4"/>
     </row>
-    <row r="347" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="347" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E347" s="4"/>
     </row>
-    <row r="348" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="348" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E348" s="4"/>
     </row>
-    <row r="349" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="349" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E349" s="4"/>
     </row>
-    <row r="350" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="350" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E350" s="4"/>
     </row>
-    <row r="351" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="351" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E351" s="4"/>
     </row>
-    <row r="352" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="352" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E352" s="4"/>
     </row>
-    <row r="353" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="353" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E353" s="4"/>
     </row>
-    <row r="354" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="354" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E354" s="4"/>
     </row>
-    <row r="355" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="355" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E355" s="4"/>
     </row>
-    <row r="356" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="356" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E356" s="4"/>
     </row>
-    <row r="357" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="357" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E357" s="4"/>
     </row>
-    <row r="358" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="358" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E358" s="4"/>
     </row>
-    <row r="359" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="359" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E359" s="4"/>
     </row>
-    <row r="360" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="360" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E360" s="4"/>
     </row>
-    <row r="361" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="361" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E361" s="4"/>
     </row>
-    <row r="362" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="362" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E362" s="4"/>
     </row>
-    <row r="363" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="363" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E363" s="4"/>
     </row>
-    <row r="364" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="364" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E364" s="4"/>
     </row>
-    <row r="365" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="365" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E365" s="4"/>
     </row>
-    <row r="366" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="366" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E366" s="4"/>
     </row>
-    <row r="367" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="367" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E367" s="4"/>
     </row>
-    <row r="368" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="368" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E368" s="4"/>
     </row>
-    <row r="369" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="369" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E369" s="4"/>
     </row>
-    <row r="370" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="370" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E370" s="4"/>
     </row>
-    <row r="371" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="371" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E371" s="4"/>
     </row>
-    <row r="372" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="372" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E372" s="4"/>
     </row>
-    <row r="373" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="373" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E373" s="4"/>
     </row>
-    <row r="374" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="374" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E374" s="4"/>
     </row>
-    <row r="375" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="375" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E375" s="4"/>
     </row>
-    <row r="376" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="376" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E376" s="4"/>
     </row>
-    <row r="377" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="377" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E377" s="4"/>
     </row>
-    <row r="378" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="378" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E378" s="4"/>
     </row>
-    <row r="379" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E379" s="4"/>
     </row>
-    <row r="380" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="380" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E380" s="4"/>
     </row>
-    <row r="381" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="381" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E381" s="4"/>
     </row>
-    <row r="382" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="382" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E382" s="4"/>
     </row>
-    <row r="383" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="383" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E383" s="4"/>
     </row>
-    <row r="384" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="384" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E384" s="4"/>
     </row>
-    <row r="385" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E385" s="4"/>
     </row>
-    <row r="386" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E386" s="4"/>
     </row>
-    <row r="387" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E387" s="4"/>
     </row>
-    <row r="388" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E388" s="4"/>
     </row>
-    <row r="389" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E389" s="4"/>
     </row>
-    <row r="390" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E390" s="4"/>
     </row>
-    <row r="391" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="391" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E391" s="4"/>
     </row>
-    <row r="392" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="392" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E392" s="4"/>
     </row>
-    <row r="393" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="393" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E393" s="4"/>
     </row>
-    <row r="394" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="394" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E394" s="4"/>
     </row>
-    <row r="395" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E395" s="4"/>
     </row>
-    <row r="396" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E396" s="4"/>
     </row>
-    <row r="397" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="397" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E397" s="4"/>
     </row>
-    <row r="398" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="398" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E398" s="4"/>
     </row>
-    <row r="399" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="399" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E399" s="4"/>
     </row>
-    <row r="400" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="400" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E400" s="4"/>
     </row>
-    <row r="401" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="401" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E401" s="4"/>
     </row>
-    <row r="402" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="402" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E402" s="4"/>
     </row>
-    <row r="403" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="403" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E403" s="4"/>
     </row>
-    <row r="404" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="404" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E404" s="4"/>
     </row>
-    <row r="405" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="405" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E405" s="4"/>
     </row>
-    <row r="406" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="406" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E406" s="4"/>
     </row>
-    <row r="407" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="407" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E407" s="4"/>
     </row>
-    <row r="408" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="408" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E408" s="4"/>
     </row>
-    <row r="409" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="409" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E409" s="4"/>
     </row>
-    <row r="410" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="410" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E410" s="4"/>
     </row>
-    <row r="411" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="411" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E411" s="4"/>
     </row>
-    <row r="412" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="412" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E412" s="4"/>
     </row>
-    <row r="413" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="413" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E413" s="4"/>
     </row>
-    <row r="414" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="414" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E414" s="4"/>
     </row>
-    <row r="415" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="415" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E415" s="4"/>
     </row>
-    <row r="416" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="416" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E416" s="4"/>
     </row>
-    <row r="417" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="417" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E417" s="4"/>
     </row>
-    <row r="418" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="418" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E418" s="4"/>
     </row>
-    <row r="419" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="419" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E419" s="4"/>
     </row>
-    <row r="420" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="420" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E420" s="4"/>
     </row>
-    <row r="421" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="421" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E421" s="4"/>
     </row>
-    <row r="422" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="422" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E422" s="4"/>
     </row>
-    <row r="423" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="423" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E423" s="4"/>
     </row>
-    <row r="424" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="424" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E424" s="4"/>
     </row>
-    <row r="425" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="425" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E425" s="4"/>
     </row>
-    <row r="426" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="426" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E426" s="4"/>
     </row>
-    <row r="427" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="427" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E427" s="4"/>
     </row>
-    <row r="428" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="428" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E428" s="4"/>
     </row>
-    <row r="429" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="429" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E429" s="4"/>
     </row>
-    <row r="430" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="430" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E430" s="4"/>
     </row>
-    <row r="431" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="431" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E431" s="4"/>
     </row>
-    <row r="432" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="432" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E432" s="4"/>
     </row>
-    <row r="433" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="433" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E433" s="4"/>
     </row>
-    <row r="434" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="434" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E434" s="4"/>
     </row>
-    <row r="435" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="435" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E435" s="4"/>
     </row>
-    <row r="436" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="436" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E436" s="4"/>
     </row>
-    <row r="437" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="437" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E437" s="4"/>
     </row>
-    <row r="438" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="438" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E438" s="4"/>
     </row>
-    <row r="439" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="439" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E439" s="4"/>
     </row>
-    <row r="440" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="440" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E440" s="4"/>
     </row>
-    <row r="441" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="441" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E441" s="4"/>
     </row>
-    <row r="442" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="442" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E442" s="4"/>
     </row>
-    <row r="443" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="443" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E443" s="4"/>
     </row>
-    <row r="444" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="444" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E444" s="4"/>
     </row>
-    <row r="445" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="445" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E445" s="4"/>
     </row>
-    <row r="446" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="446" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E446" s="4"/>
     </row>
-    <row r="447" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="447" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E447" s="4"/>
     </row>
-    <row r="448" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="448" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E448" s="4"/>
     </row>
-    <row r="449" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E449" s="4"/>
     </row>
-    <row r="450" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="450" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E450" s="4"/>
     </row>
-    <row r="451" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="451" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E451" s="4"/>
     </row>
-    <row r="452" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E452" s="4"/>
     </row>
-    <row r="453" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E453" s="4"/>
     </row>
-    <row r="454" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="454" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E454" s="4"/>
     </row>
-    <row r="455" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E455" s="4"/>
     </row>
-    <row r="456" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E456" s="4"/>
     </row>
-    <row r="457" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="457" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E457" s="4"/>
     </row>
-    <row r="458" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="458" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E458" s="4"/>
     </row>
-    <row r="459" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E459" s="4"/>
     </row>
-    <row r="460" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E460" s="4"/>
     </row>
-    <row r="461" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E461" s="4"/>
     </row>
-    <row r="462" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E462" s="4"/>
     </row>
-    <row r="463" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E463" s="4"/>
     </row>
-    <row r="464" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E464" s="4"/>
     </row>
-    <row r="465" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="465" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E465" s="4"/>
     </row>
-    <row r="466" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="466" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E466" s="4"/>
     </row>
-    <row r="467" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="467" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E467" s="4"/>
     </row>
-    <row r="468" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="468" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E468" s="4"/>
     </row>
-    <row r="469" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="469" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E469" s="4"/>
     </row>
-    <row r="470" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="470" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E470" s="4"/>
     </row>
-    <row r="471" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="471" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E471" s="4"/>
     </row>
-    <row r="472" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="472" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E472" s="4"/>
     </row>
-    <row r="473" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="473" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E473" s="4"/>
     </row>
-    <row r="474" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="474" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E474" s="4"/>
     </row>
-    <row r="475" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="475" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E475" s="4"/>
     </row>
-    <row r="476" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="476" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E476" s="4"/>
     </row>
-    <row r="477" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="477" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E477" s="4"/>
     </row>
-    <row r="478" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="478" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E478" s="4"/>
     </row>
-    <row r="479" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="479" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E479" s="4"/>
     </row>
-    <row r="480" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="480" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E480" s="4"/>
     </row>
-    <row r="481" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="481" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E481" s="4"/>
     </row>
-    <row r="482" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="482" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E482" s="4"/>
     </row>
-    <row r="483" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="483" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E483" s="4"/>
     </row>
-    <row r="484" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="484" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E484" s="4"/>
     </row>
-    <row r="485" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="485" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E485" s="4"/>
     </row>
-    <row r="486" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="486" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E486" s="4"/>
     </row>
-    <row r="487" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="487" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E487" s="4"/>
     </row>
-    <row r="488" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="488" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E488" s="4"/>
     </row>
-    <row r="489" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="489" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E489" s="4"/>
     </row>
-    <row r="490" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="490" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E490" s="4"/>
     </row>
-    <row r="491" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="491" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E491" s="4"/>
     </row>
-    <row r="492" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="492" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E492" s="4"/>
     </row>
-    <row r="493" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="493" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E493" s="4"/>
     </row>
-    <row r="494" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="494" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E494" s="4"/>
     </row>
-    <row r="495" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="495" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E495" s="4"/>
     </row>
-    <row r="496" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="496" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E496" s="4"/>
     </row>
-    <row r="497" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="497" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E497" s="4"/>
     </row>
-    <row r="498" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="498" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E498" s="4"/>
     </row>
-    <row r="499" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="499" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E499" s="4"/>
     </row>
-    <row r="500" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="500" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E500" s="4"/>
     </row>
-    <row r="501" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="501" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E501" s="4"/>
     </row>
-    <row r="502" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="502" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E502" s="4"/>
     </row>
-    <row r="503" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="503" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E503" s="4"/>
     </row>
-    <row r="504" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="504" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E504" s="4"/>
     </row>
-    <row r="505" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="505" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E505" s="4"/>
     </row>
-    <row r="506" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="506" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E506" s="4"/>
     </row>
-    <row r="507" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="507" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E507" s="4"/>
     </row>
-    <row r="508" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="508" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E508" s="4"/>
     </row>
-    <row r="509" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="509" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E509" s="4"/>
     </row>
-    <row r="510" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="510" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E510" s="4"/>
     </row>
-    <row r="511" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="511" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E511" s="4"/>
     </row>
-    <row r="512" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="512" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E512" s="4"/>
     </row>
-    <row r="513" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="513" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E513" s="4"/>
     </row>
-    <row r="514" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="514" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E514" s="4"/>
     </row>
-    <row r="515" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="515" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E515" s="4"/>
     </row>
-    <row r="516" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="516" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E516" s="4"/>
     </row>
-    <row r="517" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="517" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E517" s="4"/>
     </row>
-    <row r="518" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="518" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E518" s="4"/>
     </row>
-    <row r="519" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="519" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E519" s="4"/>
     </row>
-    <row r="520" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="520" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E520" s="4"/>
     </row>
-    <row r="521" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="521" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E521" s="4"/>
     </row>
-    <row r="522" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="522" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E522" s="4"/>
     </row>
-    <row r="523" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="523" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E523" s="4"/>
     </row>
-    <row r="524" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="524" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E524" s="4"/>
     </row>
-    <row r="525" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="525" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E525" s="4"/>
     </row>
-    <row r="526" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="526" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E526" s="4"/>
     </row>
-    <row r="527" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="527" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E527" s="4"/>
     </row>
-    <row r="528" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="528" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E528" s="4"/>
     </row>
-    <row r="529" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="529" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E529" s="4"/>
     </row>
-    <row r="530" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="530" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E530" s="4"/>
     </row>
-    <row r="531" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="531" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E531" s="4"/>
     </row>
-    <row r="532" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="532" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E532" s="4"/>
     </row>
-    <row r="533" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="533" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E533" s="4"/>
     </row>
-    <row r="534" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="534" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E534" s="4"/>
     </row>
-    <row r="535" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="535" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E535" s="4"/>
     </row>
-    <row r="536" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="536" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E536" s="4"/>
     </row>
-    <row r="537" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="537" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E537" s="4"/>
     </row>
-    <row r="538" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="538" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E538" s="4"/>
     </row>
-    <row r="539" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="539" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E539" s="4"/>
     </row>
-    <row r="540" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="540" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E540" s="4"/>
     </row>
-    <row r="541" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="541" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E541" s="4"/>
     </row>
-    <row r="542" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="542" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E542" s="4"/>
     </row>
-    <row r="543" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="543" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E543" s="4"/>
     </row>
-    <row r="544" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="544" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E544" s="4"/>
     </row>
-    <row r="545" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="545" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E545" s="4"/>
     </row>
-    <row r="546" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="546" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E546" s="4"/>
     </row>
-    <row r="547" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="547" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E547" s="4"/>
     </row>
-    <row r="548" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="548" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E548" s="4"/>
     </row>
-    <row r="549" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="549" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E549" s="4"/>
     </row>
-    <row r="550" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="550" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E550" s="4"/>
     </row>
-    <row r="551" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="551" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E551" s="4"/>
     </row>
-    <row r="552" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="552" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E552" s="4"/>
     </row>
-    <row r="553" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="553" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E553" s="4"/>
     </row>
-    <row r="554" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="554" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E554" s="4"/>
     </row>
-    <row r="555" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="555" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E555" s="4"/>
     </row>
-    <row r="556" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="556" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E556" s="4"/>
     </row>
-    <row r="557" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="557" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E557" s="4"/>
     </row>
-    <row r="558" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="558" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E558" s="4"/>
     </row>
-    <row r="559" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="559" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E559" s="4"/>
     </row>
-    <row r="560" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="560" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E560" s="4"/>
     </row>
-    <row r="561" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="561" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E561" s="4"/>
     </row>
-    <row r="562" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="562" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E562" s="4"/>
     </row>
-    <row r="563" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="563" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E563" s="4"/>
     </row>
-    <row r="564" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="564" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E564" s="4"/>
     </row>
-    <row r="565" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="565" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E565" s="4"/>
     </row>
-    <row r="566" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="566" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E566" s="4"/>
     </row>
-    <row r="567" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="567" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E567" s="4"/>
     </row>
-    <row r="568" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="568" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E568" s="4"/>
     </row>
-    <row r="569" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="569" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E569" s="4"/>
     </row>
-    <row r="570" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="570" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E570" s="4"/>
     </row>
-    <row r="571" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="571" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E571" s="4"/>
     </row>
-    <row r="572" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="572" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E572" s="4"/>
     </row>
-    <row r="573" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="573" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E573" s="4"/>
     </row>
-    <row r="574" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="574" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E574" s="4"/>
     </row>
-    <row r="575" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="575" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E575" s="4"/>
     </row>
-    <row r="576" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="576" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E576" s="4"/>
     </row>
-    <row r="577" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="577" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E577" s="4"/>
     </row>
-    <row r="578" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="578" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E578" s="4"/>
     </row>
-    <row r="579" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="579" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E579" s="4"/>
     </row>
-    <row r="580" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="580" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E580" s="4"/>
     </row>
-    <row r="581" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="581" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E581" s="4"/>
     </row>
-    <row r="582" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="582" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E582" s="4"/>
     </row>
-    <row r="583" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="583" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E583" s="4"/>
     </row>
-    <row r="584" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="584" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E584" s="4"/>
     </row>
-    <row r="585" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="585" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E585" s="4"/>
     </row>
-    <row r="586" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="586" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E586" s="4"/>
     </row>
-    <row r="587" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="587" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E587" s="4"/>
     </row>
-    <row r="588" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="588" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E588" s="4"/>
     </row>
-    <row r="589" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="589" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E589" s="4"/>
     </row>
-    <row r="590" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="590" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E590" s="4"/>
     </row>
-    <row r="591" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="591" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E591" s="4"/>
     </row>
-    <row r="592" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="592" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E592" s="4"/>
     </row>
-    <row r="593" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="593" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E593" s="4"/>
     </row>
-    <row r="594" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="594" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E594" s="4"/>
     </row>
-    <row r="595" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="595" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E595" s="4"/>
     </row>
-    <row r="596" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="596" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E596" s="4"/>
     </row>
-    <row r="597" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="597" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E597" s="4"/>
     </row>
-    <row r="598" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="598" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E598" s="4"/>
     </row>
-    <row r="599" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="599" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E599" s="4"/>
     </row>
-    <row r="600" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="600" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E600" s="4"/>
     </row>
-    <row r="601" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="601" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E601" s="4"/>
     </row>
-    <row r="602" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="602" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E602" s="4"/>
     </row>
-    <row r="603" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="603" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E603" s="4"/>
     </row>
-    <row r="604" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="604" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E604" s="4"/>
     </row>
-    <row r="605" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="605" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E605" s="4"/>
     </row>
-    <row r="606" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="606" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E606" s="4"/>
     </row>
-    <row r="607" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="607" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E607" s="4"/>
     </row>
-    <row r="608" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="608" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E608" s="4"/>
     </row>
-    <row r="609" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="609" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E609" s="4"/>
     </row>
-    <row r="610" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="610" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E610" s="4"/>
     </row>
-    <row r="611" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="611" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E611" s="4"/>
     </row>
-    <row r="612" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="612" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E612" s="4"/>
     </row>
-    <row r="613" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="613" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E613" s="4"/>
     </row>
-    <row r="614" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="614" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E614" s="4"/>
     </row>
-    <row r="615" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="615" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E615" s="4"/>
     </row>
-    <row r="616" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="616" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E616" s="4"/>
     </row>
-    <row r="617" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="617" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E617" s="4"/>
     </row>
-    <row r="618" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="618" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E618" s="4"/>
     </row>
-    <row r="619" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="619" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E619" s="4"/>
     </row>
-    <row r="620" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="620" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E620" s="4"/>
     </row>
-    <row r="621" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="621" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E621" s="4"/>
     </row>
-    <row r="622" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="622" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E622" s="4"/>
     </row>
-    <row r="623" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="623" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E623" s="4"/>
     </row>
-    <row r="624" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="624" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E624" s="4"/>
     </row>
-    <row r="625" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="625" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E625" s="4"/>
     </row>
-    <row r="626" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="626" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E626" s="4"/>
     </row>
-    <row r="627" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="627" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E627" s="4"/>
     </row>
-    <row r="628" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="628" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E628" s="4"/>
     </row>
-    <row r="629" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="629" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E629" s="4"/>
     </row>
-    <row r="630" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="630" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E630" s="4"/>
     </row>
-    <row r="631" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="631" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E631" s="4"/>
     </row>
-    <row r="632" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="632" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E632" s="4"/>
     </row>
-    <row r="633" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="633" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E633" s="4"/>
     </row>
-    <row r="634" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="634" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E634" s="4"/>
     </row>
-    <row r="635" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="635" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E635" s="4"/>
     </row>
-    <row r="636" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="636" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E636" s="4"/>
     </row>
-    <row r="637" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="637" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E637" s="4"/>
     </row>
-    <row r="638" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="638" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E638" s="4"/>
     </row>
-    <row r="639" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="639" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E639" s="4"/>
     </row>
-    <row r="640" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="640" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E640" s="4"/>
     </row>
-    <row r="641" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="641" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E641" s="4"/>
     </row>
-    <row r="642" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="642" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E642" s="4"/>
     </row>
-    <row r="643" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="643" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E643" s="4"/>
     </row>
-    <row r="644" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="644" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E644" s="4"/>
     </row>
-    <row r="645" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="645" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E645" s="4"/>
     </row>
-    <row r="646" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="646" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E646" s="4"/>
     </row>
-    <row r="647" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="647" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E647" s="4"/>
     </row>
-    <row r="648" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="648" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E648" s="4"/>
     </row>
-    <row r="649" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="649" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E649" s="4"/>
     </row>
-    <row r="650" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="650" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E650" s="4"/>
     </row>
-    <row r="651" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="651" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E651" s="4"/>
     </row>
-    <row r="652" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="652" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E652" s="4"/>
     </row>
-    <row r="653" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="653" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E653" s="4"/>
     </row>
-    <row r="654" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="654" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E654" s="4"/>
     </row>
-    <row r="655" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="655" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E655" s="4"/>
     </row>
-    <row r="656" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="656" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E656" s="4"/>
     </row>
-    <row r="657" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="657" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E657" s="4"/>
     </row>
-    <row r="658" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="658" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E658" s="4"/>
     </row>
-    <row r="659" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="659" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E659" s="4"/>
     </row>
-    <row r="660" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="660" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E660" s="4"/>
     </row>
-    <row r="661" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="661" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E661" s="4"/>
     </row>
-    <row r="662" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="662" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E662" s="4"/>
     </row>
-    <row r="663" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="663" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E663" s="4"/>
     </row>
-    <row r="664" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="664" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E664" s="4"/>
     </row>
-    <row r="665" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="665" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E665" s="4"/>
     </row>
-    <row r="666" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="666" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E666" s="4"/>
     </row>
-    <row r="667" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="667" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E667" s="4"/>
     </row>
-    <row r="668" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="668" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E668" s="4"/>
     </row>
-    <row r="669" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="669" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E669" s="4"/>
     </row>
-    <row r="670" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="670" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E670" s="4"/>
     </row>
-    <row r="671" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="671" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E671" s="4"/>
     </row>
-    <row r="672" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="672" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E672" s="4"/>
     </row>
-    <row r="673" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="673" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E673" s="4"/>
     </row>
-    <row r="674" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="674" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E674" s="4"/>
     </row>
-    <row r="675" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="675" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E675" s="4"/>
     </row>
-    <row r="676" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="676" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E676" s="4"/>
     </row>
-    <row r="677" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="677" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E677" s="4"/>
     </row>
-    <row r="678" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="678" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E678" s="4"/>
     </row>
-    <row r="679" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="679" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E679" s="4"/>
     </row>
-    <row r="680" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="680" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E680" s="4"/>
     </row>
-    <row r="681" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="681" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E681" s="4"/>
     </row>
-    <row r="682" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="682" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E682" s="4"/>
     </row>
-    <row r="683" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="683" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E683" s="4"/>
     </row>
-    <row r="684" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="684" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E684" s="4"/>
     </row>
-    <row r="685" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="685" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E685" s="4"/>
     </row>
-    <row r="686" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="686" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E686" s="4"/>
     </row>
-    <row r="687" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="687" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E687" s="4"/>
     </row>
-    <row r="688" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="688" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E688" s="4"/>
     </row>
-    <row r="689" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="689" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E689" s="4"/>
     </row>
-    <row r="690" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="690" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E690" s="4"/>
     </row>
-    <row r="691" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="691" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E691" s="4"/>
     </row>
-    <row r="692" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="692" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E692" s="4"/>
     </row>
-    <row r="693" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="693" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E693" s="4"/>
     </row>
-    <row r="694" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="694" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E694" s="4"/>
     </row>
-    <row r="695" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="695" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E695" s="4"/>
     </row>
-    <row r="696" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="696" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E696" s="4"/>
     </row>
-    <row r="697" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="697" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E697" s="4"/>
     </row>
-    <row r="698" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="698" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E698" s="4"/>
     </row>
-    <row r="699" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="699" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E699" s="4"/>
     </row>
-    <row r="700" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="700" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E700" s="4"/>
     </row>
-    <row r="701" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="701" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E701" s="4"/>
     </row>
-    <row r="702" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="702" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E702" s="4"/>
     </row>
-    <row r="703" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="703" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E703" s="4"/>
     </row>
-    <row r="704" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="704" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E704" s="4"/>
     </row>
-    <row r="705" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="705" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E705" s="4"/>
     </row>
-    <row r="706" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="706" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E706" s="4"/>
     </row>
-    <row r="707" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="707" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E707" s="4"/>
     </row>
-    <row r="708" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="708" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E708" s="4"/>
     </row>
-    <row r="709" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="709" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E709" s="4"/>
     </row>
-    <row r="710" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="710" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E710" s="4"/>
     </row>
-    <row r="711" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="711" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E711" s="4"/>
     </row>
-    <row r="712" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="712" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E712" s="4"/>
     </row>
-    <row r="713" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="713" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E713" s="4"/>
     </row>
-    <row r="714" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="714" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E714" s="4"/>
     </row>
-    <row r="715" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="715" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E715" s="4"/>
     </row>
-    <row r="716" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="716" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E716" s="4"/>
     </row>
-    <row r="717" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="717" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E717" s="4"/>
     </row>
-    <row r="718" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="718" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E718" s="4"/>
     </row>
-    <row r="719" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="719" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E719" s="4"/>
     </row>
-    <row r="720" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="720" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E720" s="4"/>
     </row>
-    <row r="721" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="721" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E721" s="4"/>
     </row>
-    <row r="722" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="722" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E722" s="4"/>
     </row>
-    <row r="723" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="723" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E723" s="4"/>
     </row>
-    <row r="724" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="724" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E724" s="4"/>
     </row>
-    <row r="725" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="725" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E725" s="4"/>
     </row>
-    <row r="726" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="726" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E726" s="4"/>
     </row>
-    <row r="727" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="727" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E727" s="4"/>
     </row>
-    <row r="728" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="728" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E728" s="4"/>
     </row>
-    <row r="729" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="729" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E729" s="4"/>
     </row>
-    <row r="730" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="730" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E730" s="4"/>
     </row>
-    <row r="731" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="731" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E731" s="4"/>
     </row>
-    <row r="732" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="732" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E732" s="4"/>
     </row>
-    <row r="733" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="733" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E733" s="4"/>
     </row>
-    <row r="734" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="734" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E734" s="4"/>
     </row>
-    <row r="735" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="735" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E735" s="4"/>
     </row>
-    <row r="736" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="736" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E736" s="4"/>
     </row>
-    <row r="737" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="737" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E737" s="4"/>
     </row>
-    <row r="738" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="738" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E738" s="4"/>
     </row>
-    <row r="739" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="739" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E739" s="4"/>
     </row>
-    <row r="740" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="740" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E740" s="4"/>
     </row>
-    <row r="741" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="741" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E741" s="4"/>
     </row>
-    <row r="742" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="742" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E742" s="4"/>
     </row>
-    <row r="743" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="743" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E743" s="4"/>
     </row>
-    <row r="744" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="744" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E744" s="4"/>
     </row>
-    <row r="745" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="745" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E745" s="4"/>
     </row>
-    <row r="746" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="746" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E746" s="4"/>
     </row>
-    <row r="747" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="747" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E747" s="4"/>
     </row>
-    <row r="748" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="748" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E748" s="4"/>
     </row>
-    <row r="749" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="749" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E749" s="4"/>
     </row>
-    <row r="750" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="750" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E750" s="4"/>
     </row>
-    <row r="751" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="751" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E751" s="4"/>
     </row>
-    <row r="752" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="752" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E752" s="4"/>
     </row>
-    <row r="753" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="753" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E753" s="4"/>
     </row>
-    <row r="754" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="754" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E754" s="4"/>
     </row>
-    <row r="755" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="755" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E755" s="4"/>
     </row>
-    <row r="756" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="756" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E756" s="4"/>
     </row>
-    <row r="757" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="757" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E757" s="4"/>
     </row>
-    <row r="758" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="758" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E758" s="4"/>
     </row>
-    <row r="759" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="759" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E759" s="4"/>
     </row>
-    <row r="760" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="760" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E760" s="4"/>
     </row>
-    <row r="761" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="761" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E761" s="4"/>
     </row>
-    <row r="762" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="762" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E762" s="4"/>
     </row>
-    <row r="763" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="763" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E763" s="4"/>
     </row>
-    <row r="764" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="764" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E764" s="4"/>
     </row>
-    <row r="765" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="765" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E765" s="4"/>
     </row>
-    <row r="766" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="766" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E766" s="4"/>
     </row>
-    <row r="767" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="767" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E767" s="4"/>
     </row>
-    <row r="768" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="768" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E768" s="4"/>
     </row>
-    <row r="769" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="769" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E769" s="4"/>
     </row>
-    <row r="770" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="770" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E770" s="4"/>
     </row>
-    <row r="771" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="771" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E771" s="4"/>
     </row>
-    <row r="772" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="772" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E772" s="4"/>
     </row>
-    <row r="773" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="773" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E773" s="4"/>
     </row>
-    <row r="774" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="774" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E774" s="4"/>
     </row>
-    <row r="775" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="775" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E775" s="4"/>
     </row>
-    <row r="776" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="776" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E776" s="4"/>
     </row>
-    <row r="777" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="777" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E777" s="4"/>
     </row>
-    <row r="778" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="778" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E778" s="4"/>
     </row>
-    <row r="779" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="779" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E779" s="4"/>
     </row>
-    <row r="780" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="780" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E780" s="4"/>
     </row>
-    <row r="781" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="781" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E781" s="4"/>
     </row>
-    <row r="782" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="782" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E782" s="4"/>
     </row>
-    <row r="783" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="783" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E783" s="4"/>
     </row>
-    <row r="784" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="784" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E784" s="4"/>
     </row>
-    <row r="785" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="785" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E785" s="4"/>
     </row>
-    <row r="786" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="786" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E786" s="4"/>
     </row>
-    <row r="787" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="787" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E787" s="4"/>
     </row>
-    <row r="788" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="788" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E788" s="4"/>
     </row>
-    <row r="789" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="789" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E789" s="4"/>
     </row>
-    <row r="790" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="790" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E790" s="4"/>
     </row>
-    <row r="791" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="791" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E791" s="4"/>
     </row>
-    <row r="792" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="792" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E792" s="4"/>
     </row>
-    <row r="793" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="793" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E793" s="4"/>
     </row>
-    <row r="794" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="794" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E794" s="4"/>
     </row>
-    <row r="795" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="795" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E795" s="4"/>
     </row>
-    <row r="796" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="796" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E796" s="4"/>
     </row>
-    <row r="797" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="797" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E797" s="4"/>
     </row>
-    <row r="798" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="798" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E798" s="4"/>
     </row>
-    <row r="799" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="799" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E799" s="4"/>
     </row>
-    <row r="800" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="800" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E800" s="4"/>
     </row>
-    <row r="801" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="801" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E801" s="4"/>
     </row>
-    <row r="802" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="802" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E802" s="4"/>
     </row>
-    <row r="803" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="803" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E803" s="4"/>
     </row>
-    <row r="804" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="804" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E804" s="4"/>
     </row>
-    <row r="805" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="805" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E805" s="4"/>
     </row>
-    <row r="806" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="806" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E806" s="4"/>
     </row>
-    <row r="807" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="807" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E807" s="4"/>
     </row>
-    <row r="808" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="808" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E808" s="4"/>
     </row>
-    <row r="809" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="809" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E809" s="4"/>
     </row>
-    <row r="810" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="810" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E810" s="4"/>
     </row>
-    <row r="811" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="811" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E811" s="4"/>
     </row>
-    <row r="812" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="812" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E812" s="4"/>
     </row>
-    <row r="813" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="813" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E813" s="4"/>
     </row>
-    <row r="814" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="814" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E814" s="4"/>
     </row>
-    <row r="815" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="815" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E815" s="4"/>
     </row>
-    <row r="816" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="816" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E816" s="4"/>
     </row>
-    <row r="817" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="817" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E817" s="4"/>
     </row>
-    <row r="818" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="818" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E818" s="4"/>
     </row>
-    <row r="819" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="819" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E819" s="4"/>
     </row>
-    <row r="820" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="820" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E820" s="4"/>
     </row>
-    <row r="821" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="821" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E821" s="4"/>
     </row>
-    <row r="822" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="822" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E822" s="4"/>
     </row>
-    <row r="823" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="823" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E823" s="4"/>
     </row>
-    <row r="824" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="824" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E824" s="4"/>
     </row>
-    <row r="825" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="825" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E825" s="4"/>
     </row>
-    <row r="826" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="826" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E826" s="4"/>
     </row>
-    <row r="827" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="827" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E827" s="4"/>
     </row>
-    <row r="828" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="828" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E828" s="4"/>
     </row>
-    <row r="829" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="829" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E829" s="4"/>
     </row>
-    <row r="830" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="830" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E830" s="4"/>
     </row>
-    <row r="831" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="831" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E831" s="4"/>
     </row>
-    <row r="832" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="832" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E832" s="4"/>
     </row>
-    <row r="833" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="833" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E833" s="4"/>
     </row>
-    <row r="834" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="834" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E834" s="4"/>
     </row>
-    <row r="835" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="835" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E835" s="4"/>
     </row>
-    <row r="836" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="836" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E836" s="4"/>
     </row>
-    <row r="837" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="837" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E837" s="4"/>
     </row>
-    <row r="838" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="838" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E838" s="4"/>
     </row>
-    <row r="839" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="839" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E839" s="4"/>
     </row>
-    <row r="840" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="840" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E840" s="4"/>
     </row>
-    <row r="841" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="841" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E841" s="4"/>
     </row>
-    <row r="842" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="842" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E842" s="4"/>
     </row>
-    <row r="843" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="843" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E843" s="4"/>
     </row>
-    <row r="844" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="844" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E844" s="4"/>
     </row>
-    <row r="845" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="845" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E845" s="4"/>
     </row>
-    <row r="846" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="846" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E846" s="4"/>
     </row>
-    <row r="847" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="847" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E847" s="4"/>
     </row>
-    <row r="848" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="848" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E848" s="4"/>
     </row>
-    <row r="849" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="849" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E849" s="4"/>
     </row>
-    <row r="850" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="850" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E850" s="4"/>
     </row>
-    <row r="851" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="851" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E851" s="4"/>
     </row>
-    <row r="852" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="852" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E852" s="4"/>
     </row>
-    <row r="853" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="853" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E853" s="4"/>
     </row>
-    <row r="854" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="854" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E854" s="4"/>
     </row>
-    <row r="855" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="855" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E855" s="4"/>
     </row>
-    <row r="856" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="856" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E856" s="4"/>
     </row>
-    <row r="857" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="857" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E857" s="4"/>
     </row>
-    <row r="858" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="858" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E858" s="4"/>
     </row>
-    <row r="859" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="859" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E859" s="4"/>
     </row>
-    <row r="860" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="860" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E860" s="4"/>
     </row>
-    <row r="861" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="861" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E861" s="4"/>
     </row>
-    <row r="862" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="862" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E862" s="4"/>
     </row>
-    <row r="863" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="863" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E863" s="4"/>
     </row>
-    <row r="864" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="864" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E864" s="4"/>
     </row>
-    <row r="865" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="865" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E865" s="4"/>
     </row>
-    <row r="866" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="866" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E866" s="4"/>
     </row>
-    <row r="867" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="867" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E867" s="4"/>
     </row>
-    <row r="868" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="868" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E868" s="4"/>
     </row>
-    <row r="869" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="869" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E869" s="4"/>
     </row>
-    <row r="870" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="870" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E870" s="4"/>
     </row>
-    <row r="871" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="871" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E871" s="4"/>
     </row>
-    <row r="872" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="872" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E872" s="4"/>
     </row>
-    <row r="873" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="873" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E873" s="4"/>
     </row>
-    <row r="874" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="874" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E874" s="4"/>
     </row>
-    <row r="875" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="875" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E875" s="4"/>
     </row>
-    <row r="876" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="876" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E876" s="4"/>
     </row>
-    <row r="877" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="877" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E877" s="4"/>
     </row>
-    <row r="878" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="878" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E878" s="4"/>
     </row>
-    <row r="879" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="879" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E879" s="4"/>
     </row>
-    <row r="880" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="880" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E880" s="4"/>
     </row>
-    <row r="881" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="881" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E881" s="4"/>
     </row>
-    <row r="882" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="882" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E882" s="4"/>
     </row>
-    <row r="883" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="883" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E883" s="4"/>
     </row>
-    <row r="884" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="884" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E884" s="4"/>
     </row>
-    <row r="885" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="885" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E885" s="4"/>
     </row>
-    <row r="886" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="886" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E886" s="4"/>
     </row>
-    <row r="887" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="887" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E887" s="4"/>
     </row>
-    <row r="888" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="888" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E888" s="4"/>
     </row>
-    <row r="889" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="889" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E889" s="4"/>
     </row>
-    <row r="890" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="890" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E890" s="4"/>
     </row>
-    <row r="891" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="891" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E891" s="4"/>
     </row>
-    <row r="892" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="892" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E892" s="4"/>
     </row>
-    <row r="893" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="893" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E893" s="4"/>
     </row>
-    <row r="894" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="894" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E894" s="4"/>
     </row>
-    <row r="895" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="895" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E895" s="4"/>
     </row>
-    <row r="896" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="896" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E896" s="4"/>
     </row>
-    <row r="897" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="897" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E897" s="4"/>
     </row>
-    <row r="898" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="898" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E898" s="4"/>
     </row>
-    <row r="899" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="899" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E899" s="4"/>
     </row>
-    <row r="900" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="900" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E900" s="4"/>
     </row>
-    <row r="901" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="901" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E901" s="4"/>
     </row>
-    <row r="902" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="902" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E902" s="4"/>
     </row>
-    <row r="903" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="903" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E903" s="4"/>
     </row>
-    <row r="904" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="904" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E904" s="4"/>
     </row>
-    <row r="905" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="905" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E905" s="4"/>
     </row>
-    <row r="906" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="906" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E906" s="4"/>
     </row>
-    <row r="907" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="907" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E907" s="4"/>
     </row>
-    <row r="908" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="908" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E908" s="4"/>
     </row>
-    <row r="909" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="909" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E909" s="4"/>
     </row>
-    <row r="910" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="910" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E910" s="4"/>
     </row>
-    <row r="911" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="911" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E911" s="4"/>
     </row>
-    <row r="912" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="912" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E912" s="4"/>
     </row>
-    <row r="913" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="913" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E913" s="4"/>
     </row>
-    <row r="914" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="914" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E914" s="4"/>
     </row>
-    <row r="915" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="915" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E915" s="4"/>
     </row>
-    <row r="916" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="916" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E916" s="4"/>
     </row>
-    <row r="917" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="917" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E917" s="4"/>
     </row>
-    <row r="918" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="918" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E918" s="4"/>
     </row>
-    <row r="919" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="919" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E919" s="4"/>
     </row>
-    <row r="920" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="920" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E920" s="4"/>
     </row>
-    <row r="921" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="921" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E921" s="4"/>
     </row>
-    <row r="922" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="922" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E922" s="4"/>
     </row>
-    <row r="923" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="923" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E923" s="4"/>
     </row>
-    <row r="924" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="924" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E924" s="4"/>
     </row>
-    <row r="925" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="925" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E925" s="4"/>
     </row>
-    <row r="926" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="926" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E926" s="4"/>
     </row>
-    <row r="927" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="927" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E927" s="4"/>
     </row>
-    <row r="928" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="928" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E928" s="4"/>
     </row>
-    <row r="929" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="929" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E929" s="4"/>
     </row>
-    <row r="930" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="930" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E930" s="4"/>
     </row>
-    <row r="931" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="931" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E931" s="4"/>
     </row>
-    <row r="932" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="932" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E932" s="4"/>
     </row>
-    <row r="933" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="933" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E933" s="4"/>
     </row>
-    <row r="934" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="934" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E934" s="4"/>
     </row>
-    <row r="935" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="935" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E935" s="4"/>
     </row>
-    <row r="936" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="936" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E936" s="4"/>
     </row>
-    <row r="937" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="937" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E937" s="4"/>
     </row>
-    <row r="938" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="938" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E938" s="4"/>
     </row>
-    <row r="939" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="939" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E939" s="4"/>
     </row>
-    <row r="940" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="940" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E940" s="4"/>
     </row>
-    <row r="941" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="941" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E941" s="4"/>
     </row>
-    <row r="942" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="942" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E942" s="4"/>
     </row>
-    <row r="943" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="943" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E943" s="4"/>
     </row>
-    <row r="944" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="944" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E944" s="4"/>
     </row>
-    <row r="945" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="945" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E945" s="4"/>
     </row>
-    <row r="946" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="946" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E946" s="4"/>
     </row>
-    <row r="947" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="947" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E947" s="4"/>
     </row>
-    <row r="948" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="948" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E948" s="4"/>
     </row>
-    <row r="949" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="949" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E949" s="4"/>
     </row>
-    <row r="950" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="950" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E950" s="4"/>
     </row>
-    <row r="951" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="951" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E951" s="4"/>
     </row>
-    <row r="952" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="952" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E952" s="4"/>
     </row>
-    <row r="953" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="953" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E953" s="4"/>
     </row>
-    <row r="954" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="954" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E954" s="4"/>
     </row>
-    <row r="955" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="955" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E955" s="4"/>
     </row>
-    <row r="956" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="956" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E956" s="4"/>
     </row>
-    <row r="957" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="957" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E957" s="4"/>
     </row>
-    <row r="958" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="958" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E958" s="4"/>
     </row>
-    <row r="959" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="959" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E959" s="4"/>
     </row>
-    <row r="960" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="960" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E960" s="4"/>
     </row>
-    <row r="961" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="961" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E961" s="4"/>
     </row>
-    <row r="962" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="962" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E962" s="4"/>
     </row>
-    <row r="963" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="963" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E963" s="4"/>
     </row>
-    <row r="964" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="964" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E964" s="4"/>
     </row>
-    <row r="965" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="965" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E965" s="4"/>
     </row>
-    <row r="966" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="966" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E966" s="4"/>
     </row>
-    <row r="967" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="967" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E967" s="4"/>
     </row>
-    <row r="968" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="968" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E968" s="4"/>
     </row>
-    <row r="969" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="969" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E969" s="4"/>
     </row>
-    <row r="970" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="970" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E970" s="4"/>
     </row>
-    <row r="971" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="971" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E971" s="4"/>
     </row>
-    <row r="972" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="972" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E972" s="4"/>
     </row>
-    <row r="973" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="973" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E973" s="4"/>
     </row>
-    <row r="974" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="974" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E974" s="4"/>
     </row>
-    <row r="975" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="975" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E975" s="4"/>
     </row>
-    <row r="976" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="976" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E976" s="4"/>
     </row>
-    <row r="977" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="977" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E977" s="4"/>
     </row>
-    <row r="978" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="978" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E978" s="4"/>
     </row>
-    <row r="979" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="979" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E979" s="4"/>
     </row>
-    <row r="980" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="980" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E980" s="4"/>
     </row>
-    <row r="981" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="981" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E981" s="4"/>
     </row>
-    <row r="982" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="982" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E982" s="4"/>
     </row>
-    <row r="983" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="983" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E983" s="4"/>
     </row>
-    <row r="984" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="984" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E984" s="4"/>
     </row>
-    <row r="985" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="985" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E985" s="4"/>
     </row>
-    <row r="986" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="986" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E986" s="4"/>
     </row>
-    <row r="987" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="987" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E987" s="4"/>
     </row>
-    <row r="988" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="988" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E988" s="4"/>
     </row>
-    <row r="989" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="989" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E989" s="4"/>
     </row>
-    <row r="990" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="990" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E990" s="4"/>
     </row>
-    <row r="991" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="991" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E991" s="4"/>
     </row>
-    <row r="992" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="992" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E992" s="4"/>
     </row>
-    <row r="993" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="993" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E993" s="4"/>
     </row>
-    <row r="994" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="994" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E994" s="4"/>
     </row>
-    <row r="995" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="995" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E995" s="4"/>
     </row>
-    <row r="996" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="996" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E996" s="4"/>
     </row>
-    <row r="997" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="997" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E997" s="4"/>
     </row>
-    <row r="998" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="998" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E998" s="4"/>
     </row>
-    <row r="999" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="999" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E999" s="4"/>
     </row>
-    <row r="1000" spans="5:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="5:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E1000" s="4"/>
     </row>
   </sheetData>
@@ -7003,12 +7012,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7025,7 +7034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -7039,7 +7048,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
@@ -7053,7 +7062,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>63</v>
       </c>
